--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,14 +669,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 62297-2025</t>
+          <t>A 35099-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>46006.64673611111</v>
+        <v>45852.5584375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -728,514 +728,514 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 11678-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45373.57708333333</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62297-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46006.64673611111</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Tretåig hackspett
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 37012-2022</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44806</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>3.9</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 11678-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45373.57708333333</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 33104-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45517</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 33104-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45517</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Blekspindling agg.
 Garnlav</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 42748-2024</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45566</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Granriska
 Rostfläck</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 35099-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45852.5584375</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 1515-2024</t>
+          <t>A 10507-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45305</v>
+        <v>45721.39129629629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,8 +1247,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>10.4</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1257,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1272,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1282,49 +1287,49 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 58430-2025</t>
+          <t>A 22580-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45985.60377314815</v>
+        <v>45447.5825462963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,7 +1342,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1346,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1361,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1371,45 +1376,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 44857-2025</t>
+          <t>A 11637-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45918.45165509259</v>
+        <v>45727.46729166667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,8 +1430,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1431,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1449,52 +1463,52 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 41241-2024</t>
+          <t>A 44857-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45559</v>
+        <v>45918.45165509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1507,7 +1521,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1541,45 +1555,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Rökfingersvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28147-2022</t>
+          <t>A 30722-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44746</v>
+        <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,8 +1605,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>21.2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1601,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1616,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1626,49 +1645,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 10507-2025</t>
+          <t>A 19176-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45721.39129629629</v>
+        <v>45769</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,13 +1699,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>10.4</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1695,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1710,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1720,49 +1734,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 30722-2023</t>
+          <t>A 9690-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45112</v>
+        <v>45362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1774,13 +1788,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>21.2</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1789,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1804,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1814,49 +1823,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 19176-2025</t>
+          <t>A 58430-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45769</v>
+        <v>45985.60377314815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1869,7 +1878,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1878,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1893,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1903,49 +1912,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 10680-2024</t>
+          <t>A 41241-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45368</v>
+        <v>45559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1958,7 +1963,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1967,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1985,52 +1990,52 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Rökfingersvamp</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 22580-2024</t>
+          <t>A 290-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45447.5825462963</v>
+        <v>45656</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2043,16 +2048,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.3</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2067,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2077,49 +2082,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9690-2024</t>
+          <t>A 10680-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2132,22 +2133,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2159,56 +2160,52 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 11637-2025</t>
+          <t>A 28821-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45727.46729166667</v>
+        <v>45478.65488425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2226,13 +2223,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2250,55 +2247,55 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 290-2025</t>
+          <t>A 28147-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45656</v>
+        <v>44746</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,17 +2308,17 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2335,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2345,45 +2342,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 28821-2024</t>
+          <t>A 1515-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45478.65488425926</v>
+        <v>45305</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2395,23 +2396,18 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2425,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2435,31 +2431,35 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
         <v/>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
         <v>45789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,14 +2964,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23751-2022</t>
+          <t>A 64156-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44722.36616898148</v>
+        <v>44510.55405092592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2983,8 +2983,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3021,14 +3026,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 64156-2021</t>
+          <t>A 23751-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44510.55405092592</v>
+        <v>44722.36616898148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3040,13 +3045,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3658,14 +3658,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41269-2021</t>
+          <t>A 41977-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44424</v>
+        <v>44830</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3677,8 +3677,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3715,14 +3720,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41977-2022</t>
+          <t>A 41269-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44830</v>
+        <v>44424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3734,13 +3739,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44238</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>44843</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4290,14 +4290,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 62841-2023</t>
+          <t>A 67508-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45270</v>
+        <v>44524</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4347,14 +4347,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 67508-2021</t>
+          <t>A 41979-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44524</v>
+        <v>44830</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4366,8 +4366,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4404,14 +4409,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 41979-2022</t>
+          <t>A 4467-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44830</v>
+        <v>44589</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4421,11 +4426,6 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -4466,14 +4466,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 29444-2024</t>
+          <t>A 40696-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45483.86464120371</v>
+        <v>44824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4523,14 +4523,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 37042-2024</t>
+          <t>A 11676-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45539</v>
+        <v>45373.57236111111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4580,14 +4580,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15597-2025</t>
+          <t>A 61492-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45747.9108449074</v>
+        <v>44916.47408564815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4637,14 +4637,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 14169-2025</t>
+          <t>A 56267-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45740.51894675926</v>
+        <v>44479.61296296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4694,14 +4694,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 37898-2025</t>
+          <t>A 1607-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45881.55846064815</v>
+        <v>44937</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4751,14 +4751,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56267-2021</t>
+          <t>A 37491-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44479.61296296296</v>
+        <v>44399.29892361111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4808,14 +4808,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 6757-2021</t>
+          <t>A 34885-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44236</v>
+        <v>44796.51725694445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4865,14 +4865,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39867-2024</t>
+          <t>A 26763-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45553.46100694445</v>
+        <v>45093.46813657408</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4884,13 +4884,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4927,14 +4922,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 14176-2025</t>
+          <t>A 37450-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45740.52974537037</v>
+        <v>45540.68736111111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4947,7 +4942,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4984,14 +4979,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 5313-2024</t>
+          <t>A 39871-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45331.39503472222</v>
+        <v>45553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5003,8 +4998,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>8.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5041,14 +5041,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 44343-2022</t>
+          <t>A 20800-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44839.67604166667</v>
+        <v>45438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5098,14 +5098,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38297-2025</t>
+          <t>A 18382-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45883.45506944445</v>
+        <v>45042.27751157407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5155,14 +5155,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56635-2022</t>
+          <t>A 12961-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44893</v>
+        <v>45001.80307870371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5212,14 +5212,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39872-2024</t>
+          <t>A 53910-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45553</v>
+        <v>45231.55751157407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5231,13 +5231,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5274,14 +5269,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26702-2023</t>
+          <t>A 2175-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45093</v>
+        <v>45309</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5294,7 +5289,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5331,14 +5326,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33336-2023</t>
+          <t>A 33963-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45128.33729166666</v>
+        <v>45134.62525462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5351,7 +5346,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5388,14 +5383,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 33337-2023</t>
+          <t>A 46398-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45128.3400925926</v>
+        <v>44443.77010416667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5408,7 +5403,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5445,14 +5440,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59036-2021</t>
+          <t>A 38922-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44490</v>
+        <v>45163.57961805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5464,13 +5459,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>25.2</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5507,14 +5497,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40329-2024</t>
+          <t>A 28620-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45555</v>
+        <v>45103.5975462963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5527,7 +5517,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5564,14 +5554,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41692-2025</t>
+          <t>A 18274-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45902.4041087963</v>
+        <v>45421.70460648148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5584,7 +5574,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5621,14 +5611,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 11676-2024</t>
+          <t>A 37598-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45373.57236111111</v>
+        <v>45541.47604166667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5641,7 +5631,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5678,14 +5668,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21042-2023</t>
+          <t>A 12596-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45056</v>
+        <v>45733.28476851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5698,7 +5688,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5735,14 +5725,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14353-2024</t>
+          <t>A 26863-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45393.83645833333</v>
+        <v>45810.69763888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5755,7 +5745,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5792,14 +5782,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 42197-2025</t>
+          <t>A 12516-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45904.48486111111</v>
+        <v>45730.65107638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5811,8 +5801,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5849,14 +5844,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42295-2025</t>
+          <t>A 56282-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45904.63057870371</v>
+        <v>45241.82328703703</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5869,7 +5864,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5906,14 +5901,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 58428-2025</t>
+          <t>A 5313-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45985.60064814815</v>
+        <v>45331.39503472222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5926,7 +5921,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5963,14 +5958,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58935-2023</t>
+          <t>A 44650-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45250</v>
+        <v>45574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5983,7 +5978,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6020,14 +6015,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14734-2024</t>
+          <t>A 37042-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45397.5890625</v>
+        <v>45539</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6040,7 +6035,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6077,14 +6072,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33259-2023</t>
+          <t>A 41692-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45127.56025462963</v>
+        <v>45902.4041087963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6097,7 +6092,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6134,14 +6129,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43621-2025</t>
+          <t>A 42197-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45911.681875</v>
+        <v>45904.48486111111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6154,7 +6149,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6191,14 +6186,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 61644-2023</t>
+          <t>A 42295-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45263</v>
+        <v>45904.63057870371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6211,7 +6206,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6248,14 +6243,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 33963-2023</t>
+          <t>A 7202-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45134.62525462963</v>
+        <v>44965</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6268,7 +6263,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6305,14 +6300,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 1217-2026</t>
+          <t>A 29773-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46031.39998842592</v>
+        <v>45825.63271990741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6325,7 +6320,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6362,14 +6357,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5559-2024</t>
+          <t>A 43621-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45334</v>
+        <v>45911.681875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6382,7 +6377,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6419,14 +6414,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46810-2025</t>
+          <t>A 19044-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45926.69480324074</v>
+        <v>45047</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6439,7 +6434,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6476,14 +6471,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18645-2023</t>
+          <t>A 19045-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45043</v>
+        <v>45047</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6496,7 +6491,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6533,14 +6528,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 4467-2022</t>
+          <t>A 10273-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44589</v>
+        <v>44986</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6553,7 +6548,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>12.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6590,14 +6585,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46809-2025</t>
+          <t>A 19178-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45926.69324074074</v>
+        <v>45769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6610,7 +6605,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6647,14 +6642,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 58020-2021</t>
+          <t>A 26121-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44484</v>
+        <v>45091.44384259259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6667,7 +6662,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6704,14 +6699,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61584-2025</t>
+          <t>A 6101-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46002.34265046296</v>
+        <v>45337</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6724,7 +6719,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6761,14 +6756,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 1599-2025</t>
+          <t>A 2039-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45670.58930555556</v>
+        <v>45672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6780,13 +6775,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>18.8</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6823,14 +6813,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 27947-2023</t>
+          <t>A 46809-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45098.66921296297</v>
+        <v>45926.69324074074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6843,7 +6833,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6880,14 +6870,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61581-2025</t>
+          <t>A 46810-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46002.33817129629</v>
+        <v>45926.69480324074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6900,7 +6890,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6937,14 +6927,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1157-2025</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45666.75922453704</v>
+        <v>45068</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6957,7 +6947,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6994,14 +6984,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 53910-2023</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45231.55751157407</v>
+        <v>45068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7014,7 +7004,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.7</v>
+        <v>0.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7051,14 +7041,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40240-2024</t>
+          <t>A 9769-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45554.61458333334</v>
+        <v>45716.48861111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7071,7 +7061,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7108,14 +7098,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 19045-2023</t>
+          <t>A 1599-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45047</v>
+        <v>45670.58930555556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7127,8 +7117,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>18.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7165,14 +7160,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62978-2025</t>
+          <t>A 44343-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46009.47902777778</v>
+        <v>44839.67604166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7184,13 +7179,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7227,14 +7217,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 41233-2024</t>
+          <t>A 11794-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45559</v>
+        <v>44994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7247,7 +7237,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7284,14 +7274,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 62939-2025</t>
+          <t>A 11289-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46009.4262037037</v>
+        <v>45726.42762731481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,11 +7295,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7346,14 +7336,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 62961-2025</t>
+          <t>A 33204-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46009.45863425926</v>
+        <v>45840.61181712963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7365,13 +7355,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7408,14 +7393,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 22323-2023</t>
+          <t>A 40329-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45068</v>
+        <v>45555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7428,7 +7413,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7465,14 +7450,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 53407-2025</t>
+          <t>A 27947-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45959.57350694444</v>
+        <v>45098.66921296297</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7485,7 +7470,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7522,14 +7507,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 6223-2026</t>
+          <t>A 33336-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46055.44097222222</v>
+        <v>45128.33729166666</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7542,7 +7527,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7579,14 +7564,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41008-2024</t>
+          <t>A 33337-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45559</v>
+        <v>45128.3400925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7599,7 +7584,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7636,14 +7621,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30747-2023</t>
+          <t>A 58935-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45112</v>
+        <v>45250</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7655,13 +7640,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7698,14 +7678,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30802-2023</t>
+          <t>A 62841-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45112</v>
+        <v>45270</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7717,13 +7697,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7760,14 +7735,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11794-2023</t>
+          <t>A 27638-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44994</v>
+        <v>45813</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7780,7 +7755,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7817,14 +7792,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 39873-2024</t>
+          <t>A 12616-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45553</v>
+        <v>45733</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7836,13 +7811,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7875,38 +7845,18 @@
         <v>0</v>
       </c>
       <c r="R115" s="2" t="inlineStr"/>
-      <c r="U115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="V115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="W115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="X115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="Y115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 3643-2023</t>
+          <t>A 58020-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44950.69260416667</v>
+        <v>44484</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7919,7 +7869,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7956,14 +7906,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 54804-2025</t>
+          <t>A 51659-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45966.64116898148</v>
+        <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7976,7 +7926,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8013,14 +7963,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 36516-2023</t>
+          <t>A 41551-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45153</v>
+        <v>45560</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8032,13 +7982,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8075,14 +8020,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 54770-2025</t>
+          <t>A 6843-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45966.60803240741</v>
+        <v>45342.62711805556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8095,7 +8040,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8132,14 +8077,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 51659-2021</t>
+          <t>A 6757-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44462</v>
+        <v>44236</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8152,7 +8097,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8189,14 +8134,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 55033-2025</t>
+          <t>A 53407-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45967</v>
+        <v>45959.57350694444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8209,7 +8154,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8246,14 +8191,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4470-2022</t>
+          <t>A 6140-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44589</v>
+        <v>45698.3849537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8266,7 +8211,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8303,14 +8248,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 13757-2025</t>
+          <t>A 37898-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45737.41730324074</v>
+        <v>45881.55846064815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8322,13 +8267,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>12.8</v>
+        <v>3.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8365,14 +8305,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 54959-2023</t>
+          <t>A 12140-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45236</v>
+        <v>44998.46677083334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8385,7 +8325,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8422,14 +8362,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 12961-2023</t>
+          <t>A 22323-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45001.80307870371</v>
+        <v>45068</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8442,7 +8382,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8479,14 +8419,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 31113-2023</t>
+          <t>A 41350-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45113</v>
+        <v>45174</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8498,8 +8438,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8536,14 +8481,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 55842-2025</t>
+          <t>A 38297-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45973.29060185186</v>
+        <v>45883.45506944445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8555,13 +8500,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8598,14 +8538,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 11383-2023</t>
+          <t>A 54770-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44993.45693287037</v>
+        <v>45966.60803240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8618,7 +8558,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8655,14 +8595,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48268-2021</t>
+          <t>A 46877-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44449.66981481481</v>
+        <v>44848</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8675,7 +8615,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8712,14 +8652,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 61492-2022</t>
+          <t>A 55033-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44916.47408564815</v>
+        <v>45967</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8732,7 +8672,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8769,14 +8709,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 39871-2024</t>
+          <t>A 54804-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45553</v>
+        <v>45966.64116898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8788,13 +8728,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8831,14 +8766,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 38955-2023</t>
+          <t>A 54959-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45163</v>
+        <v>45236</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8851,7 +8786,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8888,14 +8823,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 47906-2023</t>
+          <t>A 13757-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45204</v>
+        <v>45737.41730324074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8907,8 +8842,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>12.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8945,14 +8885,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 38922-2023</t>
+          <t>A 55842-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45163.57961805556</v>
+        <v>45973.29060185186</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8964,8 +8904,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9002,14 +8947,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 7202-2023</t>
+          <t>A 14169-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44965</v>
+        <v>45740.51894675926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9022,7 +8967,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9059,14 +9004,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 2038-2025</t>
+          <t>A 10787-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45672.49553240741</v>
+        <v>44989</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9079,7 +9024,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9116,14 +9061,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 6843-2024</t>
+          <t>A 10791-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45342.62711805556</v>
+        <v>44989</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9136,7 +9081,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9173,14 +9118,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 19044-2023</t>
+          <t>A 10467-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45047</v>
+        <v>45720.83359953704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9193,7 +9138,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9230,14 +9175,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 61733-2024</t>
+          <t>A 3602-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45649.34486111111</v>
+        <v>44950.58821759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9250,7 +9195,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9287,14 +9232,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 34885-2022</t>
+          <t>A 12963-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44796.51725694445</v>
+        <v>45001</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9307,7 +9252,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9344,14 +9289,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 24913-2023</t>
+          <t>A 58428-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45085.49424768519</v>
+        <v>45985.60064814815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9364,7 +9309,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9401,14 +9346,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 40696-2022</t>
+          <t>A 14734-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44824</v>
+        <v>45397.5890625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9421,7 +9366,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9458,14 +9403,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 30603-2021</t>
+          <t>A 1217-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44365.28403935185</v>
+        <v>46031.39998842592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9478,7 +9423,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9515,14 +9460,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 28579-2022</t>
+          <t>A 30754-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44748</v>
+        <v>44764</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9535,7 +9480,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9572,14 +9517,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 10467-2025</t>
+          <t>A 61733-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45720.83359953704</v>
+        <v>45649.34486111111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9592,7 +9537,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9629,14 +9574,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 10787-2023</t>
+          <t>A 14353-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44989</v>
+        <v>45393.83645833333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9649,7 +9594,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9686,14 +9631,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 10791-2023</t>
+          <t>A 5373-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44989</v>
+        <v>45331</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9706,7 +9651,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9743,14 +9688,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 47902-2023</t>
+          <t>A 15597-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45204.49861111111</v>
+        <v>45747.9108449074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9763,7 +9708,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9800,14 +9745,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 36444-2022</t>
+          <t>A 59036-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44804.38798611111</v>
+        <v>44490</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9819,8 +9764,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>25.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9857,14 +9807,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 33262-2023</t>
+          <t>A 61584-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45127.56380787037</v>
+        <v>46002.34265046296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9877,7 +9827,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9914,14 +9864,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 22137-2022</t>
+          <t>A 61581-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44712</v>
+        <v>46002.33817129629</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9934,7 +9884,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.9</v>
+        <v>6.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9971,14 +9921,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 26763-2023</t>
+          <t>A 30747-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45093.46813657408</v>
+        <v>45112</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9990,8 +9940,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10028,14 +9983,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 10617-2022</t>
+          <t>A 14702-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44624</v>
+        <v>45014</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10048,7 +10003,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>7.9</v>
+        <v>12.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10085,14 +10040,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 22198-2023</t>
+          <t>A 62939-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45069.78799768518</v>
+        <v>46009.4262037037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10104,8 +10059,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10142,14 +10102,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9769-2025</t>
+          <t>A 61644-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45716.48861111111</v>
+        <v>45263</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10162,7 +10122,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10199,14 +10159,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46877-2022</t>
+          <t>A 18272-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44848</v>
+        <v>45421.69873842593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10219,7 +10179,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10256,14 +10216,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 16914-2022</t>
+          <t>A 62961-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44676.43390046297</v>
+        <v>46009.45863425926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10275,8 +10235,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10313,14 +10278,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 12596-2025</t>
+          <t>A 47906-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45733.28476851852</v>
+        <v>45204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10333,7 +10298,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10370,14 +10335,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18274-2024</t>
+          <t>A 62978-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45421.70460648148</v>
+        <v>46009.47902777778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10389,8 +10354,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10427,14 +10397,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 20800-2024</t>
+          <t>A 41233-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45438</v>
+        <v>45559</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10447,7 +10417,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10484,14 +10454,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 11289-2025</t>
+          <t>A 14176-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45726.42762731481</v>
+        <v>45740.52974537037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10503,13 +10473,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10546,14 +10511,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 12516-2025</t>
+          <t>A 6223-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45730.65107638889</v>
+        <v>46055.44097222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10565,13 +10530,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10608,14 +10568,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 30754-2022</t>
+          <t>A 24913-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44764</v>
+        <v>45085.49424768519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10628,7 +10588,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>9.300000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10665,14 +10625,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 6101-2024</t>
+          <t>A 21042-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45337</v>
+        <v>45056</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10685,7 +10645,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10722,14 +10682,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 18272-2024</t>
+          <t>A 56635-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45421.69873842593</v>
+        <v>44893</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10742,7 +10702,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10779,14 +10739,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 11287-2025</t>
+          <t>A 33262-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45726.42666666667</v>
+        <v>45127.56380787037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10798,13 +10758,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>5.4</v>
+        <v>0.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10841,14 +10796,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 37450-2024</t>
+          <t>A 33259-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45540.68736111111</v>
+        <v>45127.56025462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10861,7 +10816,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10898,14 +10853,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33907-2024</t>
+          <t>A 11383-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45523.37623842592</v>
+        <v>44993.45693287037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10918,7 +10873,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10955,14 +10910,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 33910-2024</t>
+          <t>A 47902-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45523.38473379629</v>
+        <v>45204.49861111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10975,7 +10930,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11012,14 +10967,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 37491-2021</t>
+          <t>A 26702-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44399.29892361111</v>
+        <v>45093</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11032,7 +10987,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11069,14 +11024,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 5373-2024</t>
+          <t>A 41008-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45331</v>
+        <v>45559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11044,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11126,14 +11081,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 12140-2023</t>
+          <t>A 64615-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44998.46677083334</v>
+        <v>45281.52231481481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11146,7 +11101,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11183,14 +11138,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 20787-2022</t>
+          <t>A 16914-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44701</v>
+        <v>44676.43390046297</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11203,7 +11158,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11240,14 +11195,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 4468-2022</t>
+          <t>A 10617-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44589</v>
+        <v>44624</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11260,7 +11215,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.8</v>
+        <v>7.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11297,14 +11252,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 3602-2023</t>
+          <t>A 40240-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44950.58821759259</v>
+        <v>45554.61458333334</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11317,7 +11272,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11354,14 +11309,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11289-2023</t>
+          <t>A 33907-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44992</v>
+        <v>45523.37623842592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11373,13 +11328,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11416,14 +11366,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 20344-2023</t>
+          <t>A 33910-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45056</v>
+        <v>45523.38473379629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11436,7 +11386,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11473,14 +11423,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 18382-2023</t>
+          <t>A 36516-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45042.27751157407</v>
+        <v>45153</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,8 +11442,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11530,14 +11485,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 1607-2023</t>
+          <t>A 2038-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44937</v>
+        <v>45672.49553240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11550,7 +11505,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11587,14 +11542,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 64615-2023</t>
+          <t>A 1157-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45281.52231481481</v>
+        <v>45666.75922453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11607,7 +11562,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11644,14 +11599,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 46398-2021</t>
+          <t>A 31113-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44443.77010416667</v>
+        <v>45113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11664,7 +11619,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11701,14 +11656,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 41551-2024</t>
+          <t>A 20787-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45560</v>
+        <v>44701</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11676,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11758,14 +11713,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 44650-2024</t>
+          <t>A 11289-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45574</v>
+        <v>44992</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11777,8 +11732,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11815,14 +11775,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 26121-2023</t>
+          <t>A 22137-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45091.44384259259</v>
+        <v>44712</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11795,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11872,14 +11832,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 12963-2023</t>
+          <t>A 54227-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45001</v>
+        <v>45616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11892,7 +11852,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11929,14 +11889,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 37598-2024</t>
+          <t>A 39872-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45541.47604166667</v>
+        <v>45553</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11946,6 +11906,11 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -11986,14 +11951,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 10746-2023</t>
+          <t>A 18645-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44988</v>
+        <v>45043</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12005,13 +11970,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12048,14 +12008,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 2175-2024</t>
+          <t>A 29444-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45309</v>
+        <v>45483.86464120371</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12068,7 +12028,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12105,14 +12065,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 18400-2025</t>
+          <t>A 10746-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45762.59549768519</v>
+        <v>44988</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12124,8 +12084,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12162,14 +12127,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 39875-2024</t>
+          <t>A 39873-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
         <v>45553</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12187,7 +12152,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12220,18 +12185,38 @@
         <v>0</v>
       </c>
       <c r="R190" s="2" t="inlineStr"/>
+      <c r="U190">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="V190">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="W190">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="X190">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="Y190">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 39878-2024</t>
+          <t>A 4468-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45553</v>
+        <v>44589</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12243,13 +12228,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12286,14 +12266,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 19178-2025</t>
+          <t>A 36444-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45769</v>
+        <v>44804.38798611111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12306,7 +12286,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12343,14 +12323,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 56282-2023</t>
+          <t>A 22198-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45241.82328703703</v>
+        <v>45069.78799768518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12363,7 +12343,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12400,14 +12380,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14702-2023</t>
+          <t>A 38955-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45014</v>
+        <v>45163</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12420,7 +12400,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>12.1</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12457,14 +12437,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 18400-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45068</v>
+        <v>45762.59549768519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12477,7 +12457,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12514,14 +12494,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 11287-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45068</v>
+        <v>45726.42666666667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12533,8 +12513,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>0.3</v>
+        <v>5.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12571,14 +12556,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 37564-2024</t>
+          <t>A 20344-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45541.44607638889</v>
+        <v>45056</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12591,7 +12576,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>11.1</v>
+        <v>2.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12628,14 +12613,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 28620-2023</t>
+          <t>A 39875-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45103.5975462963</v>
+        <v>45553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12647,8 +12632,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12685,14 +12675,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 54227-2024</t>
+          <t>A 39878-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45616</v>
+        <v>45553</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12704,8 +12694,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12742,14 +12737,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 6140-2025</t>
+          <t>A 61314-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45698.3849537037</v>
+        <v>45646.31635416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12762,7 +12757,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12799,14 +12794,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 10273-2023</t>
+          <t>A 5559-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44986</v>
+        <v>45334</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12819,7 +12814,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>12.8</v>
+        <v>2.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12856,14 +12851,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 50405-2024</t>
+          <t>A 48268-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45601.35753472222</v>
+        <v>44449.66981481481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12876,7 +12871,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12913,14 +12908,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 28824-2024</t>
+          <t>A 3643-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45478</v>
+        <v>44950.69260416667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12932,13 +12927,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12975,14 +12965,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 41350-2023</t>
+          <t>A 28824-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45174</v>
+        <v>45478</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12996,11 +12986,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>8.800000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13037,14 +13027,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 2039-2025</t>
+          <t>A 50405-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45672</v>
+        <v>45601.35753472222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13057,7 +13047,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13094,14 +13084,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61314-2024</t>
+          <t>A 4470-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45646.31635416667</v>
+        <v>44589</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13114,7 +13104,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13151,14 +13141,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 61470-2024</t>
+          <t>A 28579-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45646</v>
+        <v>44748</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13171,7 +13161,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13208,14 +13198,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 62160-2024</t>
+          <t>A 30802-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45656.80090277778</v>
+        <v>45112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13227,8 +13217,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13265,14 +13260,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 50104-2024</t>
+          <t>A 37564-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45600.40037037037</v>
+        <v>45541.44607638889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13285,7 +13280,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.1</v>
+        <v>11.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13322,14 +13317,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 33334-2023</t>
+          <t>A 39867-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45128.33488425926</v>
+        <v>45553.46100694445</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13341,8 +13336,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13379,14 +13379,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1574-2025</t>
+          <t>A 30603-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45670.55908564815</v>
+        <v>44365.28403935185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13398,13 +13398,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>9.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13441,14 +13436,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 55727-2024</t>
+          <t>A 61470-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45622.90070601852</v>
+        <v>45646</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13461,7 +13456,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13498,14 +13493,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 10274-2023</t>
+          <t>A 1574-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44986</v>
+        <v>45670.55908564815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13517,8 +13512,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>2.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13555,14 +13555,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 58548-2024</t>
+          <t>A 62160-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45635.45878472222</v>
+        <v>45656.80090277778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13612,14 +13612,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 24055-2025</t>
+          <t>A 50104-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45796</v>
+        <v>45600.40037037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13669,14 +13669,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 26863-2025</t>
+          <t>A 33334-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45810.69763888889</v>
+        <v>45128.33488425926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13726,14 +13726,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 29773-2025</t>
+          <t>A 55727-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45825.63271990741</v>
+        <v>45622.90070601852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13783,14 +13783,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 33204-2025</t>
+          <t>A 10274-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45840.61181712963</v>
+        <v>44986</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13840,14 +13840,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 12616-2025</t>
+          <t>A 58548-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45733</v>
+        <v>45635.45878472222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>6.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13897,14 +13897,14 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 27638-2025</t>
+          <t>A 24055-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45813</v>
+        <v>45796</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45852.5584375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45373.57708333333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>46006.64673611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44806</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45566</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45721.39129629629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45447.5825462963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45727.46729166667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45918.45165509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45769</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>45362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>45985.60377314815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45656</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45478.65488425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44746</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45305</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44510.55405092592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44722.36616898148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44830</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44238</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>44843</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44524</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44830</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44589</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45373.57236111111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44916.47408564815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>44479.61296296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44937</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44399.29892361111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>44796.51725694445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>45093.46813657408</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45540.68736111111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>45553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45042.27751157407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45001.80307870371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45231.55751157407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>45309</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45134.62525462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>44443.77010416667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45163.57961805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45103.5975462963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45421.70460648148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45541.47604166667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45733.28476851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>45810.69763888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>45730.65107638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45241.82328703703</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45331.39503472222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45539</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45902.4041087963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45904.48486111111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45904.63057870371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>44965</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45825.63271990741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>45911.681875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45047</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45047</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44986</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45091.44384259259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45337</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45926.69324074074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45926.69480324074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45068</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45716.48861111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45670.58930555556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44839.67604166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45726.42762731481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45840.61181712963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>45555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>45098.66921296297</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45128.33729166666</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>45128.3400925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>45250</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>45270</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45813</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45733</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44484</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45560</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45342.62711805556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>44236</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45959.57350694444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>45698.3849537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>45881.55846064815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44998.46677083334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>45068</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>45174</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45883.45506944445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45966.60803240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44848</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>45967</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>45966.64116898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>45236</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>45737.41730324074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>45973.29060185186</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45740.51894675926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44989</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44989</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>45720.83359953704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44950.58821759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45001</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>45985.60064814815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45397.5890625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>46031.39998842592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44764</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45649.34486111111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45393.83645833333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45331</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45747.9108449074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44490</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>46002.34265046296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>46002.33817129629</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>45112</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>45014</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>46009.4262037037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>45263</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>45421.69873842593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>46009.45863425926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>45204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>46009.47902777778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>45559</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>45740.52974537037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>46055.44097222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45085.49424768519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45056</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44893</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>45127.56380787037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>45127.56025462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44993.45693287037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>45204.49861111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45093</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45281.52231481481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>44676.43390046297</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>44624</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>45554.61458333334</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45523.37623842592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45523.38473379629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45153</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>45672.49553240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>45666.75922453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>45113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44701</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44992</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44712</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45553</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45043</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45483.86464120371</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44988</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45553</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44589</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>44804.38798611111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45069.78799768518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45163</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45762.59549768519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45726.42666666667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45056</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>45553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45553</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>45646.31635416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45334</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>44449.66981481481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44950.69260416667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>45478</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45601.35753472222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44589</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>44748</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45541.44607638889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45553.46100694445</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44365.28403935185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45646</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45670.55908564815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45656.80090277778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>45600.40037037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>45128.33488425926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>45622.90070601852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44986</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>45635.45878472222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45796</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45852.5584375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45373.57708333333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>46006.64673611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44806</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45566</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45721.39129629629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45447.5825462963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45727.46729166667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45918.45165509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45769</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>45362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>45985.60377314815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45656</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45478.65488425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44746</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45305</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44510.55405092592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44722.36616898148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44830</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44238</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>44843</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44524</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44830</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44589</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45373.57236111111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44916.47408564815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>44479.61296296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44937</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44399.29892361111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>44796.51725694445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>45093.46813657408</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45540.68736111111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>45553</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45042.27751157407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45001.80307870371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45231.55751157407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>45309</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45134.62525462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>44443.77010416667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45163.57961805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45103.5975462963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45421.70460648148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45541.47604166667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45733.28476851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>45810.69763888889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>45730.65107638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45241.82328703703</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45331.39503472222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45574</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45539</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45902.4041087963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45904.48486111111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45904.63057870371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>44965</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45825.63271990741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>45911.681875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45047</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45047</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44986</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45091.44384259259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45337</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45926.69324074074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45926.69480324074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45068</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45068</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45716.48861111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45670.58930555556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44839.67604166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44994</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45726.42762731481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45840.61181712963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>45555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>45098.66921296297</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45128.33729166666</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>45128.3400925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>45250</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>45270</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45813</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45733</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44484</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45560</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45342.62711805556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>44236</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45959.57350694444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>45698.3849537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>45881.55846064815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44998.46677083334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>45068</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>45174</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45883.45506944445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45966.60803240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44848</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>45967</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>45966.64116898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>45236</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>45737.41730324074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>45973.29060185186</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45740.51894675926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44989</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44989</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>45720.83359953704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44950.58821759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45001</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>45985.60064814815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45397.5890625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>46031.39998842592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44764</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45649.34486111111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45393.83645833333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45331</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45747.9108449074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44490</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>46002.34265046296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>46002.33817129629</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>45112</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>45014</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>46009.4262037037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>45263</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>45421.69873842593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>46009.45863425926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>45204</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>46009.47902777778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>45559</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>45740.52974537037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>46055.44097222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45085.49424768519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45056</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44893</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>45127.56380787037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>45127.56025462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44993.45693287037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>45204.49861111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45093</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45281.52231481481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>44676.43390046297</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>44624</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>45554.61458333334</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45523.37623842592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45523.38473379629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45153</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>45672.49553240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>45666.75922453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>45113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>44701</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44992</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44712</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45553</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45043</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45483.86464120371</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>44988</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45553</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44589</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>44804.38798611111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45069.78799768518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45163</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45762.59549768519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45726.42666666667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45056</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>45553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45553</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>45646.31635416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45334</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>44449.66981481481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44950.69260416667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>45478</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45601.35753472222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44589</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>44748</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45541.44607638889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45553.46100694445</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44365.28403935185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45646</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45670.55908564815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45656.80090277778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>45600.40037037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>45128.33488425926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>45622.90070601852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44986</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>45635.45878472222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45796</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z220"/>
+  <dimension ref="A1:Z219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45852.5584375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,14 +764,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 11678-2024</t>
+          <t>A 62297-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45373.57708333333</v>
+        <v>46006.64673611111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -785,14 +785,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -804,244 +804,244 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Tretåig hackspett
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 37012-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 11678-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45373.57708333333</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Ask
 Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62297-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46006.64673611111</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 37012-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44806</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
         <v/>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
         <v>45517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45566</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1228,14 +1228,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 10507-2025</t>
+          <t>A 28147-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45721.39129629629</v>
+        <v>44746</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,13 +1247,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>10.4</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1262,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1277,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1287,49 +1282,49 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 22580-2024</t>
+          <t>A 44857-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45447.5825462963</v>
+        <v>45918.45165509259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1342,10 +1337,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.3</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1376,49 +1371,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 11637-2025</t>
+          <t>A 1515-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45727.46729166667</v>
+        <v>45305</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,28 +1421,23 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1463,52 +1449,56 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 44857-2025</t>
+          <t>A 58430-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45918.45165509259</v>
+        <v>45985.60377314815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,16 +1511,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1545,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1555,45 +1545,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 30722-2023</t>
+          <t>A 10507-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45112</v>
+        <v>45721.39129629629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,11 +1597,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>21.2</v>
+        <v>10.4</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1645,49 +1635,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 19176-2025</t>
+          <t>A 30722-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45769</v>
+        <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1699,8 +1689,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>4.6</v>
+        <v>21.2</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1709,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1724,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1734,49 +1729,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 9690-2024</t>
+          <t>A 41241-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45362</v>
+        <v>45559</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1789,10 +1784,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1823,49 +1818,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rökfingersvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 58430-2025</t>
+          <t>A 19176-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45985.60377314815</v>
+        <v>45769</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1869,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1887,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1902,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1912,45 +1903,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 41241-2024</t>
+          <t>A 10680-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45559</v>
+        <v>45368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1958,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1972,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1990,52 +1985,52 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Rökfingersvamp</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 290-2025</t>
+          <t>A 22580-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45656</v>
+        <v>45447.5825462963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,17 +2043,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>7.3</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2072,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2082,45 +2077,49 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10680-2024</t>
+          <t>A 9690-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45368</v>
+        <v>45362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,22 +2132,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2160,52 +2159,56 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28821-2024</t>
+          <t>A 11637-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45478.65488425926</v>
+        <v>45727.46729166667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,23 +2226,23 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
@@ -2247,55 +2250,55 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 28147-2022</t>
+          <t>A 290-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44746</v>
+        <v>45656</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,16 +2311,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2332,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2342,49 +2345,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 1515-2024</t>
+          <t>A 28821-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45305</v>
+        <v>45478.65488425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,17 +2395,22 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2421,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2431,35 +2435,31 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
         <v>45789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,14 +2964,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 64156-2021</t>
+          <t>A 23751-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44510.55405092592</v>
+        <v>44722.36616898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2983,13 +2983,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3026,14 +3021,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 23751-2022</t>
+          <t>A 64156-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44722.36616898148</v>
+        <v>44510.55405092592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3045,8 +3040,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44830</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44238</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4119,14 +4119,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 5043-2022</t>
+          <t>A 45105-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44593</v>
+        <v>44843</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4176,14 +4176,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45105-2022</t>
+          <t>A 5043-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44843</v>
+        <v>44593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44524</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44830</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4409,14 +4409,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 4467-2022</t>
+          <t>A 29444-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44589</v>
+        <v>45483.86464120371</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 40696-2022</t>
+          <t>A 44343-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44824</v>
+        <v>44839.67604166667</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4523,14 +4523,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 11676-2024</t>
+          <t>A 56635-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45373.57236111111</v>
+        <v>44893</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4580,14 +4580,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61492-2022</t>
+          <t>A 39872-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44916.47408564815</v>
+        <v>45553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4599,8 +4599,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>5.9</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4637,14 +4642,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56267-2021</t>
+          <t>A 26702-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44479.61296296296</v>
+        <v>45093</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4657,7 +4662,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4694,14 +4699,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 1607-2023</t>
+          <t>A 40329-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44937</v>
+        <v>45555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4714,7 +4719,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4751,14 +4756,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 37491-2021</t>
+          <t>A 11676-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44399.29892361111</v>
+        <v>45373.57236111111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4771,7 +4776,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4808,14 +4813,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34885-2022</t>
+          <t>A 21042-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44796.51725694445</v>
+        <v>45056</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4828,7 +4833,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4865,14 +4870,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26763-2023</t>
+          <t>A 14353-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45093.46813657408</v>
+        <v>45393.83645833333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4885,7 +4890,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4922,14 +4927,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 37450-2024</t>
+          <t>A 58935-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45540.68736111111</v>
+        <v>45250</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4942,7 +4947,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4979,14 +4984,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39871-2024</t>
+          <t>A 14734-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45553</v>
+        <v>45397.5890625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4998,13 +5003,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5041,14 +5041,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20800-2024</t>
+          <t>A 33259-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45438</v>
+        <v>45127.56025462963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5098,14 +5098,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18382-2023</t>
+          <t>A 61644-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45042.27751157407</v>
+        <v>45263</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5155,14 +5155,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12961-2023</t>
+          <t>A 33963-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45001.80307870371</v>
+        <v>45134.62525462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5212,14 +5212,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 53910-2023</t>
+          <t>A 5559-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45231.55751157407</v>
+        <v>45334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5269,14 +5269,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2175-2024</t>
+          <t>A 18645-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45309</v>
+        <v>45043</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5326,14 +5326,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33963-2023</t>
+          <t>A 4467-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45134.62525462963</v>
+        <v>44589</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5383,14 +5383,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 46398-2021</t>
+          <t>A 1599-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44443.77010416667</v>
+        <v>45670.58930555556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5402,8 +5402,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>18.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5440,14 +5445,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38922-2023</t>
+          <t>A 58020-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45163.57961805556</v>
+        <v>44484</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5465,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5497,14 +5502,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28620-2023</t>
+          <t>A 1157-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45103.5975462963</v>
+        <v>45666.75922453704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5517,7 +5522,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5554,14 +5559,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 18274-2024</t>
+          <t>A 53910-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45421.70460648148</v>
+        <v>45231.55751157407</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5574,7 +5579,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.4</v>
+        <v>5.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5611,14 +5616,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 37598-2024</t>
+          <t>A 40240-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45541.47604166667</v>
+        <v>45554.61458333334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5631,7 +5636,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5668,14 +5673,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 12596-2025</t>
+          <t>A 19045-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45733.28476851852</v>
+        <v>45047</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5688,7 +5693,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5725,14 +5730,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26863-2025</t>
+          <t>A 29773-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45810.69763888889</v>
+        <v>45825.63271990741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5745,7 +5750,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5782,14 +5787,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 12516-2025</t>
+          <t>A 14169-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45730.65107638889</v>
+        <v>45740.51894675926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5801,13 +5806,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5844,14 +5844,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56282-2023</t>
+          <t>A 22323-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45241.82328703703</v>
+        <v>45068</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5901,14 +5901,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 5313-2024</t>
+          <t>A 41008-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45331.39503472222</v>
+        <v>45559</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8.699999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5958,14 +5958,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 44650-2024</t>
+          <t>A 33204-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45574</v>
+        <v>45840.61181712963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6015,14 +6015,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 37042-2024</t>
+          <t>A 30747-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45539</v>
+        <v>45112</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6034,8 +6034,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6072,14 +6077,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 41692-2025</t>
+          <t>A 30802-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45902.4041087963</v>
+        <v>45112</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6091,8 +6096,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6129,14 +6139,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42197-2025</t>
+          <t>A 11794-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45904.48486111111</v>
+        <v>44994</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6149,7 +6159,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6186,14 +6196,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42295-2025</t>
+          <t>A 5313-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45904.63057870371</v>
+        <v>45331.39503472222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6206,7 +6216,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6243,14 +6253,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7202-2023</t>
+          <t>A 39873-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44965</v>
+        <v>45553</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6262,8 +6272,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6296,18 +6311,38 @@
         <v>0</v>
       </c>
       <c r="R88" s="2" t="inlineStr"/>
+      <c r="U88">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="V88">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="W88">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="X88">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="Y88">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29773-2025</t>
+          <t>A 3643-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45825.63271990741</v>
+        <v>44950.69260416667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6320,7 +6355,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6357,14 +6392,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43621-2025</t>
+          <t>A 51659-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45911.681875</v>
+        <v>44462</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6377,7 +6412,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6414,14 +6449,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 19044-2023</t>
+          <t>A 41692-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45047</v>
+        <v>45902.4041087963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6434,7 +6469,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6471,14 +6506,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 19045-2023</t>
+          <t>A 12616-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45047</v>
+        <v>45733</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6528,14 +6563,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10273-2023</t>
+          <t>A 27638-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44986</v>
+        <v>45813</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6548,7 +6583,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>12.8</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6585,14 +6620,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19178-2025</t>
+          <t>A 42197-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45769</v>
+        <v>45904.48486111111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6640,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6642,14 +6677,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 26121-2023</t>
+          <t>A 54959-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45091.44384259259</v>
+        <v>45236</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6697,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6699,14 +6734,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 6101-2024</t>
+          <t>A 12961-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45337</v>
+        <v>45001.80307870371</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6754,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6756,14 +6791,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2039-2025</t>
+          <t>A 42295-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45672</v>
+        <v>45904.63057870371</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6811,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6813,14 +6848,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46809-2025</t>
+          <t>A 31113-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45926.69324074074</v>
+        <v>45113</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6868,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6870,14 +6905,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46810-2025</t>
+          <t>A 11383-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45926.69480324074</v>
+        <v>44993.45693287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6925,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6927,14 +6962,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 48268-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45068</v>
+        <v>44449.66981481481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6982,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6984,14 +7019,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 61492-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45068</v>
+        <v>44916.47408564815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7039,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.3</v>
+        <v>5.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7041,14 +7076,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 9769-2025</t>
+          <t>A 39871-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45716.48861111111</v>
+        <v>45553</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7060,8 +7095,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7098,14 +7138,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 1599-2025</t>
+          <t>A 47906-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45670.58930555556</v>
+        <v>45204</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,13 +7157,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>18.8</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7160,14 +7195,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 44343-2022</t>
+          <t>A 38922-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44839.67604166667</v>
+        <v>45163.57961805556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7180,7 +7215,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7217,14 +7252,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11794-2023</t>
+          <t>A 43621-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44994</v>
+        <v>45911.681875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7237,7 +7272,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.6</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7274,14 +7309,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 11289-2025</t>
+          <t>A 2038-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45726.42762731481</v>
+        <v>45672.49553240741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,13 +7328,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7336,14 +7366,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 33204-2025</t>
+          <t>A 34885-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45840.61181712963</v>
+        <v>44796.51725694445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7356,7 +7386,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7393,14 +7423,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40329-2024</t>
+          <t>A 37898-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45555</v>
+        <v>45881.55846064815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7413,7 +7443,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7450,14 +7480,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 27947-2023</t>
+          <t>A 24913-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45098.66921296297</v>
+        <v>45085.49424768519</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7500,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7507,14 +7537,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 33336-2023</t>
+          <t>A 40696-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45128.33729166666</v>
+        <v>44824</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7557,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7564,14 +7594,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 33337-2023</t>
+          <t>A 30603-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45128.3400925926</v>
+        <v>44365.28403935185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7614,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7621,14 +7651,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 58935-2023</t>
+          <t>A 28579-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45250</v>
+        <v>44748</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7671,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7678,14 +7708,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62841-2023</t>
+          <t>A 10467-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45270</v>
+        <v>45720.83359953704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7728,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7735,14 +7765,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27638-2025</t>
+          <t>A 46810-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45813</v>
+        <v>45926.69480324074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7792,14 +7822,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12616-2025</t>
+          <t>A 46809-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45733</v>
+        <v>45926.69324074074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7842,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7849,14 +7879,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 58020-2021</t>
+          <t>A 38297-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44484</v>
+        <v>45883.45506944445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7899,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7906,14 +7936,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 51659-2021</t>
+          <t>A 33262-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44462</v>
+        <v>45127.56380787037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7956,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7963,14 +7993,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 41551-2024</t>
+          <t>A 62841-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45560</v>
+        <v>45270</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +8013,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8020,14 +8050,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 6843-2024</t>
+          <t>A 37042-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45342.62711805556</v>
+        <v>45539</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8040,7 +8070,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8077,14 +8107,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 6757-2021</t>
+          <t>A 15597-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44236</v>
+        <v>45747.9108449074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8097,7 +8127,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8134,14 +8164,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53407-2025</t>
+          <t>A 56267-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45959.57350694444</v>
+        <v>44479.61296296296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8154,7 +8184,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8191,14 +8221,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6140-2025</t>
+          <t>A 39867-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45698.3849537037</v>
+        <v>45553.46100694445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8210,8 +8240,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8248,14 +8283,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 37898-2025</t>
+          <t>A 14176-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45881.55846064815</v>
+        <v>45740.52974537037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8268,7 +8303,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8305,14 +8340,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 12140-2023</t>
+          <t>A 53407-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44998.46677083334</v>
+        <v>45959.57350694444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8325,7 +8360,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8362,14 +8397,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 22323-2023</t>
+          <t>A 33336-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45068</v>
+        <v>45128.33729166666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8382,7 +8417,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8419,14 +8454,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 41350-2023</t>
+          <t>A 33337-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45174</v>
+        <v>45128.3400925926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8438,13 +8473,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>8.800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8481,14 +8511,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 38297-2025</t>
+          <t>A 59036-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45883.45506944445</v>
+        <v>44490</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8500,8 +8530,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>25.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8538,14 +8573,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 54770-2025</t>
+          <t>A 54804-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45966.60803240741</v>
+        <v>45966.64116898148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8593,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8595,14 +8630,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46877-2022</t>
+          <t>A 54770-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44848</v>
+        <v>45966.60803240741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8650,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8652,14 +8687,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 55033-2025</t>
+          <t>A 27947-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45967</v>
+        <v>45098.66921296297</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8707,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8709,14 +8744,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 54804-2025</t>
+          <t>A 55033-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45966.64116898148</v>
+        <v>45967</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8764,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8766,14 +8801,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 54959-2023</t>
+          <t>A 55842-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45236</v>
+        <v>45973.29060185186</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8785,8 +8820,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8823,14 +8863,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 13757-2025</t>
+          <t>A 36516-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45737.41730324074</v>
+        <v>45153</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8888,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>12.8</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8885,14 +8925,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 55842-2025</t>
+          <t>A 4470-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45973.29060185186</v>
+        <v>44589</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8904,13 +8944,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8947,14 +8982,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 14169-2025</t>
+          <t>A 13757-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45740.51894675926</v>
+        <v>45737.41730324074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8966,8 +9001,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>12.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9004,14 +9044,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 10787-2023</t>
+          <t>A 38955-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44989</v>
+        <v>45163</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9024,7 +9064,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9061,14 +9101,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 10791-2023</t>
+          <t>A 7202-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44989</v>
+        <v>44965</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9081,7 +9121,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9118,14 +9158,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 10467-2025</t>
+          <t>A 6843-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45720.83359953704</v>
+        <v>45342.62711805556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9138,7 +9178,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9175,14 +9215,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 3602-2023</t>
+          <t>A 19044-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44950.58821759259</v>
+        <v>45047</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9195,7 +9235,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9232,14 +9272,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12963-2023</t>
+          <t>A 61733-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45001</v>
+        <v>45649.34486111111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9292,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9296,7 +9336,7 @@
         <v>45985.60064814815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9346,14 +9386,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 14734-2024</t>
+          <t>A 10787-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45397.5890625</v>
+        <v>44989</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9366,7 +9406,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9403,14 +9443,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1217-2026</t>
+          <t>A 10791-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46031.39998842592</v>
+        <v>44989</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9423,7 +9463,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9460,14 +9500,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30754-2022</t>
+          <t>A 1217-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44764</v>
+        <v>46031.39998842592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9480,7 +9520,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>9.300000000000001</v>
+        <v>12</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9517,14 +9557,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61733-2024</t>
+          <t>A 47902-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45649.34486111111</v>
+        <v>45204.49861111111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9537,7 +9577,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9574,14 +9614,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 14353-2024</t>
+          <t>A 36444-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45393.83645833333</v>
+        <v>44804.38798611111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9594,7 +9634,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9631,14 +9671,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 5373-2024</t>
+          <t>A 22137-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45331</v>
+        <v>44712</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9651,7 +9691,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9688,14 +9728,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 15597-2025</t>
+          <t>A 26763-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45747.9108449074</v>
+        <v>45093.46813657408</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9708,7 +9748,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9745,14 +9785,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 59036-2021</t>
+          <t>A 10617-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44490</v>
+        <v>44624</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9764,13 +9804,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>25.2</v>
+        <v>7.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9807,14 +9842,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61584-2025</t>
+          <t>A 22198-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46002.34265046296</v>
+        <v>45069.78799768518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9862,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9864,14 +9899,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61581-2025</t>
+          <t>A 9769-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46002.33817129629</v>
+        <v>45716.48861111111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9919,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9921,14 +9956,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 30747-2023</t>
+          <t>A 46877-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45112</v>
+        <v>44848</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9940,13 +9975,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9983,14 +10013,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 14702-2023</t>
+          <t>A 61584-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45014</v>
+        <v>46002.34265046296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10033,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>12.1</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10040,14 +10070,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62939-2025</t>
+          <t>A 16914-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46009.4262037037</v>
+        <v>44676.43390046297</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10059,13 +10089,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>6.8</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10102,14 +10127,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 61644-2023</t>
+          <t>A 12596-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45263</v>
+        <v>45733.28476851852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10147,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10159,14 +10184,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 18272-2024</t>
+          <t>A 61581-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45421.69873842593</v>
+        <v>46002.33817129629</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10179,7 +10204,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.4</v>
+        <v>6.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10216,14 +10241,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62961-2025</t>
+          <t>A 18274-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46009.45863425926</v>
+        <v>45421.70460648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10235,13 +10260,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10278,14 +10298,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 47906-2023</t>
+          <t>A 62978-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45204</v>
+        <v>46009.47902777778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,8 +10317,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10335,14 +10360,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 62978-2025</t>
+          <t>A 41233-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46009.47902777778</v>
+        <v>45559</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,13 +10379,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10397,14 +10417,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 41233-2024</t>
+          <t>A 62939-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45559</v>
+        <v>46009.4262037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10416,8 +10436,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>6.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10454,14 +10479,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 14176-2025</t>
+          <t>A 20800-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45740.52974537037</v>
+        <v>45438</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10474,7 +10499,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10511,14 +10536,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 6223-2026</t>
+          <t>A 11289-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46055.44097222222</v>
+        <v>45726.42762731481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10530,8 +10555,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10568,14 +10598,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 24913-2023</t>
+          <t>A 62961-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45085.49424768519</v>
+        <v>46009.45863425926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,8 +10617,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10625,14 +10660,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 21042-2023</t>
+          <t>A 12516-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45056</v>
+        <v>45730.65107638889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,8 +10679,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10682,14 +10722,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 56635-2022</t>
+          <t>A 30754-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44893</v>
+        <v>44764</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10702,7 +10742,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10739,14 +10779,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 33262-2023</t>
+          <t>A 6101-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45127.56380787037</v>
+        <v>45337</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10759,7 +10799,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10796,14 +10836,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 33259-2023</t>
+          <t>A 18272-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45127.56025462963</v>
+        <v>45421.69873842593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10816,7 +10856,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10853,14 +10893,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 11383-2023</t>
+          <t>A 6223-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44993.45693287037</v>
+        <v>46055.44097222222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10873,7 +10913,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10910,14 +10950,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 47902-2023</t>
+          <t>A 11287-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45204.49861111111</v>
+        <v>45726.42666666667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,8 +10969,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10967,14 +11012,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 26702-2023</t>
+          <t>A 37450-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45093</v>
+        <v>45540.68736111111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10987,7 +11032,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11024,14 +11069,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 41008-2024</t>
+          <t>A 33907-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45559</v>
+        <v>45523.37623842592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11044,7 +11089,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11081,14 +11126,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 64615-2023</t>
+          <t>A 33910-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45281.52231481481</v>
+        <v>45523.38473379629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11101,7 +11146,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11138,14 +11183,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 16914-2022</t>
+          <t>A 37491-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44676.43390046297</v>
+        <v>44399.29892361111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11158,7 +11203,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11195,14 +11240,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 10617-2022</t>
+          <t>A 5373-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44624</v>
+        <v>45331</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11215,7 +11260,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11252,14 +11297,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 40240-2024</t>
+          <t>A 12140-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45554.61458333334</v>
+        <v>44998.46677083334</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11272,7 +11317,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11309,14 +11354,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 33907-2024</t>
+          <t>A 20787-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45523.37623842592</v>
+        <v>44701</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11329,7 +11374,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11366,14 +11411,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 33910-2024</t>
+          <t>A 4468-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45523.38473379629</v>
+        <v>44589</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11386,7 +11431,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11423,14 +11468,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 36516-2023</t>
+          <t>A 3602-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45153</v>
+        <v>44950.58821759259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,13 +11487,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11485,14 +11525,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 2038-2025</t>
+          <t>A 11289-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45672.49553240741</v>
+        <v>44992</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,8 +11544,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11542,14 +11587,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 1157-2025</t>
+          <t>A 20344-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45666.75922453704</v>
+        <v>45056</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11562,7 +11607,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11599,14 +11644,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 31113-2023</t>
+          <t>A 18382-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45113</v>
+        <v>45042.27751157407</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11619,7 +11664,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11656,14 +11701,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 20787-2022</t>
+          <t>A 1607-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44701</v>
+        <v>44937</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11676,7 +11721,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11713,14 +11758,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 11289-2023</t>
+          <t>A 64615-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44992</v>
+        <v>45281.52231481481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11732,13 +11777,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11775,14 +11815,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 22137-2022</t>
+          <t>A 46398-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44712</v>
+        <v>44443.77010416667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11795,7 +11835,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11832,14 +11872,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 54227-2024</t>
+          <t>A 41551-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45616</v>
+        <v>45560</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11852,7 +11892,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11889,14 +11929,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 39872-2024</t>
+          <t>A 44650-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45553</v>
+        <v>45574</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,13 +11948,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11951,14 +11986,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 18645-2023</t>
+          <t>A 26121-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45043</v>
+        <v>45091.44384259259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11971,7 +12006,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12008,14 +12043,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 29444-2024</t>
+          <t>A 12963-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45483.86464120371</v>
+        <v>45001</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12028,7 +12063,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12065,14 +12100,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10746-2023</t>
+          <t>A 37598-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44988</v>
+        <v>45541.47604166667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,13 +12119,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12127,14 +12157,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 39873-2024</t>
+          <t>A 10746-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45553</v>
+        <v>44988</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12152,7 +12182,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12185,38 +12215,18 @@
         <v>0</v>
       </c>
       <c r="R190" s="2" t="inlineStr"/>
-      <c r="U190">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="V190">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="W190">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="X190">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="Y190">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 4468-2022</t>
+          <t>A 2175-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44589</v>
+        <v>45309</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12229,7 +12239,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12266,14 +12276,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36444-2022</t>
+          <t>A 18400-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44804.38798611111</v>
+        <v>45762.59549768519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12286,7 +12296,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12323,14 +12333,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 22198-2023</t>
+          <t>A 39875-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45069.78799768518</v>
+        <v>45553</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12342,8 +12352,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12380,14 +12395,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 38955-2023</t>
+          <t>A 39878-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45163</v>
+        <v>45553</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12399,8 +12414,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12437,14 +12457,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 18400-2025</t>
+          <t>A 19178-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45762.59549768519</v>
+        <v>45769</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12457,7 +12477,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12494,14 +12514,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 11287-2025</t>
+          <t>A 56282-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45726.42666666667</v>
+        <v>45241.82328703703</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12513,13 +12533,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12556,14 +12571,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 20344-2023</t>
+          <t>A 14702-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45056</v>
+        <v>45014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12576,7 +12591,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.2</v>
+        <v>12.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12613,14 +12628,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 39875-2024</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45553</v>
+        <v>45068</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12632,13 +12647,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12675,14 +12685,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 39878-2024</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45553</v>
+        <v>45068</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12694,13 +12704,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12737,14 +12742,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 61314-2024</t>
+          <t>A 37564-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45646.31635416667</v>
+        <v>45541.44607638889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12757,7 +12762,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>11.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12794,14 +12799,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 5559-2024</t>
+          <t>A 28620-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45334</v>
+        <v>45103.5975462963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12814,7 +12819,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12851,14 +12856,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 48268-2021</t>
+          <t>A 54227-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44449.66981481481</v>
+        <v>45616</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12871,7 +12876,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>9.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12908,14 +12913,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 3643-2023</t>
+          <t>A 6140-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44950.69260416667</v>
+        <v>45698.3849537037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12928,7 +12933,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12965,14 +12970,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 28824-2024</t>
+          <t>A 10273-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45478</v>
+        <v>44986</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12984,13 +12989,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>12.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13034,7 +13034,7 @@
         <v>45601.35753472222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13084,14 +13084,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 4470-2022</t>
+          <t>A 28824-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44589</v>
+        <v>45478</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13103,8 +13103,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13141,14 +13146,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 28579-2022</t>
+          <t>A 41350-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44748</v>
+        <v>45174</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13160,8 +13165,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>3.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13198,14 +13208,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 30802-2023</t>
+          <t>A 2039-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45112</v>
+        <v>45672</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13215,11 +13225,6 @@
       <c r="E208" t="inlineStr">
         <is>
           <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -13260,14 +13265,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 37564-2024</t>
+          <t>A 61314-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45541.44607638889</v>
+        <v>45646.31635416667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13280,7 +13285,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>11.1</v>
+        <v>1.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13317,14 +13322,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 39867-2024</t>
+          <t>A 61470-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45553.46100694445</v>
+        <v>45646</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13336,13 +13341,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13379,14 +13379,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 30603-2021</t>
+          <t>A 62160-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44365.28403935185</v>
+        <v>45656.80090277778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13436,14 +13436,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 61470-2024</t>
+          <t>A 50104-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45646</v>
+        <v>45600.40037037037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13493,14 +13493,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1574-2025</t>
+          <t>A 33334-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45670.55908564815</v>
+        <v>45128.33488425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13512,13 +13512,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>9.699999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13555,14 +13550,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 62160-2024</t>
+          <t>A 1574-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45656.80090277778</v>
+        <v>45670.55908564815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13574,8 +13569,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>0.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13612,14 +13612,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 50104-2024</t>
+          <t>A 55727-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45600.40037037037</v>
+        <v>45622.90070601852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13669,14 +13669,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 33334-2023</t>
+          <t>A 10274-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45128.33488425926</v>
+        <v>44986</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13726,14 +13726,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 55727-2024</t>
+          <t>A 58548-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45622.90070601852</v>
+        <v>45635.45878472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.6</v>
+        <v>6.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13783,14 +13783,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 10274-2023</t>
+          <t>A 24055-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44986</v>
+        <v>45796</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13837,17 +13837,17 @@
       </c>
       <c r="R218" s="2" t="inlineStr"/>
     </row>
-    <row r="219" ht="15" customHeight="1">
+    <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 58548-2024</t>
+          <t>A 26863-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45635.45878472222</v>
+        <v>45810.69763888889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13893,63 +13893,6 @@
         <v>0</v>
       </c>
       <c r="R219" s="2" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>A 24055-2025</t>
-        </is>
-      </c>
-      <c r="B220" s="1" t="n">
-        <v>45796</v>
-      </c>
-      <c r="C220" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G220" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>0</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0</v>
-      </c>
-      <c r="L220" t="n">
-        <v>0</v>
-      </c>
-      <c r="M220" t="n">
-        <v>0</v>
-      </c>
-      <c r="N220" t="n">
-        <v>0</v>
-      </c>
-      <c r="O220" t="n">
-        <v>0</v>
-      </c>
-      <c r="P220" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q220" t="n">
-        <v>0</v>
-      </c>
-      <c r="R220" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,14 +669,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 35099-2025</t>
+          <t>A 37012-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45852.5584375</v>
+        <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -688,13 +688,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>16.5</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -706,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -718,510 +713,515 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
         <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 33104-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45517</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Blekspindling agg.
+Garnlav</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 42748-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Granriska
+Rostfläck</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 35099-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45852.5584375</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 11678-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45373.57708333333</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 62297-2025</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>46006.64673611111</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G8" t="n">
         <v>4.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Tretåig hackspett
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 37012-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44806</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 11678-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45373.57708333333</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 33104-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45517</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Blekspindling agg.
-Garnlav</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 42748-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Granriska
-Rostfläck</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
         <v/>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <v>44746</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1317,14 +1317,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 44857-2025</t>
+          <t>A 1515-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45918.45165509259</v>
+        <v>45305</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1371,45 +1371,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 1515-2024</t>
+          <t>A 10507-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45305</v>
+        <v>45721.39129629629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,8 +1425,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>3.7</v>
+        <v>10.4</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1431,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1446,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1456,49 +1465,49 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 58430-2025</t>
+          <t>A 22580-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45985.60377314815</v>
+        <v>45447.5825462963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,7 +1520,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1520,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1535,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1545,45 +1554,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 10507-2025</t>
+          <t>A 22805-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45721.39129629629</v>
+        <v>45789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1595,13 +1608,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>10.4</v>
+        <v>7.7</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1610,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1625,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1635,49 +1643,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 30722-2023</t>
+          <t>A 11637-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45112</v>
+        <v>45727.46729166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1691,27 +1699,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>21.2</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
@@ -1719,59 +1727,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 41241-2024</t>
+          <t>A 44857-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45559</v>
+        <v>45918.45165509259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1788,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1818,45 +1822,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Rökfingersvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 19176-2025</t>
+          <t>A 30722-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45769</v>
+        <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1868,8 +1872,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>4.6</v>
+        <v>21.2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1878,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1893,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1903,49 +1912,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 10680-2024</t>
+          <t>A 19176-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45368</v>
+        <v>45769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1958,22 +1967,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1985,52 +1994,56 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 22580-2024</t>
+          <t>A 9690-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45447.5825462963</v>
+        <v>45362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2043,7 +2056,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2081,45 +2094,45 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9690-2024</t>
+          <t>A 58430-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45362</v>
+        <v>45985.60377314815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2132,7 +2145,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2141,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2156,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2166,49 +2179,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 11637-2025</t>
+          <t>A 41241-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45727.46729166667</v>
+        <v>45559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,13 +2229,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2235,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2253,38 +2257,38 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Rökfingersvamp</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
     </row>
@@ -2298,7 +2302,7 @@
         <v>45656</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,14 +2380,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 28821-2024</t>
+          <t>A 10680-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45478.65488425926</v>
+        <v>45368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2395,29 +2399,24 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
@@ -2425,55 +2424,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 22805-2025</t>
+          <t>A 28821-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45789</v>
+        <v>45478.65488425926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2485,17 +2484,22 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>7.7</v>
+        <v>4.7</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2510,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2520,35 +2524,31 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44722.36616898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44510.55405092592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3658,14 +3658,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41977-2022</t>
+          <t>A 41269-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44830</v>
+        <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3677,13 +3677,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3720,14 +3715,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41269-2021</t>
+          <t>A 41977-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44424</v>
+        <v>44830</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3739,8 +3734,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44238</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4119,14 +4119,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45105-2022</t>
+          <t>A 5043-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44843</v>
+        <v>44593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4176,14 +4176,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 5043-2022</t>
+          <t>A 45105-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44593</v>
+        <v>44843</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44524</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44830</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4409,14 +4409,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 29444-2024</t>
+          <t>A 5313-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45483.86464120371</v>
+        <v>45331.39503472222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 44343-2022</t>
+          <t>A 40696-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44839.67604166667</v>
+        <v>44824</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4523,14 +4523,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56635-2022</t>
+          <t>A 4470-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44893</v>
+        <v>44589</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4580,14 +4580,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 39872-2024</t>
+          <t>A 28579-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45553</v>
+        <v>44748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4599,13 +4599,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4642,14 +4637,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26702-2023</t>
+          <t>A 4467-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45093</v>
+        <v>44589</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4662,7 +4657,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4699,14 +4694,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40329-2024</t>
+          <t>A 61492-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45555</v>
+        <v>44916.47408564815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4719,7 +4714,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>5.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4756,14 +4751,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11676-2024</t>
+          <t>A 30802-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45373.57236111111</v>
+        <v>45112</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4775,8 +4770,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4813,14 +4813,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 21042-2023</t>
+          <t>A 11676-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45056</v>
+        <v>45373.57236111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4870,14 +4870,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14353-2024</t>
+          <t>A 56267-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45393.83645833333</v>
+        <v>44479.61296296296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4927,14 +4927,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 58935-2023</t>
+          <t>A 1607-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45250</v>
+        <v>44937</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4984,14 +4984,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14734-2024</t>
+          <t>A 37564-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45397.5890625</v>
+        <v>45541.44607638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>11.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5041,14 +5041,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33259-2023</t>
+          <t>A 37491-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45127.56025462963</v>
+        <v>44399.29892361111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5098,14 +5098,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61644-2023</t>
+          <t>A 39867-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45263</v>
+        <v>45553.46100694445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5117,8 +5117,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5155,14 +5160,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33963-2023</t>
+          <t>A 30603-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45134.62525462963</v>
+        <v>44365.28403935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5175,7 +5180,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5212,14 +5217,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5559-2024</t>
+          <t>A 41692-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45334</v>
+        <v>45902.4041087963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5232,7 +5237,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5269,14 +5274,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 18645-2023</t>
+          <t>A 26763-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45043</v>
+        <v>45093.46813657408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5289,7 +5294,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5326,14 +5331,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4467-2022</t>
+          <t>A 42197-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44589</v>
+        <v>45904.48486111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5346,7 +5351,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5383,14 +5388,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1599-2025</t>
+          <t>A 34885-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45670.58930555556</v>
+        <v>44796.51725694445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5402,13 +5407,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>18.8</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5445,14 +5445,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58020-2021</t>
+          <t>A 42295-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44484</v>
+        <v>45904.63057870371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5502,14 +5502,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 1157-2025</t>
+          <t>A 53910-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45666.75922453704</v>
+        <v>45231.55751157407</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5559,14 +5559,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 53910-2023</t>
+          <t>A 37450-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45231.55751157407</v>
+        <v>45540.68736111111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5616,14 +5616,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40240-2024</t>
+          <t>A 20800-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45554.61458333334</v>
+        <v>45438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5673,14 +5673,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 19045-2023</t>
+          <t>A 39871-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45047</v>
+        <v>45553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5692,8 +5692,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5730,14 +5735,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29773-2025</t>
+          <t>A 12961-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45825.63271990741</v>
+        <v>45001.80307870371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5750,7 +5755,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5787,14 +5792,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14169-2025</t>
+          <t>A 18382-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45740.51894675926</v>
+        <v>45042.27751157407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5844,14 +5849,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 22323-2023</t>
+          <t>A 61470-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45068</v>
+        <v>45646</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5864,7 +5869,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5901,14 +5906,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 41008-2024</t>
+          <t>A 2175-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45559</v>
+        <v>45309</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5921,7 +5926,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5958,14 +5963,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 33204-2025</t>
+          <t>A 1574-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45840.61181712963</v>
+        <v>45670.55908564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5977,8 +5982,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6015,14 +6025,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 30747-2023</t>
+          <t>A 43621-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45112</v>
+        <v>45911.681875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6034,13 +6044,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6077,14 +6082,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 30802-2023</t>
+          <t>A 62160-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45112</v>
+        <v>45656.80090277778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6096,13 +6101,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6139,14 +6139,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 11794-2023</t>
+          <t>A 33963-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44994</v>
+        <v>45134.62525462963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.6</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6196,14 +6196,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5313-2024</t>
+          <t>A 46398-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45331.39503472222</v>
+        <v>44443.77010416667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6253,14 +6253,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 39873-2024</t>
+          <t>A 38922-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45553</v>
+        <v>45163.57961805556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,13 +6272,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6311,38 +6306,18 @@
         <v>0</v>
       </c>
       <c r="R88" s="2" t="inlineStr"/>
-      <c r="U88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="V88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="W88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="X88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="Y88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3643-2023</t>
+          <t>A 50104-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44950.69260416667</v>
+        <v>45600.40037037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6355,7 +6330,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6392,14 +6367,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 51659-2021</t>
+          <t>A 33334-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44462</v>
+        <v>45128.33488425926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6412,7 +6387,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6449,14 +6424,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41692-2025</t>
+          <t>A 55727-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45902.4041087963</v>
+        <v>45622.90070601852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6469,7 +6444,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6506,14 +6481,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12616-2025</t>
+          <t>A 28620-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45733</v>
+        <v>45103.5975462963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6526,7 +6501,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6563,14 +6538,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 27638-2025</t>
+          <t>A 18274-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45813</v>
+        <v>45421.70460648148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6583,7 +6558,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6620,14 +6595,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42197-2025</t>
+          <t>A 37598-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45904.48486111111</v>
+        <v>45541.47604166667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6640,7 +6615,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6677,14 +6652,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 54959-2023</t>
+          <t>A 10274-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45236</v>
+        <v>44986</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6697,7 +6672,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6734,14 +6709,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 12961-2023</t>
+          <t>A 58548-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45001.80307870371</v>
+        <v>45635.45878472222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6754,7 +6729,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6791,14 +6766,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42295-2025</t>
+          <t>A 12596-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45904.63057870371</v>
+        <v>45733.28476851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6811,7 +6786,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6848,14 +6823,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31113-2023</t>
+          <t>A 24055-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45113</v>
+        <v>45796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6868,7 +6843,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6905,14 +6880,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 11383-2023</t>
+          <t>A 12516-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44993.45693287037</v>
+        <v>45730.65107638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6924,8 +6899,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6962,14 +6942,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48268-2021</t>
+          <t>A 56282-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44449.66981481481</v>
+        <v>45241.82328703703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6982,7 +6962,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7019,14 +6999,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61492-2022</t>
+          <t>A 44650-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44916.47408564815</v>
+        <v>45574</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7039,7 +7019,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7076,14 +7056,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 39871-2024</t>
+          <t>A 26863-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45553</v>
+        <v>45810.69763888889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7095,13 +7075,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7138,14 +7113,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 47906-2023</t>
+          <t>A 37042-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45204</v>
+        <v>45539</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7158,7 +7133,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7195,14 +7170,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 38922-2023</t>
+          <t>A 7202-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45163.57961805556</v>
+        <v>44965</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7215,7 +7190,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7252,14 +7227,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43621-2025</t>
+          <t>A 19044-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45911.681875</v>
+        <v>45047</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7272,7 +7247,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7309,14 +7284,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 2038-2025</t>
+          <t>A 19045-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45672.49553240741</v>
+        <v>45047</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7329,7 +7304,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7366,14 +7341,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34885-2022</t>
+          <t>A 29773-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44796.51725694445</v>
+        <v>45825.63271990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7386,7 +7361,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7423,14 +7398,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 37898-2025</t>
+          <t>A 46809-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45881.55846064815</v>
+        <v>45926.69324074074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7443,7 +7418,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7480,14 +7455,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 24913-2023</t>
+          <t>A 46810-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45085.49424768519</v>
+        <v>45926.69480324074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7500,7 +7475,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7537,14 +7512,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40696-2022</t>
+          <t>A 10273-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44824</v>
+        <v>44986</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7557,7 +7532,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.5</v>
+        <v>12.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7594,14 +7569,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 30603-2021</t>
+          <t>A 19178-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44365.28403935185</v>
+        <v>45769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7614,7 +7589,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7651,14 +7626,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28579-2022</t>
+          <t>A 26121-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44748</v>
+        <v>45091.44384259259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7671,7 +7646,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7708,14 +7683,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 10467-2025</t>
+          <t>A 6101-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45720.83359953704</v>
+        <v>45337</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7728,7 +7703,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7765,14 +7740,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46810-2025</t>
+          <t>A 2039-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45926.69480324074</v>
+        <v>45672</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7785,7 +7760,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7822,14 +7797,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46809-2025</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45926.69324074074</v>
+        <v>45068</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7842,7 +7817,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7879,14 +7854,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 38297-2025</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45883.45506944445</v>
+        <v>45068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7899,7 +7874,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7936,14 +7911,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 33262-2023</t>
+          <t>A 33204-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45127.56380787037</v>
+        <v>45840.61181712963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7956,7 +7931,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7993,14 +7968,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 62841-2023</t>
+          <t>A 9769-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45270</v>
+        <v>45716.48861111111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8013,7 +7988,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8050,14 +8025,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 37042-2024</t>
+          <t>A 1599-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45539</v>
+        <v>45670.58930555556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8069,8 +8044,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>18.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8107,14 +8087,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 15597-2025</t>
+          <t>A 44343-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45747.9108449074</v>
+        <v>44839.67604166667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8127,7 +8107,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8164,14 +8144,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 56267-2021</t>
+          <t>A 11794-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44479.61296296296</v>
+        <v>44994</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8184,7 +8164,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>7.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8221,14 +8201,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 39867-2024</t>
+          <t>A 11289-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45553.46100694445</v>
+        <v>45726.42762731481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8246,7 +8226,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8283,14 +8263,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 14176-2025</t>
+          <t>A 40329-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45740.52974537037</v>
+        <v>45555</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8303,7 +8283,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8340,14 +8320,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 53407-2025</t>
+          <t>A 27947-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45959.57350694444</v>
+        <v>45098.66921296297</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8360,7 +8340,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8404,7 +8384,7 @@
         <v>45128.33729166666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8461,7 +8441,7 @@
         <v>45128.3400925926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8511,14 +8491,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 59036-2021</t>
+          <t>A 27638-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44490</v>
+        <v>45813</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8530,13 +8510,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>25.2</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8573,14 +8548,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 54804-2025</t>
+          <t>A 12616-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45966.64116898148</v>
+        <v>45733</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8593,7 +8568,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8630,14 +8605,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54770-2025</t>
+          <t>A 58935-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45966.60803240741</v>
+        <v>45250</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8650,7 +8625,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8687,14 +8662,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 27947-2023</t>
+          <t>A 62841-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45098.66921296297</v>
+        <v>45270</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8707,7 +8682,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8744,14 +8719,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55033-2025</t>
+          <t>A 58020-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45967</v>
+        <v>44484</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8764,7 +8739,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8801,14 +8776,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 55842-2025</t>
+          <t>A 51659-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45973.29060185186</v>
+        <v>44462</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8820,13 +8795,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8863,14 +8833,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 36516-2023</t>
+          <t>A 41551-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45153</v>
+        <v>45560</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8882,13 +8852,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8925,14 +8890,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 4470-2022</t>
+          <t>A 6843-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44589</v>
+        <v>45342.62711805556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8945,7 +8910,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8982,14 +8947,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 13757-2025</t>
+          <t>A 37898-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45737.41730324074</v>
+        <v>45881.55846064815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9001,13 +8966,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>12.8</v>
+        <v>3.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9044,14 +9004,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 38955-2023</t>
+          <t>A 6140-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45163</v>
+        <v>45698.3849537037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9064,7 +9024,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9101,14 +9061,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 7202-2023</t>
+          <t>A 38297-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44965</v>
+        <v>45883.45506944445</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9121,7 +9081,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9158,14 +9118,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6843-2024</t>
+          <t>A 12140-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45342.62711805556</v>
+        <v>44998.46677083334</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9178,7 +9138,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9215,14 +9175,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 19044-2023</t>
+          <t>A 14169-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45047</v>
+        <v>45740.51894675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9235,7 +9195,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9272,14 +9232,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61733-2024</t>
+          <t>A 22323-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45649.34486111111</v>
+        <v>45068</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9292,7 +9252,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9329,14 +9289,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58428-2025</t>
+          <t>A 41350-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45985.60064814815</v>
+        <v>45174</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9348,8 +9308,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9386,14 +9351,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 10787-2023</t>
+          <t>A 46877-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44989</v>
+        <v>44848</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9406,7 +9371,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9443,14 +9408,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 10791-2023</t>
+          <t>A 54959-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44989</v>
+        <v>45236</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9463,7 +9428,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9500,14 +9465,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1217-2026</t>
+          <t>A 13757-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46031.39998842592</v>
+        <v>45737.41730324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9519,8 +9484,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9557,14 +9527,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47902-2023</t>
+          <t>A 53407-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45204.49861111111</v>
+        <v>45959.57350694444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9577,7 +9547,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9614,14 +9584,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36444-2022</t>
+          <t>A 10787-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44804.38798611111</v>
+        <v>44989</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9634,7 +9604,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9671,14 +9641,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 22137-2022</t>
+          <t>A 10791-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44712</v>
+        <v>44989</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9691,7 +9661,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9728,14 +9698,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 26763-2023</t>
+          <t>A 10467-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45093.46813657408</v>
+        <v>45720.83359953704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9748,7 +9718,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9785,14 +9755,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 10617-2022</t>
+          <t>A 54770-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44624</v>
+        <v>45966.60803240741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9805,7 +9775,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>7.9</v>
+        <v>4.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9842,14 +9812,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 22198-2023</t>
+          <t>A 55033-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45069.78799768518</v>
+        <v>45967</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9862,7 +9832,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9899,14 +9869,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 9769-2025</t>
+          <t>A 54804-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45716.48861111111</v>
+        <v>45966.64116898148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9919,7 +9889,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9956,14 +9926,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 46877-2022</t>
+          <t>A 3602-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44848</v>
+        <v>44950.58821759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9976,7 +9946,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10013,14 +9983,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 61584-2025</t>
+          <t>A 55842-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46002.34265046296</v>
+        <v>45973.29060185186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10032,8 +10002,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10070,14 +10045,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 16914-2022</t>
+          <t>A 12963-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44676.43390046297</v>
+        <v>45001</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10090,7 +10065,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10127,14 +10102,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12596-2025</t>
+          <t>A 14734-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45733.28476851852</v>
+        <v>45397.5890625</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10147,7 +10122,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10184,14 +10159,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 61581-2025</t>
+          <t>A 58428-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46002.33817129629</v>
+        <v>45985.60064814815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10204,7 +10179,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.9</v>
+        <v>0.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10241,14 +10216,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 18274-2024</t>
+          <t>A 30754-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45421.70460648148</v>
+        <v>44764</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10261,7 +10236,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10298,14 +10273,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 62978-2025</t>
+          <t>A 61733-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46009.47902777778</v>
+        <v>45649.34486111111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10317,13 +10292,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10360,14 +10330,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 41233-2024</t>
+          <t>A 14353-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45559</v>
+        <v>45393.83645833333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10380,7 +10350,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10417,14 +10387,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 62939-2025</t>
+          <t>A 1217-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46009.4262037037</v>
+        <v>46031.39998842592</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10436,13 +10406,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10479,14 +10444,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 20800-2024</t>
+          <t>A 5373-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45438</v>
+        <v>45331</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10499,7 +10464,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10536,14 +10501,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 11289-2025</t>
+          <t>A 15597-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45726.42762731481</v>
+        <v>45747.9108449074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,13 +10520,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10598,14 +10558,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 62961-2025</t>
+          <t>A 59036-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46009.45863425926</v>
+        <v>44490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10623,7 +10583,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.6</v>
+        <v>25.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10660,14 +10620,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 12516-2025</t>
+          <t>A 61584-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45730.65107638889</v>
+        <v>46002.34265046296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10679,13 +10639,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10722,14 +10677,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 30754-2022</t>
+          <t>A 30747-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44764</v>
+        <v>45112</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10741,8 +10696,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>9.300000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10779,14 +10739,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 6101-2024</t>
+          <t>A 61581-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45337</v>
+        <v>46002.33817129629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10799,7 +10759,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.2</v>
+        <v>6.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10836,14 +10796,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 18272-2024</t>
+          <t>A 14702-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45421.69873842593</v>
+        <v>45014</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10856,7 +10816,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.4</v>
+        <v>12.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10893,14 +10853,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 6223-2026</t>
+          <t>A 61644-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46055.44097222222</v>
+        <v>45263</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10913,7 +10873,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10950,14 +10910,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 11287-2025</t>
+          <t>A 18272-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45726.42666666667</v>
+        <v>45421.69873842593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10969,13 +10929,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>5.4</v>
+        <v>0.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11012,14 +10967,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 37450-2024</t>
+          <t>A 47906-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45540.68736111111</v>
+        <v>45204</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11032,7 +10987,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11069,14 +11024,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 33907-2024</t>
+          <t>A 62939-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45523.37623842592</v>
+        <v>46009.4262037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,8 +11043,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11126,14 +11086,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 33910-2024</t>
+          <t>A 62961-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45523.38473379629</v>
+        <v>46009.45863425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11145,8 +11105,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11183,14 +11148,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 37491-2021</t>
+          <t>A 14176-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44399.29892361111</v>
+        <v>45740.52974537037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11203,7 +11168,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11240,14 +11205,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 5373-2024</t>
+          <t>A 24913-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45331</v>
+        <v>45085.49424768519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11260,7 +11225,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11297,14 +11262,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 12140-2023</t>
+          <t>A 21042-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44998.46677083334</v>
+        <v>45056</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11317,7 +11282,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11354,14 +11319,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 20787-2022</t>
+          <t>A 62978-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44701</v>
+        <v>46009.47902777778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11373,8 +11338,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11411,14 +11381,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 4468-2022</t>
+          <t>A 41233-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44589</v>
+        <v>45559</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11431,7 +11401,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11468,14 +11438,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 3602-2023</t>
+          <t>A 56635-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44950.58821759259</v>
+        <v>44893</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11488,7 +11458,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11525,14 +11495,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 11289-2023</t>
+          <t>A 6223-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44992</v>
+        <v>46055.44097222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11544,13 +11514,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11587,14 +11552,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 20344-2023</t>
+          <t>A 33262-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45056</v>
+        <v>45127.56380787037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11607,7 +11572,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11644,14 +11609,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 18382-2023</t>
+          <t>A 33259-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45042.27751157407</v>
+        <v>45127.56025462963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11664,7 +11629,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11701,14 +11666,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 1607-2023</t>
+          <t>A 11383-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44937</v>
+        <v>44993.45693287037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11686,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11758,14 +11723,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 64615-2023</t>
+          <t>A 47902-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45281.52231481481</v>
+        <v>45204.49861111111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11743,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11815,14 +11780,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 46398-2021</t>
+          <t>A 26702-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44443.77010416667</v>
+        <v>45093</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11800,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11872,14 +11837,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 41551-2024</t>
+          <t>A 41008-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45560</v>
+        <v>45559</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11892,7 +11857,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11929,14 +11894,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 44650-2024</t>
+          <t>A 64615-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45574</v>
+        <v>45281.52231481481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11949,7 +11914,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11986,14 +11951,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 26121-2023</t>
+          <t>A 16914-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45091.44384259259</v>
+        <v>44676.43390046297</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12006,7 +11971,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12043,14 +12008,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 12963-2023</t>
+          <t>A 10617-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45001</v>
+        <v>44624</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12063,7 +12028,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.4</v>
+        <v>7.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12100,14 +12065,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 37598-2024</t>
+          <t>A 40240-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45541.47604166667</v>
+        <v>45554.61458333334</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12120,7 +12085,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12157,14 +12122,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 10746-2023</t>
+          <t>A 33907-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44988</v>
+        <v>45523.37623842592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12176,13 +12141,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12219,14 +12179,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2175-2024</t>
+          <t>A 33910-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45309</v>
+        <v>45523.38473379629</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12239,7 +12199,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12276,14 +12236,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 18400-2025</t>
+          <t>A 36516-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45762.59549768519</v>
+        <v>45153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12295,8 +12255,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12333,14 +12298,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 39875-2024</t>
+          <t>A 2038-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45553</v>
+        <v>45672.49553240741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12352,13 +12317,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12395,14 +12355,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 39878-2024</t>
+          <t>A 1157-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45553</v>
+        <v>45666.75922453704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12414,13 +12374,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12457,14 +12412,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 19178-2025</t>
+          <t>A 31113-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45769</v>
+        <v>45113</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12477,7 +12432,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12514,14 +12469,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 56282-2023</t>
+          <t>A 20787-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45241.82328703703</v>
+        <v>44701</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12534,7 +12489,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12571,14 +12526,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 14702-2023</t>
+          <t>A 11289-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45014</v>
+        <v>44992</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12590,8 +12545,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>12.1</v>
+        <v>2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12628,14 +12588,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 22137-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45068</v>
+        <v>44712</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12648,7 +12608,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12685,14 +12645,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 54227-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45068</v>
+        <v>45616</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12705,7 +12665,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12742,14 +12702,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 37564-2024</t>
+          <t>A 39872-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45541.44607638889</v>
+        <v>45553</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12761,8 +12721,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>11.1</v>
+        <v>1.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12799,14 +12764,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 28620-2023</t>
+          <t>A 18645-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45103.5975462963</v>
+        <v>45043</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12819,7 +12784,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12856,14 +12821,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 54227-2024</t>
+          <t>A 29444-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45616</v>
+        <v>45483.86464120371</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12876,7 +12841,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12913,14 +12878,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 6140-2025</t>
+          <t>A 10746-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45698.3849537037</v>
+        <v>44988</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12932,8 +12897,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12970,14 +12940,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 10273-2023</t>
+          <t>A 39873-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44986</v>
+        <v>45553</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12989,8 +12959,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13023,18 +12998,38 @@
         <v>0</v>
       </c>
       <c r="R204" s="2" t="inlineStr"/>
+      <c r="U204">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="V204">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="W204">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="X204">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="Y204">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 50405-2024</t>
+          <t>A 4468-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45601.35753472222</v>
+        <v>44589</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13047,7 +13042,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13084,14 +13079,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 28824-2024</t>
+          <t>A 36444-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45478</v>
+        <v>44804.38798611111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13103,13 +13098,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13146,14 +13136,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 41350-2023</t>
+          <t>A 22198-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45174</v>
+        <v>45069.78799768518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13165,13 +13155,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>8.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13208,14 +13193,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 2039-2025</t>
+          <t>A 38955-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45672</v>
+        <v>45163</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13228,7 +13213,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13265,14 +13250,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 61314-2024</t>
+          <t>A 18400-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45646.31635416667</v>
+        <v>45762.59549768519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13285,7 +13270,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13322,14 +13307,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 61470-2024</t>
+          <t>A 11287-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45646</v>
+        <v>45726.42666666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13341,8 +13326,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13379,14 +13369,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 62160-2024</t>
+          <t>A 20344-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45656.80090277778</v>
+        <v>45056</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13399,7 +13389,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13436,14 +13426,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 50104-2024</t>
+          <t>A 39875-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45600.40037037037</v>
+        <v>45553</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13455,8 +13445,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13493,14 +13488,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 33334-2023</t>
+          <t>A 39878-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45128.33488425926</v>
+        <v>45553</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13512,8 +13507,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13550,14 +13550,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1574-2025</t>
+          <t>A 61314-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45670.55908564815</v>
+        <v>45646.31635416667</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13569,13 +13569,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>9.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13612,14 +13607,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 55727-2024</t>
+          <t>A 5559-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45622.90070601852</v>
+        <v>45334</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13632,7 +13627,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13669,14 +13664,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 10274-2023</t>
+          <t>A 48268-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44986</v>
+        <v>44449.66981481481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13689,7 +13684,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13726,14 +13721,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 58548-2024</t>
+          <t>A 3643-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45635.45878472222</v>
+        <v>44950.69260416667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13746,7 +13741,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13783,14 +13778,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 24055-2025</t>
+          <t>A 28824-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45796</v>
+        <v>45478</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13802,8 +13797,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13840,14 +13840,14 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 26863-2025</t>
+          <t>A 50405-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45810.69763888889</v>
+        <v>45601.35753472222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z219"/>
+  <dimension ref="A1:Z218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,14 +669,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 37012-2022</t>
+          <t>A 11678-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44806</v>
+        <v>45373.57708333333</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -688,11 +688,16 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -701,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -723,410 +728,405 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Ask
+Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 35099-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45852.5584375</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 37012-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Spillkråka</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 33104-2024</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45517</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>4.6</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Blekspindling agg.
 Garnlav</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 42748-2024</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>45566</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Granriska
 Rostfläck</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 35099-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45852.5584375</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 11678-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45373.57708333333</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
         <v/>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>46006.64673611111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>44746</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1317,14 +1317,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 1515-2024</t>
+          <t>A 10507-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45305</v>
+        <v>45721.39129629629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1336,8 +1336,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>10.4</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1346,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1361,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1371,49 +1376,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 10507-2025</t>
+          <t>A 30722-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45721.39129629629</v>
+        <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,11 +1432,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>10.4</v>
+        <v>21.2</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1465,35 +1470,35 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
         <v/>
       </c>
     </row>
@@ -1507,7 +1512,7 @@
         <v>45447.5825462963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,14 +1594,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 22805-2025</t>
+          <t>A 1515-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45789</v>
+        <v>45305</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1614,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.7</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1647,45 +1652,45 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 11637-2025</t>
+          <t>A 19176-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45727.46729166667</v>
+        <v>45769</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,28 +1702,23 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1730,52 +1730,56 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 44857-2025</t>
+          <t>A 10680-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45918.45165509259</v>
+        <v>45368</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1788,7 +1792,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1797,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1815,52 +1819,52 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 30722-2023</t>
+          <t>A 9690-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45112</v>
+        <v>45362</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1872,13 +1876,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>21.2</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1887,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1902,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1912,49 +1911,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 19176-2025</t>
+          <t>A 11637-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45769</v>
+        <v>45727.46729166667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1966,23 +1965,28 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1994,56 +1998,52 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 9690-2024</t>
+          <t>A 290-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45362</v>
+        <v>45656</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,16 +2056,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2090,49 +2090,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58430-2025</t>
+          <t>A 28821-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45985.60377314815</v>
+        <v>45478.65488425926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2144,14 +2140,19 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2179,45 +2180,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 41241-2024</t>
+          <t>A 44857-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45559</v>
+        <v>45918.45165509259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,7 +2231,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2264,45 +2265,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Rökfingersvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 290-2025</t>
+          <t>A 22805-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45656</v>
+        <v>45789</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2315,17 +2316,17 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>7.7</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2349,45 +2350,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 10680-2024</t>
+          <t>A 58430-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45368</v>
+        <v>45985.60377314815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,10 +2405,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2415,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2424,55 +2429,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 28821-2024</t>
+          <t>A 41241-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45478.65488425926</v>
+        <v>45559</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,23 +2489,18 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2524,31 +2524,31 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Rökfingersvamp</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,14 +2964,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23751-2022</t>
+          <t>A 64156-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44722.36616898148</v>
+        <v>44510.55405092592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2983,8 +2983,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3021,14 +3026,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 64156-2021</t>
+          <t>A 23751-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44510.55405092592</v>
+        <v>44722.36616898148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3040,13 +3045,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3601,14 +3601,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8047-2022</t>
+          <t>A 58380-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44609</v>
+        <v>44488</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3658,14 +3658,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41269-2021</t>
+          <t>A 41977-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44424</v>
+        <v>44830</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3677,8 +3677,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3715,14 +3720,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41977-2022</t>
+          <t>A 41269-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44830</v>
+        <v>44424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3734,13 +3739,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3777,14 +3777,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11661-2022</t>
+          <t>A 28616-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44632</v>
+        <v>44748.57869212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3834,14 +3834,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 58380-2021</t>
+          <t>A 59542-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44488</v>
+        <v>44491.59105324074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3891,14 +3891,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 28616-2022</t>
+          <t>A 8047-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44748.57869212963</v>
+        <v>44609</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3948,14 +3948,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 59542-2021</t>
+          <t>A 5043-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44491.59105324074</v>
+        <v>44593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4062,14 +4062,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7105-2021</t>
+          <t>A 45105-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44238</v>
+        <v>44843</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4119,14 +4119,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 5043-2022</t>
+          <t>A 8050-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44593</v>
+        <v>44609.46233796296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4176,14 +4176,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45105-2022</t>
+          <t>A 33259-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44843</v>
+        <v>45127.56025462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4233,14 +4233,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 8050-2022</t>
+          <t>A 61644-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44609.46233796296</v>
+        <v>45263</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4290,14 +4290,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 67508-2021</t>
+          <t>A 33963-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44524</v>
+        <v>45134.62525462963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4347,14 +4347,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41979-2022</t>
+          <t>A 67508-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44830</v>
+        <v>44524</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4366,13 +4366,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4409,14 +4404,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 5313-2024</t>
+          <t>A 39867-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45331.39503472222</v>
+        <v>45553.46100694445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4428,8 +4423,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>8.699999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 40696-2022</t>
+          <t>A 41979-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44824</v>
+        <v>44830</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4485,8 +4485,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4523,14 +4528,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 4470-2022</t>
+          <t>A 29444-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44589</v>
+        <v>45483.86464120371</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4543,7 +4548,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4580,14 +4585,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28579-2022</t>
+          <t>A 5559-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44748</v>
+        <v>45334</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4600,7 +4605,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4637,14 +4642,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4467-2022</t>
+          <t>A 14176-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44589</v>
+        <v>45740.52974537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4657,7 +4662,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4694,14 +4699,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61492-2022</t>
+          <t>A 18645-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44916.47408564815</v>
+        <v>45043</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4714,7 +4719,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4751,14 +4756,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 30802-2023</t>
+          <t>A 44343-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45112</v>
+        <v>44839.67604166667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4770,13 +4775,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4813,14 +4813,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 11676-2024</t>
+          <t>A 4467-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45373.57236111111</v>
+        <v>44589</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4870,14 +4870,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 56267-2021</t>
+          <t>A 58020-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44479.61296296296</v>
+        <v>44484</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4927,14 +4927,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 1607-2023</t>
+          <t>A 11661-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44937</v>
+        <v>44632</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4984,14 +4984,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 37564-2024</t>
+          <t>A 56635-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45541.44607638889</v>
+        <v>44893</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>11.1</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5041,14 +5041,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 37491-2021</t>
+          <t>A 33336-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44399.29892361111</v>
+        <v>45128.33729166666</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5098,14 +5098,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39867-2024</t>
+          <t>A 33337-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45553.46100694445</v>
+        <v>45128.3400925926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5117,13 +5117,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5160,14 +5155,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30603-2021</t>
+          <t>A 39872-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44365.28403935185</v>
+        <v>45553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5179,8 +5174,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5217,14 +5217,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41692-2025</t>
+          <t>A 59036-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45902.4041087963</v>
+        <v>44490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5236,8 +5236,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>25.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5274,14 +5279,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26763-2023</t>
+          <t>A 26702-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45093.46813657408</v>
+        <v>45093</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5294,7 +5299,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5331,14 +5336,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42197-2025</t>
+          <t>A 1599-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45904.48486111111</v>
+        <v>45670.58930555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5350,8 +5355,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>18.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5388,14 +5398,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34885-2022</t>
+          <t>A 40329-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44796.51725694445</v>
+        <v>45555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5408,7 +5418,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5445,14 +5455,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42295-2025</t>
+          <t>A 11676-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45904.63057870371</v>
+        <v>45373.57236111111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5465,7 +5475,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5502,14 +5512,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53910-2023</t>
+          <t>A 27947-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45231.55751157407</v>
+        <v>45098.66921296297</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5522,7 +5532,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5559,14 +5569,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 37450-2024</t>
+          <t>A 21042-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45540.68736111111</v>
+        <v>45056</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5579,7 +5589,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5616,14 +5626,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20800-2024</t>
+          <t>A 1157-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45438</v>
+        <v>45666.75922453704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5636,7 +5646,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5673,14 +5683,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39871-2024</t>
+          <t>A 14353-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45553</v>
+        <v>45393.83645833333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5692,13 +5702,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5735,14 +5740,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 12961-2023</t>
+          <t>A 53910-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45001.80307870371</v>
+        <v>45231.55751157407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5755,7 +5760,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5792,14 +5797,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18382-2023</t>
+          <t>A 36516-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45042.27751157407</v>
+        <v>45153</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5811,8 +5816,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5849,14 +5859,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 61470-2024</t>
+          <t>A 20344-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45646</v>
+        <v>45056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5869,7 +5879,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5906,14 +5916,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2175-2024</t>
+          <t>A 58935-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45309</v>
+        <v>45250</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5926,7 +5936,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5963,14 +5973,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1574-2025</t>
+          <t>A 14734-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45670.55908564815</v>
+        <v>45397.5890625</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5982,13 +5992,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6025,14 +6030,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 43621-2025</t>
+          <t>A 40240-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45911.681875</v>
+        <v>45554.61458333334</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6045,7 +6050,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6082,14 +6087,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62160-2024</t>
+          <t>A 19045-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45656.80090277778</v>
+        <v>45047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6102,7 +6107,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6139,14 +6144,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 33963-2023</t>
+          <t>A 4470-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45134.62525462963</v>
+        <v>44589</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6159,7 +6164,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6196,14 +6201,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46398-2021</t>
+          <t>A 13757-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44443.77010416667</v>
+        <v>45737.41730324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6215,8 +6220,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>12.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6253,14 +6263,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 38922-2023</t>
+          <t>A 26863-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45163.57961805556</v>
+        <v>45810.69763888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6273,7 +6283,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6310,14 +6320,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 50104-2024</t>
+          <t>A 38955-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45600.40037037037</v>
+        <v>45163</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6330,7 +6340,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6367,14 +6377,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 33334-2023</t>
+          <t>A 7202-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45128.33488425926</v>
+        <v>44965</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6387,7 +6397,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6424,14 +6434,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55727-2024</t>
+          <t>A 6843-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45622.90070601852</v>
+        <v>45342.62711805556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6444,7 +6454,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6481,14 +6491,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28620-2023</t>
+          <t>A 22323-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45103.5975462963</v>
+        <v>45068</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6501,7 +6511,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6538,14 +6548,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 18274-2024</t>
+          <t>A 19044-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45421.70460648148</v>
+        <v>45047</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6558,7 +6568,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6595,14 +6605,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 37598-2024</t>
+          <t>A 61733-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45541.47604166667</v>
+        <v>45649.34486111111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6615,7 +6625,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6652,14 +6662,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10274-2023</t>
+          <t>A 41008-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44986</v>
+        <v>45559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6672,7 +6682,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6709,14 +6719,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 58548-2024</t>
+          <t>A 30747-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45635.45878472222</v>
+        <v>45112</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6728,8 +6738,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6766,14 +6781,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12596-2025</t>
+          <t>A 30802-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45733.28476851852</v>
+        <v>45112</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6785,8 +6800,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6823,14 +6843,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24055-2025</t>
+          <t>A 11794-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45796</v>
+        <v>44994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6843,7 +6863,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6880,14 +6900,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 12516-2025</t>
+          <t>A 39873-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45730.65107638889</v>
+        <v>45553</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,11 +6921,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6938,18 +6958,38 @@
         <v>0</v>
       </c>
       <c r="R99" s="2" t="inlineStr"/>
+      <c r="U99">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="V99">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="W99">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="X99">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="Y99">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 56282-2023</t>
+          <t>A 3643-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45241.82328703703</v>
+        <v>44950.69260416667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6962,7 +7002,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6999,14 +7039,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44650-2024</t>
+          <t>A 29773-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45574</v>
+        <v>45825.63271990741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7019,7 +7059,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7056,14 +7096,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26863-2025</t>
+          <t>A 18382-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45810.69763888889</v>
+        <v>45042.27751157407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7076,7 +7116,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7113,14 +7153,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 37042-2024</t>
+          <t>A 51659-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45539</v>
+        <v>44462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7133,7 +7173,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7170,14 +7210,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 7202-2023</t>
+          <t>A 1607-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44965</v>
+        <v>44937</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7190,7 +7230,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7227,14 +7267,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 19044-2023</t>
+          <t>A 10787-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45047</v>
+        <v>44989</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7247,7 +7287,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7284,14 +7324,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 19045-2023</t>
+          <t>A 10791-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45047</v>
+        <v>44989</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7304,7 +7344,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7341,14 +7381,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 29773-2025</t>
+          <t>A 54959-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45825.63271990741</v>
+        <v>45236</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7361,7 +7401,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7398,14 +7438,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46809-2025</t>
+          <t>A 12961-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45926.69324074074</v>
+        <v>45001.80307870371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7455,14 +7495,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46810-2025</t>
+          <t>A 47902-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45926.69480324074</v>
+        <v>45204.49861111111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7475,7 +7515,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7512,14 +7552,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 10273-2023</t>
+          <t>A 36444-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44986</v>
+        <v>44804.38798611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7532,7 +7572,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>12.8</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7569,14 +7609,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19178-2025</t>
+          <t>A 31113-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45769</v>
+        <v>45113</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7589,7 +7629,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7626,14 +7666,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 26121-2023</t>
+          <t>A 11383-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45091.44384259259</v>
+        <v>44993.45693287037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7683,14 +7723,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 6101-2024</t>
+          <t>A 64615-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45337</v>
+        <v>45281.52231481481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7703,7 +7743,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7740,14 +7780,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 2039-2025</t>
+          <t>A 46398-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45672</v>
+        <v>44443.77010416667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7760,7 +7800,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7797,14 +7837,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 48268-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45068</v>
+        <v>44449.66981481481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7817,7 +7857,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7854,14 +7894,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 33204-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45068</v>
+        <v>45840.61181712963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7874,7 +7914,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7911,14 +7951,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 33204-2025</t>
+          <t>A 61492-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45840.61181712963</v>
+        <v>44916.47408564815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7931,7 +7971,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7968,14 +8008,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 9769-2025</t>
+          <t>A 41551-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45716.48861111111</v>
+        <v>45560</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +8028,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8025,14 +8065,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1599-2025</t>
+          <t>A 39871-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45670.58930555556</v>
+        <v>45553</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8046,11 +8086,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>18.8</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8087,14 +8127,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44343-2022</t>
+          <t>A 44650-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44839.67604166667</v>
+        <v>45574</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8107,7 +8147,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8144,14 +8184,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 11794-2023</t>
+          <t>A 47906-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44994</v>
+        <v>45204</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8164,7 +8204,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8201,14 +8241,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 11289-2025</t>
+          <t>A 26121-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45726.42762731481</v>
+        <v>45091.44384259259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8220,13 +8260,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8263,14 +8298,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 40329-2024</t>
+          <t>A 22137-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45555</v>
+        <v>44712</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8283,7 +8318,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8320,14 +8355,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 27947-2023</t>
+          <t>A 26763-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45098.66921296297</v>
+        <v>45093.46813657408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8340,7 +8375,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8377,14 +8412,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 33336-2023</t>
+          <t>A 10617-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45128.33729166666</v>
+        <v>44624</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8397,7 +8432,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>7.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8434,14 +8469,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 33337-2023</t>
+          <t>A 22198-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45128.3400925926</v>
+        <v>45069.78799768518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8454,7 +8489,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8491,14 +8526,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27638-2025</t>
+          <t>A 12963-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45813</v>
+        <v>45001</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8511,7 +8546,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8548,14 +8583,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12616-2025</t>
+          <t>A 9769-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45733</v>
+        <v>45716.48861111111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8568,7 +8603,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8605,14 +8640,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58935-2023</t>
+          <t>A 46877-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45250</v>
+        <v>44848</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8625,7 +8660,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8662,14 +8697,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 62841-2023</t>
+          <t>A 37598-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45270</v>
+        <v>45541.47604166667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8682,7 +8717,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8719,14 +8754,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 58020-2021</t>
+          <t>A 38922-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44484</v>
+        <v>45163.57961805556</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8774,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8776,14 +8811,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51659-2021</t>
+          <t>A 16914-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44462</v>
+        <v>44676.43390046297</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8831,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8833,14 +8868,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 41551-2024</t>
+          <t>A 12596-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45560</v>
+        <v>45733.28476851852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8853,7 +8888,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8890,14 +8925,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 6843-2024</t>
+          <t>A 2038-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45342.62711805556</v>
+        <v>45672.49553240741</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8910,7 +8945,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8947,14 +8982,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37898-2025</t>
+          <t>A 12616-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45881.55846064815</v>
+        <v>45733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8967,7 +9002,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9004,14 +9039,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 6140-2025</t>
+          <t>A 27638-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45698.3849537037</v>
+        <v>45813</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9024,7 +9059,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9061,14 +9096,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 38297-2025</t>
+          <t>A 34885-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45883.45506944445</v>
+        <v>44796.51725694445</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9081,7 +9116,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9118,14 +9153,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 12140-2023</t>
+          <t>A 18274-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44998.46677083334</v>
+        <v>45421.70460648148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9138,7 +9173,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9175,14 +9210,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 14169-2025</t>
+          <t>A 24913-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45740.51894675926</v>
+        <v>45085.49424768519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9232,14 +9267,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 22323-2023</t>
+          <t>A 40696-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45068</v>
+        <v>44824</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9287,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9289,14 +9324,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41350-2023</t>
+          <t>A 30603-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45174</v>
+        <v>44365.28403935185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9308,13 +9343,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>8.800000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9351,14 +9381,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 46877-2022</t>
+          <t>A 28579-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44848</v>
+        <v>44748</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9401,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9408,14 +9438,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54959-2023</t>
+          <t>A 10467-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45236</v>
+        <v>45720.83359953704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9458,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9465,14 +9495,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 13757-2025</t>
+          <t>A 10746-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45737.41730324074</v>
+        <v>44988</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9520,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>12.8</v>
+        <v>1.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9527,14 +9557,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 53407-2025</t>
+          <t>A 20800-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45959.57350694444</v>
+        <v>45438</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9577,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9584,14 +9614,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 10787-2023</t>
+          <t>A 11289-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44989</v>
+        <v>45726.42762731481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,8 +9633,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9641,14 +9676,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 10791-2023</t>
+          <t>A 33262-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44989</v>
+        <v>45127.56380787037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9696,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9698,14 +9733,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 10467-2025</t>
+          <t>A 37898-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45720.83359953704</v>
+        <v>45881.55846064815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9753,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9755,14 +9790,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54770-2025</t>
+          <t>A 12516-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45966.60803240741</v>
+        <v>45730.65107638889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9774,8 +9809,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9812,14 +9852,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 55033-2025</t>
+          <t>A 30754-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45967</v>
+        <v>44764</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9872,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9869,14 +9909,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 54804-2025</t>
+          <t>A 62841-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45966.64116898148</v>
+        <v>45270</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9929,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9926,14 +9966,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 3602-2023</t>
+          <t>A 6101-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44950.58821759259</v>
+        <v>45337</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9986,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9983,14 +10023,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 55842-2025</t>
+          <t>A 18272-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45973.29060185186</v>
+        <v>45421.69873842593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10002,13 +10042,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10045,14 +10080,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 12963-2023</t>
+          <t>A 37042-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45001</v>
+        <v>45539</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10102,14 +10137,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 14734-2024</t>
+          <t>A 2175-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45397.5890625</v>
+        <v>45309</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10157,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10159,14 +10194,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 58428-2025</t>
+          <t>A 15597-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45985.60064814815</v>
+        <v>45747.9108449074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10179,7 +10214,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10216,14 +10251,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 30754-2022</t>
+          <t>A 38297-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44764</v>
+        <v>45883.45506944445</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10236,7 +10271,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>9.300000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10273,14 +10308,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 61733-2024</t>
+          <t>A 11287-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45649.34486111111</v>
+        <v>45726.42666666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10292,8 +10327,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10330,14 +10370,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 14353-2024</t>
+          <t>A 37450-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45393.83645833333</v>
+        <v>45540.68736111111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10350,7 +10390,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10387,14 +10427,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 1217-2026</t>
+          <t>A 56267-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46031.39998842592</v>
+        <v>44479.61296296296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10407,7 +10447,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10444,14 +10484,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 5373-2024</t>
+          <t>A 33907-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45331</v>
+        <v>45523.37623842592</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10464,7 +10504,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10501,14 +10541,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 15597-2025</t>
+          <t>A 33910-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45747.9108449074</v>
+        <v>45523.38473379629</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10521,7 +10561,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10558,14 +10598,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59036-2021</t>
+          <t>A 18400-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44490</v>
+        <v>45762.59549768519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10577,13 +10617,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>25.2</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10620,14 +10655,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61584-2025</t>
+          <t>A 37491-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46002.34265046296</v>
+        <v>44399.29892361111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10640,7 +10675,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10677,14 +10712,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 30747-2023</t>
+          <t>A 5373-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45112</v>
+        <v>45331</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10696,13 +10731,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10739,14 +10769,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61581-2025</t>
+          <t>A 39875-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46002.33817129629</v>
+        <v>45553</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,8 +10788,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>6.9</v>
+        <v>4.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10796,14 +10831,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 14702-2023</t>
+          <t>A 39878-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45014</v>
+        <v>45553</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,8 +10850,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>12.1</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10853,14 +10893,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 61644-2023</t>
+          <t>A 12140-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45263</v>
+        <v>44998.46677083334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10873,7 +10913,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10910,14 +10950,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 18272-2024</t>
+          <t>A 20787-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45421.69873842593</v>
+        <v>44701</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10930,7 +10970,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10967,14 +11007,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 47906-2023</t>
+          <t>A 19178-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45204</v>
+        <v>45769</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10987,7 +11027,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11024,14 +11064,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62939-2025</t>
+          <t>A 56282-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46009.4262037037</v>
+        <v>45241.82328703703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,11 +11081,6 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -11086,14 +11121,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62961-2025</t>
+          <t>A 14702-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46009.45863425926</v>
+        <v>45014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11105,13 +11140,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>4.6</v>
+        <v>12.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11148,14 +11178,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 14176-2025</t>
+          <t>A 4468-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45740.52974537037</v>
+        <v>44589</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11168,7 +11198,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11205,14 +11235,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 24913-2023</t>
+          <t>A 14169-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45085.49424768519</v>
+        <v>45740.51894675926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11262,14 +11292,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 21042-2023</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45056</v>
+        <v>45068</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11282,7 +11312,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11319,14 +11349,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62978-2025</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46009.47902777778</v>
+        <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,13 +11368,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11381,14 +11406,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 41233-2024</t>
+          <t>A 3602-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45559</v>
+        <v>44950.58821759259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11401,7 +11426,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11438,14 +11463,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 56635-2022</t>
+          <t>A 37564-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44893</v>
+        <v>45541.44607638889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11458,7 +11483,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>11.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11495,14 +11520,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 6223-2026</t>
+          <t>A 11289-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46055.44097222222</v>
+        <v>44992</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,8 +11539,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11552,14 +11582,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 33262-2023</t>
+          <t>A 28620-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45127.56380787037</v>
+        <v>45103.5975462963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11572,7 +11602,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11609,14 +11639,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 33259-2023</t>
+          <t>A 54227-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45127.56025462963</v>
+        <v>45616</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11629,7 +11659,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11666,14 +11696,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 11383-2023</t>
+          <t>A 5313-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44993.45693287037</v>
+        <v>45331.39503472222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11686,7 +11716,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11723,14 +11753,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 47902-2023</t>
+          <t>A 41692-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45204.49861111111</v>
+        <v>45902.4041087963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11743,7 +11773,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11780,14 +11810,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 26702-2023</t>
+          <t>A 6140-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45093</v>
+        <v>45698.3849537037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11800,7 +11830,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11837,14 +11867,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 41008-2024</t>
+          <t>A 42197-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45559</v>
+        <v>45904.48486111111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11857,7 +11887,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11894,14 +11924,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 64615-2023</t>
+          <t>A 42295-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45281.52231481481</v>
+        <v>45904.63057870371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11914,7 +11944,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11951,14 +11981,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 16914-2022</t>
+          <t>A 10273-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44676.43390046297</v>
+        <v>44986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11971,7 +12001,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.6</v>
+        <v>12.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12008,14 +12038,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 10617-2022</t>
+          <t>A 43621-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44624</v>
+        <v>45911.681875</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12028,7 +12058,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>7.9</v>
+        <v>0.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12065,14 +12095,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 40240-2024</t>
+          <t>A 50405-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45554.61458333334</v>
+        <v>45601.35753472222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12085,7 +12115,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12122,14 +12152,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 33907-2024</t>
+          <t>A 28824-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45523.37623842592</v>
+        <v>45478</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,8 +12171,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12179,14 +12214,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 33910-2024</t>
+          <t>A 41350-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45523.38473379629</v>
+        <v>45174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,8 +12233,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12236,14 +12276,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36516-2023</t>
+          <t>A 2039-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45153</v>
+        <v>45672</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12255,13 +12295,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12298,14 +12333,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2038-2025</t>
+          <t>A 61314-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45672.49553240741</v>
+        <v>45646.31635416667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12318,7 +12353,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12355,14 +12390,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1157-2025</t>
+          <t>A 46810-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45666.75922453704</v>
+        <v>45926.69480324074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12375,7 +12410,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12412,14 +12447,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 31113-2023</t>
+          <t>A 46809-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45113</v>
+        <v>45926.69324074074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12432,7 +12467,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12469,14 +12504,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 20787-2022</t>
+          <t>A 61470-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44701</v>
+        <v>45646</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12489,7 +12524,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12526,14 +12561,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 11289-2023</t>
+          <t>A 62160-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44992</v>
+        <v>45656.80090277778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,13 +12580,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12588,14 +12618,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 22137-2022</t>
+          <t>A 50104-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44712</v>
+        <v>45600.40037037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12608,7 +12638,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12645,14 +12675,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 54227-2024</t>
+          <t>A 33334-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45616</v>
+        <v>45128.33488425926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12665,7 +12695,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12702,14 +12732,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 39872-2024</t>
+          <t>A 1574-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45553</v>
+        <v>45670.55908564815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12723,11 +12753,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12764,14 +12794,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 18645-2023</t>
+          <t>A 55727-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45043</v>
+        <v>45622.90070601852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12784,7 +12814,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12821,14 +12851,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 29444-2024</t>
+          <t>A 10274-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45483.86464120371</v>
+        <v>44986</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12841,7 +12871,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12878,14 +12908,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 10746-2023</t>
+          <t>A 58548-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44988</v>
+        <v>45635.45878472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12897,13 +12927,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12940,14 +12965,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 39873-2024</t>
+          <t>A 24055-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45553</v>
+        <v>45796</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12959,13 +12984,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12998,38 +13018,18 @@
         <v>0</v>
       </c>
       <c r="R204" s="2" t="inlineStr"/>
-      <c r="U204">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="V204">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="W204">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="X204">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="Y204">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 4468-2022</t>
+          <t>A 53407-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44589</v>
+        <v>45959.57350694444</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13079,14 +13079,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 36444-2022</t>
+          <t>A 54804-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44804.38798611111</v>
+        <v>45966.64116898148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13136,14 +13136,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 22198-2023</t>
+          <t>A 54770-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45069.78799768518</v>
+        <v>45966.60803240741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13193,14 +13193,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 38955-2023</t>
+          <t>A 55033-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45163</v>
+        <v>45967</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13250,14 +13250,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 18400-2025</t>
+          <t>A 55842-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45762.59549768519</v>
+        <v>45973.29060185186</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13269,8 +13269,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13307,14 +13312,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11287-2025</t>
+          <t>A 58428-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45726.42666666667</v>
+        <v>45985.60064814815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13326,13 +13331,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>5.4</v>
+        <v>0.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13369,14 +13369,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 20344-2023</t>
+          <t>A 1217-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45056</v>
+        <v>46031.39998842592</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13426,14 +13426,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 39875-2024</t>
+          <t>A 61584-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45553</v>
+        <v>46002.34265046296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13445,13 +13445,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13488,14 +13483,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 39878-2024</t>
+          <t>A 61581-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45553</v>
+        <v>46002.33817129629</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13507,13 +13502,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13550,14 +13540,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 61314-2024</t>
+          <t>A 62978-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45646.31635416667</v>
+        <v>46009.47902777778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13569,8 +13559,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13607,14 +13602,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 5559-2024</t>
+          <t>A 41233-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45334</v>
+        <v>45559</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13627,7 +13622,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13664,14 +13659,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 48268-2021</t>
+          <t>A 62939-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44449.66981481481</v>
+        <v>46009.4262037037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13683,8 +13678,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13721,14 +13721,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 3643-2023</t>
+          <t>A 62961-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44950.69260416667</v>
+        <v>46009.45863425926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13740,8 +13740,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13775,17 +13780,17 @@
       </c>
       <c r="R217" s="2" t="inlineStr"/>
     </row>
-    <row r="218" ht="15" customHeight="1">
+    <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 28824-2024</t>
+          <t>A 6223-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45478</v>
+        <v>46055.44097222222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13797,13 +13802,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13836,63 +13836,6 @@
         <v>0</v>
       </c>
       <c r="R218" s="2" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>A 50405-2024</t>
-        </is>
-      </c>
-      <c r="B219" s="1" t="n">
-        <v>45601.35753472222</v>
-      </c>
-      <c r="C219" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0</v>
-      </c>
-      <c r="L219" t="n">
-        <v>0</v>
-      </c>
-      <c r="M219" t="n">
-        <v>0</v>
-      </c>
-      <c r="N219" t="n">
-        <v>0</v>
-      </c>
-      <c r="O219" t="n">
-        <v>0</v>
-      </c>
-      <c r="P219" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q219" t="n">
-        <v>0</v>
-      </c>
-      <c r="R219" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,14 +669,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 11678-2024</t>
+          <t>A 42748-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45373.57708333333</v>
+        <v>45566</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -688,28 +688,23 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -718,524 +713,529 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Granriska
+Rostfläck</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 62297-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>46006.64673611111</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 35099-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45852.5584375</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 11678-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45373.57708333333</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Ask
 Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 35099-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45852.5584375</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="H4" t="n">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 37012-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 37012-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44806</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 33104-2024</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45517</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>4.6</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Blekspindling agg.
 Garnlav</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 42748-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Granriska
-Rostfläck</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 62297-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>46006.64673611111</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 28147-2022</t>
+          <t>A 10507-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44746</v>
+        <v>45721.39129629629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,8 +1247,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>10.4</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1257,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1272,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1282,49 +1287,49 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 10507-2025</t>
+          <t>A 22580-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45721.39129629629</v>
+        <v>45447.5825462963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1336,13 +1341,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>10.4</v>
+        <v>7.3</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1376,49 +1376,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30722-2023</t>
+          <t>A 11637-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45112</v>
+        <v>45727.46729166667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,27 +1432,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>21.2</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
@@ -1460,59 +1460,55 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 22580-2024</t>
+          <t>A 30722-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45447.5825462963</v>
+        <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,8 +1520,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>7.3</v>
+        <v>21.2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1534,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1549,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1559,49 +1560,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 1515-2024</t>
+          <t>A 19176-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45305</v>
+        <v>45769</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1614,7 +1615,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1652,45 +1653,45 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 19176-2025</t>
+          <t>A 44857-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45769</v>
+        <v>45918.45165509259</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,10 +1704,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1737,49 +1738,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 10680-2024</t>
+          <t>A 9690-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45368</v>
+        <v>45362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,22 +1789,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1819,52 +1816,56 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 9690-2024</t>
+          <t>A 58430-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45362</v>
+        <v>45985.60377314815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1877,7 +1878,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1886,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1901,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1911,49 +1912,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11637-2025</t>
+          <t>A 290-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45727.46729166667</v>
+        <v>45656</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,19 +1962,14 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1986,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1995,55 +1987,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 290-2025</t>
+          <t>A 41241-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45656</v>
+        <v>45559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2056,17 +2048,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2080,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2090,45 +2082,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Rökfingersvamp</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 28821-2024</t>
+          <t>A 10680-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45478.65488425926</v>
+        <v>45368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2140,29 +2132,24 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
@@ -2170,55 +2157,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 44857-2025</t>
+          <t>A 28821-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45918.45165509259</v>
+        <v>45478.65488425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2230,17 +2217,22 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2255,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2265,45 +2257,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 22805-2025</t>
+          <t>A 28147-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45789</v>
+        <v>44746</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2308,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.7</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2350,49 +2342,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 58430-2025</t>
+          <t>A 1515-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45985.60377314815</v>
+        <v>45305</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2397,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2414,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2429,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2439,45 +2431,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 41241-2024</t>
+          <t>A 22805-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45559</v>
+        <v>45789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2490,10 +2486,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>7.7</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2524,31 +2520,35 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Rökfingersvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
         <v/>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,14 +2964,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 64156-2021</t>
+          <t>A 23751-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44510.55405092592</v>
+        <v>44722.36616898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2983,13 +2983,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3026,14 +3021,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 23751-2022</t>
+          <t>A 64156-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44722.36616898148</v>
+        <v>44510.55405092592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3045,8 +3040,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3601,14 +3601,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 58380-2021</t>
+          <t>A 8047-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44488</v>
+        <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3658,14 +3658,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41977-2022</t>
+          <t>A 41269-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44830</v>
+        <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3677,13 +3677,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3720,14 +3715,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41269-2021</t>
+          <t>A 41977-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44424</v>
+        <v>44830</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3739,8 +3734,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3777,14 +3777,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 28616-2022</t>
+          <t>A 11661-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44748.57869212963</v>
+        <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3834,14 +3834,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 59542-2021</t>
+          <t>A 58380-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44491.59105324074</v>
+        <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3891,14 +3891,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 8047-2022</t>
+          <t>A 28616-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44609</v>
+        <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3948,14 +3948,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 5043-2022</t>
+          <t>A 59542-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44593</v>
+        <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4062,14 +4062,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 45105-2022</t>
+          <t>A 5043-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44843</v>
+        <v>44593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4119,14 +4119,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8050-2022</t>
+          <t>A 45105-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44609.46233796296</v>
+        <v>44843</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4176,14 +4176,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33259-2023</t>
+          <t>A 8050-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45127.56025462963</v>
+        <v>44609.46233796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4233,14 +4233,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61644-2023</t>
+          <t>A 67508-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45263</v>
+        <v>44524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4290,14 +4290,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33963-2023</t>
+          <t>A 41979-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45134.62525462963</v>
+        <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4309,8 +4309,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4347,14 +4352,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 67508-2021</t>
+          <t>A 40696-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44524</v>
+        <v>44824</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4367,7 +4372,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4404,14 +4409,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39867-2024</t>
+          <t>A 4467-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45553.46100694445</v>
+        <v>44589</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4423,13 +4428,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41979-2022</t>
+          <t>A 61492-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44830</v>
+        <v>44916.47408564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4485,13 +4485,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4528,14 +4523,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 29444-2024</t>
+          <t>A 1607-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45483.86464120371</v>
+        <v>44937</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4548,7 +4543,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4585,14 +4580,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 5559-2024</t>
+          <t>A 11676-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45334</v>
+        <v>45373.57236111111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4605,7 +4600,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4642,14 +4637,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 14176-2025</t>
+          <t>A 56267-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45740.52974537037</v>
+        <v>44479.61296296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4662,7 +4657,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4699,14 +4694,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18645-2023</t>
+          <t>A 37491-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45043</v>
+        <v>44399.29892361111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4719,7 +4714,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4756,14 +4751,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 44343-2022</t>
+          <t>A 26763-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44839.67604166667</v>
+        <v>45093.46813657408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4776,7 +4771,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4813,14 +4808,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4467-2022</t>
+          <t>A 34885-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44589</v>
+        <v>44796.51725694445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4833,7 +4828,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4870,14 +4865,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 58020-2021</t>
+          <t>A 37450-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44484</v>
+        <v>45540.68736111111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4890,7 +4885,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4927,14 +4922,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11661-2022</t>
+          <t>A 39871-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44632</v>
+        <v>45553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4946,8 +4941,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4984,14 +4984,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56635-2022</t>
+          <t>A 20800-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44893</v>
+        <v>45438</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5041,14 +5041,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33336-2023</t>
+          <t>A 53910-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45128.33729166666</v>
+        <v>45231.55751157407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5098,14 +5098,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33337-2023</t>
+          <t>A 12961-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45128.3400925926</v>
+        <v>45001.80307870371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5155,14 +5155,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39872-2024</t>
+          <t>A 18382-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45553</v>
+        <v>45042.27751157407</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5174,13 +5174,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5217,14 +5212,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59036-2021</t>
+          <t>A 10274-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44490</v>
+        <v>44986</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5236,13 +5231,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>25.2</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5279,14 +5269,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26702-2023</t>
+          <t>A 2175-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45093</v>
+        <v>45309</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5299,7 +5289,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5336,14 +5326,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 1599-2025</t>
+          <t>A 58548-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45670.58930555556</v>
+        <v>45635.45878472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5355,13 +5345,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>18.8</v>
+        <v>6.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5398,14 +5383,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 40329-2024</t>
+          <t>A 24055-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45555</v>
+        <v>45796</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5418,7 +5403,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5455,14 +5440,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11676-2024</t>
+          <t>A 33963-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45373.57236111111</v>
+        <v>45134.62525462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5475,7 +5460,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5512,14 +5497,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 27947-2023</t>
+          <t>A 46398-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45098.66921296297</v>
+        <v>44443.77010416667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5532,7 +5517,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5569,14 +5554,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 21042-2023</t>
+          <t>A 38922-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45056</v>
+        <v>45163.57961805556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5589,7 +5574,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5626,14 +5611,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1157-2025</t>
+          <t>A 28620-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45666.75922453704</v>
+        <v>45103.5975462963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5646,7 +5631,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5683,14 +5668,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14353-2024</t>
+          <t>A 18274-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45393.83645833333</v>
+        <v>45421.70460648148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5703,7 +5688,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5740,14 +5725,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53910-2023</t>
+          <t>A 37598-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45231.55751157407</v>
+        <v>45541.47604166667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5760,7 +5745,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5797,14 +5782,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36516-2023</t>
+          <t>A 12596-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45153</v>
+        <v>45733.28476851852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5816,13 +5801,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5859,14 +5839,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 20344-2023</t>
+          <t>A 26863-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45056</v>
+        <v>45810.69763888889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5879,7 +5859,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5916,14 +5896,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 58935-2023</t>
+          <t>A 12516-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45250</v>
+        <v>45730.65107638889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5935,8 +5915,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5973,14 +5958,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 14734-2024</t>
+          <t>A 56282-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45397.5890625</v>
+        <v>45241.82328703703</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5993,7 +5978,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6030,14 +6015,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 40240-2024</t>
+          <t>A 44650-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45554.61458333334</v>
+        <v>45574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6050,7 +6035,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6087,14 +6072,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 19045-2023</t>
+          <t>A 29773-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45047</v>
+        <v>45825.63271990741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6107,7 +6092,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6144,14 +6129,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4470-2022</t>
+          <t>A 37042-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44589</v>
+        <v>45539</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6164,7 +6149,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6201,14 +6186,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13757-2025</t>
+          <t>A 5313-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45737.41730324074</v>
+        <v>45331.39503472222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6220,13 +6205,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>12.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6263,14 +6243,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26863-2025</t>
+          <t>A 7202-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45810.69763888889</v>
+        <v>44965</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6283,7 +6263,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6320,14 +6300,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38955-2023</t>
+          <t>A 19044-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45163</v>
+        <v>45047</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6340,7 +6320,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6377,14 +6357,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7202-2023</t>
+          <t>A 19045-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44965</v>
+        <v>45047</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6397,7 +6377,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6434,14 +6414,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6843-2024</t>
+          <t>A 33204-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45342.62711805556</v>
+        <v>45840.61181712963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6454,7 +6434,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6491,14 +6471,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 22323-2023</t>
+          <t>A 10273-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45068</v>
+        <v>44986</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6511,7 +6491,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>12.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6548,14 +6528,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 19044-2023</t>
+          <t>A 19178-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45047</v>
+        <v>45769</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6568,7 +6548,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6605,14 +6585,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61733-2024</t>
+          <t>A 26121-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45649.34486111111</v>
+        <v>45091.44384259259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6625,7 +6605,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6662,14 +6642,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41008-2024</t>
+          <t>A 6101-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45559</v>
+        <v>45337</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6682,7 +6662,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6719,14 +6699,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30747-2023</t>
+          <t>A 41692-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45112</v>
+        <v>45902.4041087963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6738,13 +6718,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6781,14 +6756,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30802-2023</t>
+          <t>A 27638-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45112</v>
+        <v>45813</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6800,13 +6775,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6843,14 +6813,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 11794-2023</t>
+          <t>A 12616-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44994</v>
+        <v>45733</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6863,7 +6833,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6900,14 +6870,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 39873-2024</t>
+          <t>A 42197-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45553</v>
+        <v>45904.48486111111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6919,13 +6889,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6958,38 +6923,18 @@
         <v>0</v>
       </c>
       <c r="R99" s="2" t="inlineStr"/>
-      <c r="U99">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="V99">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="W99">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="X99">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="Y99">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3643-2023</t>
+          <t>A 2039-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44950.69260416667</v>
+        <v>45672</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7002,7 +6947,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7039,14 +6984,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 29773-2025</t>
+          <t>A 42295-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45825.63271990741</v>
+        <v>45904.63057870371</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7059,7 +7004,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7096,14 +7041,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 18382-2023</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45042.27751157407</v>
+        <v>45068</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7116,7 +7061,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7153,14 +7098,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 51659-2021</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44462</v>
+        <v>45068</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7173,7 +7118,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7210,14 +7155,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 1607-2023</t>
+          <t>A 9769-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44937</v>
+        <v>45716.48861111111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7230,7 +7175,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7267,14 +7212,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10787-2023</t>
+          <t>A 1599-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44989</v>
+        <v>45670.58930555556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7286,8 +7231,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>18.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7324,14 +7274,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10791-2023</t>
+          <t>A 44343-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44989</v>
+        <v>44839.67604166667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7344,7 +7294,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7381,14 +7331,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 54959-2023</t>
+          <t>A 11794-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45236</v>
+        <v>44994</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7401,7 +7351,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7438,14 +7388,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 12961-2023</t>
+          <t>A 11289-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45001.80307870371</v>
+        <v>45726.42762731481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7457,8 +7407,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7495,14 +7450,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 47902-2023</t>
+          <t>A 40329-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45204.49861111111</v>
+        <v>45555</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7515,7 +7470,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7552,14 +7507,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36444-2022</t>
+          <t>A 27947-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44804.38798611111</v>
+        <v>45098.66921296297</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7572,7 +7527,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7609,14 +7564,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 31113-2023</t>
+          <t>A 33336-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45113</v>
+        <v>45128.33729166666</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7629,7 +7584,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7666,14 +7621,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11383-2023</t>
+          <t>A 33337-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44993.45693287037</v>
+        <v>45128.3400925926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7686,7 +7641,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7723,14 +7678,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 64615-2023</t>
+          <t>A 43621-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45281.52231481481</v>
+        <v>45911.681875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7743,7 +7698,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7780,14 +7735,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46398-2021</t>
+          <t>A 37898-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44443.77010416667</v>
+        <v>45881.55846064815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7800,7 +7755,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7837,14 +7792,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48268-2021</t>
+          <t>A 58935-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44449.66981481481</v>
+        <v>45250</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7857,7 +7812,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>9.699999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7894,14 +7849,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 33204-2025</t>
+          <t>A 38297-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45840.61181712963</v>
+        <v>45883.45506944445</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7914,7 +7869,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7951,14 +7906,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 61492-2022</t>
+          <t>A 62841-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44916.47408564815</v>
+        <v>45270</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7971,7 +7926,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8008,14 +7963,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 41551-2024</t>
+          <t>A 14169-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45560</v>
+        <v>45740.51894675926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8028,7 +7983,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8065,14 +8020,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 39871-2024</t>
+          <t>A 58020-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45553</v>
+        <v>44484</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8084,13 +8039,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8127,14 +8077,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44650-2024</t>
+          <t>A 51659-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45574</v>
+        <v>44462</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8147,7 +8097,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8184,14 +8134,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47906-2023</t>
+          <t>A 41551-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45204</v>
+        <v>45560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8204,7 +8154,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8241,14 +8191,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 26121-2023</t>
+          <t>A 6843-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45091.44384259259</v>
+        <v>45342.62711805556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8261,7 +8211,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8298,14 +8248,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 22137-2022</t>
+          <t>A 6140-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44712</v>
+        <v>45698.3849537037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8318,7 +8268,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8355,14 +8305,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 26763-2023</t>
+          <t>A 46809-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45093.46813657408</v>
+        <v>45926.69324074074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8375,7 +8325,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8412,14 +8362,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 10617-2022</t>
+          <t>A 46810-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44624</v>
+        <v>45926.69480324074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8432,7 +8382,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>7.9</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8469,14 +8419,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 22198-2023</t>
+          <t>A 12140-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45069.78799768518</v>
+        <v>44998.46677083334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8489,7 +8439,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8526,14 +8476,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 12963-2023</t>
+          <t>A 22323-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45001</v>
+        <v>45068</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8546,7 +8496,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8583,14 +8533,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 9769-2025</t>
+          <t>A 41350-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45716.48861111111</v>
+        <v>45174</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8602,8 +8552,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8647,7 +8602,7 @@
         <v>44848</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8697,14 +8652,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 37598-2024</t>
+          <t>A 54959-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45541.47604166667</v>
+        <v>45236</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8717,7 +8672,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8754,14 +8709,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 38922-2023</t>
+          <t>A 13757-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45163.57961805556</v>
+        <v>45737.41730324074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8773,8 +8728,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>12.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8811,14 +8771,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 16914-2022</t>
+          <t>A 10787-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44676.43390046297</v>
+        <v>44989</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8831,7 +8791,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8868,14 +8828,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 12596-2025</t>
+          <t>A 10791-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45733.28476851852</v>
+        <v>44989</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8888,7 +8848,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8925,14 +8885,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 2038-2025</t>
+          <t>A 10467-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45672.49553240741</v>
+        <v>45720.83359953704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8945,7 +8905,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8982,14 +8942,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 12616-2025</t>
+          <t>A 3602-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45733</v>
+        <v>44950.58821759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9002,7 +8962,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9039,14 +8999,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 27638-2025</t>
+          <t>A 12963-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45813</v>
+        <v>45001</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9059,7 +9019,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9096,14 +9056,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34885-2022</t>
+          <t>A 14734-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44796.51725694445</v>
+        <v>45397.5890625</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9116,7 +9076,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9153,14 +9113,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 18274-2024</t>
+          <t>A 30754-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45421.70460648148</v>
+        <v>44764</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9173,7 +9133,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9210,14 +9170,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 24913-2023</t>
+          <t>A 53407-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45085.49424768519</v>
+        <v>45959.57350694444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9230,7 +9190,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9267,14 +9227,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 40696-2022</t>
+          <t>A 61733-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44824</v>
+        <v>45649.34486111111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9287,7 +9247,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9324,14 +9284,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 30603-2021</t>
+          <t>A 14353-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44365.28403935185</v>
+        <v>45393.83645833333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9344,7 +9304,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9381,14 +9341,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 28579-2022</t>
+          <t>A 54770-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44748</v>
+        <v>45966.60803240741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9401,7 +9361,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9438,14 +9398,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 10467-2025</t>
+          <t>A 55033-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45720.83359953704</v>
+        <v>45967</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9458,7 +9418,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9495,14 +9455,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 10746-2023</t>
+          <t>A 54804-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44988</v>
+        <v>45966.64116898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9514,13 +9474,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9557,14 +9512,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 20800-2024</t>
+          <t>A 5373-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45438</v>
+        <v>45331</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9577,7 +9532,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9614,14 +9569,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 11289-2025</t>
+          <t>A 55842-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45726.42762731481</v>
+        <v>45973.29060185186</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9639,7 +9594,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9676,14 +9631,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 33262-2023</t>
+          <t>A 15597-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45127.56380787037</v>
+        <v>45747.9108449074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9696,7 +9651,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9733,14 +9688,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 37898-2025</t>
+          <t>A 59036-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45881.55846064815</v>
+        <v>44490</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9752,8 +9707,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>3.3</v>
+        <v>25.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9790,14 +9750,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 12516-2025</t>
+          <t>A 30747-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45730.65107638889</v>
+        <v>45112</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9815,7 +9775,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9852,14 +9812,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 30754-2022</t>
+          <t>A 14702-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44764</v>
+        <v>45014</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9872,7 +9832,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>9.300000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9909,14 +9869,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 62841-2023</t>
+          <t>A 58428-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45270</v>
+        <v>45985.60064814815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9929,7 +9889,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9966,14 +9926,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 6101-2024</t>
+          <t>A 61644-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45337</v>
+        <v>45263</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9986,7 +9946,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10030,7 +9990,7 @@
         <v>45421.69873842593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10080,14 +10040,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 37042-2024</t>
+          <t>A 47906-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45539</v>
+        <v>45204</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10100,7 +10060,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10137,14 +10097,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 2175-2024</t>
+          <t>A 1217-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45309</v>
+        <v>46031.39998842592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10157,7 +10117,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10194,14 +10154,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 15597-2025</t>
+          <t>A 14176-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45747.9108449074</v>
+        <v>45740.52974537037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10214,7 +10174,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10251,14 +10211,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 38297-2025</t>
+          <t>A 24913-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45883.45506944445</v>
+        <v>45085.49424768519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10271,7 +10231,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10308,14 +10268,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 11287-2025</t>
+          <t>A 21042-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45726.42666666667</v>
+        <v>45056</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,13 +10287,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10370,14 +10325,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37450-2024</t>
+          <t>A 56635-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45540.68736111111</v>
+        <v>44893</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10390,7 +10345,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10427,14 +10382,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 56267-2021</t>
+          <t>A 33262-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44479.61296296296</v>
+        <v>45127.56380787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10447,7 +10402,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10484,14 +10439,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33907-2024</t>
+          <t>A 33259-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45523.37623842592</v>
+        <v>45127.56025462963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10504,7 +10459,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10541,14 +10496,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 33910-2024</t>
+          <t>A 11383-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45523.38473379629</v>
+        <v>44993.45693287037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10561,7 +10516,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10598,14 +10553,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 18400-2025</t>
+          <t>A 47902-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45762.59549768519</v>
+        <v>45204.49861111111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10618,7 +10573,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10655,14 +10610,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 37491-2021</t>
+          <t>A 26702-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44399.29892361111</v>
+        <v>45093</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10675,7 +10630,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10712,14 +10667,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 5373-2024</t>
+          <t>A 41008-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45331</v>
+        <v>45559</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10732,7 +10687,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10769,14 +10724,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 39875-2024</t>
+          <t>A 64615-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45553</v>
+        <v>45281.52231481481</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10788,13 +10743,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10831,14 +10781,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 39878-2024</t>
+          <t>A 16914-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45553</v>
+        <v>44676.43390046297</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10850,13 +10800,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10893,14 +10838,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 12140-2023</t>
+          <t>A 61584-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44998.46677083334</v>
+        <v>46002.34265046296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10913,7 +10858,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10950,14 +10895,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 20787-2022</t>
+          <t>A 61581-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44701</v>
+        <v>46002.33817129629</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10970,7 +10915,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11007,14 +10952,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 19178-2025</t>
+          <t>A 10617-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45769</v>
+        <v>44624</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +10972,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.6</v>
+        <v>7.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11064,14 +11009,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 56282-2023</t>
+          <t>A 40240-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45241.82328703703</v>
+        <v>45554.61458333334</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11084,7 +11029,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11121,14 +11066,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 14702-2023</t>
+          <t>A 62939-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45014</v>
+        <v>46009.4262037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11140,8 +11085,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>12.1</v>
+        <v>6.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11178,14 +11128,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 4468-2022</t>
+          <t>A 62961-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44589</v>
+        <v>46009.45863425926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11197,8 +11147,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11235,14 +11190,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 14169-2025</t>
+          <t>A 62978-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45740.51894675926</v>
+        <v>46009.47902777778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11254,8 +11209,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11292,14 +11252,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 33907-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45068</v>
+        <v>45523.37623842592</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11312,7 +11272,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11349,14 +11309,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 33910-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45068</v>
+        <v>45523.38473379629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11369,7 +11329,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11406,14 +11366,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3602-2023</t>
+          <t>A 41233-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44950.58821759259</v>
+        <v>45559</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11426,7 +11386,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11463,14 +11423,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 37564-2024</t>
+          <t>A 36516-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45541.44607638889</v>
+        <v>45153</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11482,8 +11442,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>11.1</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11520,14 +11485,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 11289-2023</t>
+          <t>A 2038-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44992</v>
+        <v>45672.49553240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11539,13 +11504,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11582,14 +11542,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 28620-2023</t>
+          <t>A 1157-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45103.5975462963</v>
+        <v>45666.75922453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11562,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11639,14 +11599,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 54227-2024</t>
+          <t>A 31113-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45616</v>
+        <v>45113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11619,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11696,14 +11656,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 5313-2024</t>
+          <t>A 6223-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45331.39503472222</v>
+        <v>46055.44097222222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11716,7 +11676,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>8.699999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11753,14 +11713,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 41692-2025</t>
+          <t>A 20787-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45902.4041087963</v>
+        <v>44701</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11773,7 +11733,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11810,14 +11770,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6140-2025</t>
+          <t>A 11289-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45698.3849537037</v>
+        <v>44992</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11829,8 +11789,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11867,14 +11832,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 42197-2025</t>
+          <t>A 22137-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45904.48486111111</v>
+        <v>44712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11887,7 +11852,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11924,14 +11889,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 42295-2025</t>
+          <t>A 54227-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45904.63057870371</v>
+        <v>45616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11944,7 +11909,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11981,14 +11946,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 10273-2023</t>
+          <t>A 39872-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44986</v>
+        <v>45553</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12000,8 +11965,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>12.8</v>
+        <v>1.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12038,14 +12008,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 43621-2025</t>
+          <t>A 18645-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45911.681875</v>
+        <v>45043</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12058,7 +12028,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12095,14 +12065,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 50405-2024</t>
+          <t>A 29444-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45601.35753472222</v>
+        <v>45483.86464120371</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12115,7 +12085,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12152,14 +12122,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 28824-2024</t>
+          <t>A 10746-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45478</v>
+        <v>44988</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12177,7 +12147,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12214,14 +12184,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 41350-2023</t>
+          <t>A 39873-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45174</v>
+        <v>45553</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12235,11 +12205,11 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>8.800000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12272,18 +12242,38 @@
         <v>0</v>
       </c>
       <c r="R191" s="2" t="inlineStr"/>
+      <c r="U191">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="V191">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="W191">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="X191">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="Y191">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 2039-2025</t>
+          <t>A 4468-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45672</v>
+        <v>44589</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12296,7 +12286,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12333,14 +12323,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 61314-2024</t>
+          <t>A 36444-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45646.31635416667</v>
+        <v>44804.38798611111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12353,7 +12343,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12390,14 +12380,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 46810-2025</t>
+          <t>A 22198-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45926.69480324074</v>
+        <v>45069.78799768518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12410,7 +12400,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12447,14 +12437,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 46809-2025</t>
+          <t>A 38955-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45926.69324074074</v>
+        <v>45163</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12467,7 +12457,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12504,14 +12494,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 61470-2024</t>
+          <t>A 18400-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45646</v>
+        <v>45762.59549768519</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12524,7 +12514,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12561,14 +12551,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62160-2024</t>
+          <t>A 11287-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45656.80090277778</v>
+        <v>45726.42666666667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12580,8 +12570,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12618,14 +12613,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 50104-2024</t>
+          <t>A 20344-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45600.40037037037</v>
+        <v>45056</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12638,7 +12633,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12675,14 +12670,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 33334-2023</t>
+          <t>A 39875-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45128.33488425926</v>
+        <v>45553</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12694,8 +12689,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12732,14 +12732,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 1574-2025</t>
+          <t>A 39878-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45670.55908564815</v>
+        <v>45553</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12753,11 +12753,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>9.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12794,14 +12794,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 55727-2024</t>
+          <t>A 61314-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45622.90070601852</v>
+        <v>45646.31635416667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12851,14 +12851,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 10274-2023</t>
+          <t>A 5559-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44986</v>
+        <v>45334</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12908,14 +12908,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 58548-2024</t>
+          <t>A 48268-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45635.45878472222</v>
+        <v>44449.66981481481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>6.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12965,14 +12965,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 24055-2025</t>
+          <t>A 3643-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45796</v>
+        <v>44950.69260416667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13022,14 +13022,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 53407-2025</t>
+          <t>A 28824-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45959.57350694444</v>
+        <v>45478</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13041,8 +13041,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13079,14 +13084,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 54804-2025</t>
+          <t>A 50405-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45966.64116898148</v>
+        <v>45601.35753472222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13099,7 +13104,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13136,14 +13141,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 54770-2025</t>
+          <t>A 4470-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45966.60803240741</v>
+        <v>44589</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13156,7 +13161,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13193,14 +13198,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 55033-2025</t>
+          <t>A 28579-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45967</v>
+        <v>44748</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13213,7 +13218,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13250,14 +13255,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 55842-2025</t>
+          <t>A 30802-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45973.29060185186</v>
+        <v>45112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13275,7 +13280,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13312,14 +13317,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 58428-2025</t>
+          <t>A 37564-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45985.60064814815</v>
+        <v>45541.44607638889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13332,7 +13337,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.4</v>
+        <v>11.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13369,14 +13374,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1217-2026</t>
+          <t>A 39867-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46031.39998842592</v>
+        <v>45553.46100694445</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13388,8 +13393,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>12</v>
+        <v>4.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13426,14 +13436,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 61584-2025</t>
+          <t>A 30603-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46002.34265046296</v>
+        <v>44365.28403935185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13446,7 +13456,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13483,14 +13493,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 61581-2025</t>
+          <t>A 61470-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46002.33817129629</v>
+        <v>45646</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13503,7 +13513,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13540,14 +13550,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 62978-2025</t>
+          <t>A 1574-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46009.47902777778</v>
+        <v>45670.55908564815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13565,7 +13575,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13602,14 +13612,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 41233-2024</t>
+          <t>A 62160-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45559</v>
+        <v>45656.80090277778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13622,7 +13632,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13659,14 +13669,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 62939-2025</t>
+          <t>A 50104-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46009.4262037037</v>
+        <v>45600.40037037037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13678,13 +13688,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13721,14 +13726,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 62961-2025</t>
+          <t>A 33334-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46009.45863425926</v>
+        <v>45128.33488425926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13740,13 +13745,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13783,14 +13783,14 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 6223-2026</t>
+          <t>A 55727-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46055.44097222222</v>
+        <v>45622.90070601852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45566</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,14 +759,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 62297-2025</t>
+          <t>A 35099-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46006.64673611111</v>
+        <v>45852.5584375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -818,131 +818,131 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62297-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46006.64673611111</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Tretåig hackspett
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 35099-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45852.5584375</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
         <v/>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>45373.57708333333</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>44806</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45517</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45721.39129629629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45447.5825462963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45727.46729166667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1501,14 +1501,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 30722-2023</t>
+          <t>A 44857-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45112</v>
+        <v>45918.45165509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,23 +1520,18 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>21.2</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1550,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1560,49 +1555,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 19176-2025</t>
+          <t>A 41241-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45769</v>
+        <v>45559</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1615,10 +1606,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1649,49 +1640,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rökfingersvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 44857-2025</t>
+          <t>A 30722-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45918.45165509259</v>
+        <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,17 +1690,22 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>21.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1728,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1738,45 +1730,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 9690-2024</t>
+          <t>A 19176-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45362</v>
+        <v>45769</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1789,7 +1785,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1827,31 +1823,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
         <v/>
       </c>
     </row>
@@ -1865,7 +1861,7 @@
         <v>45985.60377314815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1943,14 +1939,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 290-2025</t>
+          <t>A 9690-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45656</v>
+        <v>45362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,17 +1959,17 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -1987,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1997,45 +1993,49 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41241-2024</t>
+          <t>A 290-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45559</v>
+        <v>45656</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,16 +2048,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2082,31 +2082,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Rökfingersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
         <v/>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         <v>45368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45478.65488425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44746</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45305</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44722.36616898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44510.55405092592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3140,14 +3140,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 50407-2022</t>
+          <t>A 66778-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44861</v>
+        <v>44519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3197,14 +3197,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 66778-2021</t>
+          <t>A 41967-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44519</v>
+        <v>44830</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3216,8 +3216,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3254,14 +3259,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 41967-2022</t>
+          <t>A 63567-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44830</v>
+        <v>44508</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3273,13 +3278,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3316,14 +3316,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63567-2021</t>
+          <t>A 50407-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44508</v>
+        <v>44861</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44830</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4062,14 +4062,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 5043-2022</t>
+          <t>A 45105-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44593</v>
+        <v>44843</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4119,14 +4119,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45105-2022</t>
+          <t>A 5043-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44843</v>
+        <v>44593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4352,14 +4352,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40696-2022</t>
+          <t>A 4467-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44824</v>
+        <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4409,14 +4409,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 4467-2022</t>
+          <t>A 40696-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44589</v>
+        <v>44824</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>44916.47408564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4523,14 +4523,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 1607-2023</t>
+          <t>A 11676-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44937</v>
+        <v>45373.57236111111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4580,14 +4580,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11676-2024</t>
+          <t>A 1607-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45373.57236111111</v>
+        <v>44937</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>44479.61296296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44399.29892361111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4751,14 +4751,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26763-2023</t>
+          <t>A 34885-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45093.46813657408</v>
+        <v>44796.51725694445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4808,14 +4808,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34885-2022</t>
+          <t>A 53910-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44796.51725694445</v>
+        <v>45231.55751157407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>45540.68736111111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4922,14 +4922,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39871-2024</t>
+          <t>A 20800-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45553</v>
+        <v>45438</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4941,13 +4941,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4984,14 +4979,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20800-2024</t>
+          <t>A 26763-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45438</v>
+        <v>45093.46813657408</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5004,7 +4999,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5041,14 +5036,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 53910-2023</t>
+          <t>A 50104-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45231.55751157407</v>
+        <v>45600.40037037037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5061,7 +5056,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5098,14 +5093,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 12961-2023</t>
+          <t>A 39871-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45001.80307870371</v>
+        <v>45553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5117,8 +5112,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5155,14 +5155,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18382-2023</t>
+          <t>A 12961-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45042.27751157407</v>
+        <v>45001.80307870371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5212,14 +5212,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10274-2023</t>
+          <t>A 33334-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44986</v>
+        <v>45128.33488425926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5269,14 +5269,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2175-2024</t>
+          <t>A 55727-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45309</v>
+        <v>45622.90070601852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5326,14 +5326,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58548-2024</t>
+          <t>A 18382-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45635.45878472222</v>
+        <v>45042.27751157407</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5383,14 +5383,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24055-2025</t>
+          <t>A 10274-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45796</v>
+        <v>44986</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5440,14 +5440,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 33963-2023</t>
+          <t>A 61584-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45134.62525462963</v>
+        <v>46002.34265046296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5497,14 +5497,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 46398-2021</t>
+          <t>A 58548-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44443.77010416667</v>
+        <v>45635.45878472222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>6.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5554,14 +5554,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38922-2023</t>
+          <t>A 24055-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45163.57961805556</v>
+        <v>45796</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5611,14 +5611,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28620-2023</t>
+          <t>A 2175-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45103.5975462963</v>
+        <v>45309</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5668,14 +5668,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18274-2024</t>
+          <t>A 33963-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45421.70460648148</v>
+        <v>45134.62525462963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5725,14 +5725,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37598-2024</t>
+          <t>A 46398-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45541.47604166667</v>
+        <v>44443.77010416667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5782,14 +5782,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 12596-2025</t>
+          <t>A 38922-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45733.28476851852</v>
+        <v>45163.57961805556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5839,14 +5839,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26863-2025</t>
+          <t>A 5313-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45810.69763888889</v>
+        <v>45331.39503472222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5896,14 +5896,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12516-2025</t>
+          <t>A 61581-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45730.65107638889</v>
+        <v>46002.33817129629</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5915,13 +5915,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>4.8</v>
+        <v>6.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5958,14 +5953,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 56282-2023</t>
+          <t>A 28620-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45241.82328703703</v>
+        <v>45103.5975462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5978,7 +5973,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6.8</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6015,14 +6010,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 44650-2024</t>
+          <t>A 18274-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45574</v>
+        <v>45421.70460648148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6035,7 +6030,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>8</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6072,14 +6067,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29773-2025</t>
+          <t>A 26863-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45825.63271990741</v>
+        <v>45810.69763888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6092,7 +6087,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6129,14 +6124,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 37042-2024</t>
+          <t>A 37598-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45539</v>
+        <v>45541.47604166667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6149,7 +6144,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6186,14 +6181,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5313-2024</t>
+          <t>A 41692-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45331.39503472222</v>
+        <v>45902.4041087963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6206,7 +6201,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6243,14 +6238,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7202-2023</t>
+          <t>A 42197-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44965</v>
+        <v>45904.48486111111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6263,7 +6258,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6300,14 +6295,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 19044-2023</t>
+          <t>A 42295-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45047</v>
+        <v>45904.63057870371</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6320,7 +6315,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6357,14 +6352,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 19045-2023</t>
+          <t>A 12596-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45047</v>
+        <v>45733.28476851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6377,7 +6372,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6414,14 +6409,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 33204-2025</t>
+          <t>A 29773-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45840.61181712963</v>
+        <v>45825.63271990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6471,14 +6466,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10273-2023</t>
+          <t>A 43621-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44986</v>
+        <v>45911.681875</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6491,7 +6486,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>12.8</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6528,14 +6523,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 19178-2025</t>
+          <t>A 12516-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45769</v>
+        <v>45730.65107638889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6547,8 +6542,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6585,14 +6585,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 26121-2023</t>
+          <t>A 56282-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45091.44384259259</v>
+        <v>45241.82328703703</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>6.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6642,14 +6642,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 6101-2024</t>
+          <t>A 62939-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45337</v>
+        <v>46009.4262037037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6661,8 +6661,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6699,14 +6704,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41692-2025</t>
+          <t>A 62961-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45902.4041087963</v>
+        <v>46009.45863425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6718,8 +6723,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6756,14 +6766,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27638-2025</t>
+          <t>A 44650-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45813</v>
+        <v>45574</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6786,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6813,14 +6823,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 12616-2025</t>
+          <t>A 37042-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45733</v>
+        <v>45539</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6843,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6870,14 +6880,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42197-2025</t>
+          <t>A 62978-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45904.48486111111</v>
+        <v>46009.47902777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6889,8 +6899,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6927,14 +6942,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2039-2025</t>
+          <t>A 41233-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45672</v>
+        <v>45559</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6962,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6984,14 +6999,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42295-2025</t>
+          <t>A 7202-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45904.63057870371</v>
+        <v>44965</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7019,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7041,14 +7056,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 33204-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45068</v>
+        <v>45840.61181712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7076,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7098,14 +7113,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 19044-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45068</v>
+        <v>45047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7155,14 +7170,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 9769-2025</t>
+          <t>A 46809-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45716.48861111111</v>
+        <v>45926.69324074074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7190,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7212,14 +7227,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1599-2025</t>
+          <t>A 46810-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45670.58930555556</v>
+        <v>45926.69480324074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7231,13 +7246,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>18.8</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7274,14 +7284,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44343-2022</t>
+          <t>A 19045-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44839.67604166667</v>
+        <v>45047</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7304,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7331,14 +7341,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 11794-2023</t>
+          <t>A 10273-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44994</v>
+        <v>44986</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7361,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>7.6</v>
+        <v>12.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7388,14 +7398,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 11289-2025</t>
+          <t>A 27638-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45726.42762731481</v>
+        <v>45813</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,13 +7417,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7450,14 +7455,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40329-2024</t>
+          <t>A 12616-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45555</v>
+        <v>45733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7507,14 +7512,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 27947-2023</t>
+          <t>A 19178-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45098.66921296297</v>
+        <v>45769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7532,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7564,14 +7569,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 33336-2023</t>
+          <t>A 26121-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45128.33729166666</v>
+        <v>45091.44384259259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7589,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7621,14 +7626,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33337-2023</t>
+          <t>A 6101-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45128.3400925926</v>
+        <v>45337</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7646,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7678,14 +7683,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 43621-2025</t>
+          <t>A 2039-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45911.681875</v>
+        <v>45672</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7703,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7735,14 +7740,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 37898-2025</t>
+          <t>A 6223-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45881.55846064815</v>
+        <v>46055.44097222222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7760,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7792,14 +7797,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58935-2023</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45250</v>
+        <v>45068</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7817,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7849,14 +7854,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 38297-2025</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45883.45506944445</v>
+        <v>45068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7874,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7906,14 +7911,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 62841-2023</t>
+          <t>A 37898-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45270</v>
+        <v>45881.55846064815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7963,14 +7968,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 14169-2025</t>
+          <t>A 38297-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45740.51894675926</v>
+        <v>45883.45506944445</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7988,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8020,14 +8025,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58020-2021</t>
+          <t>A 9769-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44484</v>
+        <v>45716.48861111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8040,7 +8045,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8077,14 +8082,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 51659-2021</t>
+          <t>A 1599-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44462</v>
+        <v>45670.58930555556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8096,8 +8101,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>3.1</v>
+        <v>18.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8134,14 +8144,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 41551-2024</t>
+          <t>A 44343-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45560</v>
+        <v>44839.67604166667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8154,7 +8164,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8191,14 +8201,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6843-2024</t>
+          <t>A 11794-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45342.62711805556</v>
+        <v>44994</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8211,7 +8221,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.4</v>
+        <v>7.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8248,14 +8258,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 6140-2025</t>
+          <t>A 14169-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45698.3849537037</v>
+        <v>45740.51894675926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8268,7 +8278,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8305,14 +8315,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46809-2025</t>
+          <t>A 11289-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45926.69324074074</v>
+        <v>45726.42762731481</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8324,8 +8334,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8362,14 +8377,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46810-2025</t>
+          <t>A 53407-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45926.69480324074</v>
+        <v>45959.57350694444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8382,7 +8397,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8419,14 +8434,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 12140-2023</t>
+          <t>A 40329-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44998.46677083334</v>
+        <v>45555</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8439,7 +8454,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8476,14 +8491,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 22323-2023</t>
+          <t>A 27947-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45068</v>
+        <v>45098.66921296297</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8496,7 +8511,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8533,14 +8548,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41350-2023</t>
+          <t>A 33336-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45174</v>
+        <v>45128.33729166666</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8552,13 +8567,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>8.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8595,14 +8605,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46877-2022</t>
+          <t>A 33337-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44848</v>
+        <v>45128.3400925926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8625,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8652,14 +8662,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 54959-2023</t>
+          <t>A 58935-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45236</v>
+        <v>45250</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8682,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8709,14 +8719,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 13757-2025</t>
+          <t>A 54770-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45737.41730324074</v>
+        <v>45966.60803240741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8728,13 +8738,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>12.8</v>
+        <v>4.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8771,14 +8776,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 10787-2023</t>
+          <t>A 55033-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44989</v>
+        <v>45967</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8791,7 +8796,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8828,14 +8833,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 10791-2023</t>
+          <t>A 54804-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44989</v>
+        <v>45966.64116898148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8853,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8885,14 +8890,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 10467-2025</t>
+          <t>A 62841-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45720.83359953704</v>
+        <v>45270</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8910,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8942,14 +8947,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3602-2023</t>
+          <t>A 55842-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44950.58821759259</v>
+        <v>45973.29060185186</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8961,8 +8966,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8999,14 +9009,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 12963-2023</t>
+          <t>A 58020-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45001</v>
+        <v>44484</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9029,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9056,14 +9066,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 14734-2024</t>
+          <t>A 51659-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45397.5890625</v>
+        <v>44462</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9086,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9113,14 +9123,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 30754-2022</t>
+          <t>A 41551-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44764</v>
+        <v>45560</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9143,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>9.300000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9170,14 +9180,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 53407-2025</t>
+          <t>A 6843-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45959.57350694444</v>
+        <v>45342.62711805556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9200,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9227,14 +9237,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61733-2024</t>
+          <t>A 58428-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45649.34486111111</v>
+        <v>45985.60064814815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9257,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9284,14 +9294,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 14353-2024</t>
+          <t>A 6140-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45393.83645833333</v>
+        <v>45698.3849537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9314,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9341,14 +9351,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54770-2025</t>
+          <t>A 12140-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45966.60803240741</v>
+        <v>44998.46677083334</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9371,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9398,14 +9408,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 55033-2025</t>
+          <t>A 22323-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45967</v>
+        <v>45068</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9428,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9455,14 +9465,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54804-2025</t>
+          <t>A 41350-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45966.64116898148</v>
+        <v>45174</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9474,8 +9484,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9512,14 +9527,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 5373-2024</t>
+          <t>A 1217-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45331</v>
+        <v>46031.39998842592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9547,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.8</v>
+        <v>12</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9569,14 +9584,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 55842-2025</t>
+          <t>A 46877-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45973.29060185186</v>
+        <v>44848</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9588,13 +9603,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9631,14 +9641,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 15597-2025</t>
+          <t>A 54959-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45747.9108449074</v>
+        <v>45236</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9651,7 +9661,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9688,14 +9698,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 59036-2021</t>
+          <t>A 13757-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44490</v>
+        <v>45737.41730324074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,11 +9719,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>25.2</v>
+        <v>12.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9750,14 +9760,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 30747-2023</t>
+          <t>A 10787-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45112</v>
+        <v>44989</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9769,13 +9779,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9812,14 +9817,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 14702-2023</t>
+          <t>A 10791-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45014</v>
+        <v>44989</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9837,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>12.1</v>
+        <v>2.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9869,14 +9874,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58428-2025</t>
+          <t>A 10467-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45985.60064814815</v>
+        <v>45720.83359953704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9894,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9926,14 +9931,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 61644-2023</t>
+          <t>A 3602-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45263</v>
+        <v>44950.58821759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9951,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9983,14 +9988,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 18272-2024</t>
+          <t>A 12963-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45421.69873842593</v>
+        <v>45001</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10008,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10040,14 +10045,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47906-2023</t>
+          <t>A 14734-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45204</v>
+        <v>45397.5890625</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10097,14 +10102,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1217-2026</t>
+          <t>A 30754-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46031.39998842592</v>
+        <v>44764</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10117,7 +10122,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>12</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10154,14 +10159,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14176-2025</t>
+          <t>A 61733-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45740.52974537037</v>
+        <v>45649.34486111111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10174,7 +10179,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10211,14 +10216,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 24913-2023</t>
+          <t>A 14353-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45085.49424768519</v>
+        <v>45393.83645833333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10231,7 +10236,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10268,14 +10273,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 21042-2023</t>
+          <t>A 5373-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45056</v>
+        <v>45331</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10288,7 +10293,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10325,14 +10330,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56635-2022</t>
+          <t>A 15597-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44893</v>
+        <v>45747.9108449074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10345,7 +10350,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10382,14 +10387,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 33262-2023</t>
+          <t>A 59036-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45127.56380787037</v>
+        <v>44490</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10401,8 +10406,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>0.4</v>
+        <v>25.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10439,14 +10449,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33259-2023</t>
+          <t>A 30747-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45127.56025462963</v>
+        <v>45112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10458,8 +10468,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10496,14 +10511,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 11383-2023</t>
+          <t>A 14702-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44993.45693287037</v>
+        <v>45014</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10516,7 +10531,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.4</v>
+        <v>12.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10553,14 +10568,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 47902-2023</t>
+          <t>A 61644-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45204.49861111111</v>
+        <v>45263</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10573,7 +10588,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10610,14 +10625,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 26702-2023</t>
+          <t>A 18272-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45093</v>
+        <v>45421.69873842593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10630,7 +10645,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10667,14 +10682,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 41008-2024</t>
+          <t>A 47906-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45559</v>
+        <v>45204</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10687,7 +10702,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10724,14 +10739,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 64615-2023</t>
+          <t>A 14176-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45281.52231481481</v>
+        <v>45740.52974537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10744,7 +10759,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10781,14 +10796,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 16914-2022</t>
+          <t>A 24913-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44676.43390046297</v>
+        <v>45085.49424768519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10801,7 +10816,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10838,14 +10853,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 61584-2025</t>
+          <t>A 21042-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46002.34265046296</v>
+        <v>45056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10858,7 +10873,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10895,14 +10910,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 61581-2025</t>
+          <t>A 56635-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46002.33817129629</v>
+        <v>44893</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10915,7 +10930,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>6.9</v>
+        <v>3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10952,14 +10967,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 10617-2022</t>
+          <t>A 33262-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44624</v>
+        <v>45127.56380787037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10972,7 +10987,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7.9</v>
+        <v>0.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11009,14 +11024,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 40240-2024</t>
+          <t>A 33259-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45554.61458333334</v>
+        <v>45127.56025462963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11044,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11066,14 +11081,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62939-2025</t>
+          <t>A 11383-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46009.4262037037</v>
+        <v>44993.45693287037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11085,13 +11100,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>6.8</v>
+        <v>0.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11128,14 +11138,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 62961-2025</t>
+          <t>A 47902-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46009.45863425926</v>
+        <v>45204.49861111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11147,13 +11157,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11190,14 +11195,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 62978-2025</t>
+          <t>A 26702-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46009.47902777778</v>
+        <v>45093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11209,13 +11214,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11252,14 +11252,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 33907-2024</t>
+          <t>A 41008-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45523.37623842592</v>
+        <v>45559</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11309,14 +11309,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 33910-2024</t>
+          <t>A 64615-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45523.38473379629</v>
+        <v>45281.52231481481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11366,14 +11366,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 41233-2024</t>
+          <t>A 16914-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45559</v>
+        <v>44676.43390046297</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11423,14 +11423,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 36516-2023</t>
+          <t>A 10617-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45153</v>
+        <v>44624</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,13 +11442,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>7.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11485,14 +11480,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 2038-2025</t>
+          <t>A 40240-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45672.49553240741</v>
+        <v>45554.61458333334</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11505,7 +11500,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11542,14 +11537,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 1157-2025</t>
+          <t>A 33907-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45666.75922453704</v>
+        <v>45523.37623842592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11562,7 +11557,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11599,14 +11594,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 31113-2023</t>
+          <t>A 33910-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45113</v>
+        <v>45523.38473379629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11619,7 +11614,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11656,14 +11651,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6223-2026</t>
+          <t>A 36516-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46055.44097222222</v>
+        <v>45153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11675,8 +11670,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11713,14 +11713,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 20787-2022</t>
+          <t>A 2038-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44701</v>
+        <v>45672.49553240741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11770,14 +11770,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 11289-2023</t>
+          <t>A 1157-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44992</v>
+        <v>45666.75922453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11789,13 +11789,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11832,14 +11827,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 22137-2022</t>
+          <t>A 31113-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44712</v>
+        <v>45113</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11852,7 +11847,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11889,14 +11884,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 54227-2024</t>
+          <t>A 20787-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45616</v>
+        <v>44701</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11909,7 +11904,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11946,14 +11941,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 39872-2024</t>
+          <t>A 11289-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45553</v>
+        <v>44992</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11971,7 +11966,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12008,14 +12003,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 18645-2023</t>
+          <t>A 22137-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45043</v>
+        <v>44712</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12028,7 +12023,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12065,14 +12060,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 29444-2024</t>
+          <t>A 54227-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45483.86464120371</v>
+        <v>45616</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12085,7 +12080,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12122,14 +12117,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 10746-2023</t>
+          <t>A 39872-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44988</v>
+        <v>45553</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12147,7 +12142,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12184,14 +12179,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 39873-2024</t>
+          <t>A 18645-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45553</v>
+        <v>45043</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12203,13 +12198,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12242,38 +12232,18 @@
         <v>0</v>
       </c>
       <c r="R191" s="2" t="inlineStr"/>
-      <c r="U191">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="V191">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="W191">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="X191">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="Y191">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 4468-2022</t>
+          <t>A 29444-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44589</v>
+        <v>45483.86464120371</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12286,7 +12256,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12323,14 +12293,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 36444-2022</t>
+          <t>A 10746-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44804.38798611111</v>
+        <v>44988</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12342,8 +12312,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12380,14 +12355,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 22198-2023</t>
+          <t>A 39873-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45069.78799768518</v>
+        <v>45553</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12399,8 +12374,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12433,18 +12413,38 @@
         <v>0</v>
       </c>
       <c r="R194" s="2" t="inlineStr"/>
+      <c r="U194">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="V194">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="W194">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="X194">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="Y194">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 38955-2023</t>
+          <t>A 4468-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45163</v>
+        <v>44589</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12494,14 +12494,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 18400-2025</t>
+          <t>A 36444-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45762.59549768519</v>
+        <v>44804.38798611111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12551,14 +12551,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 11287-2025</t>
+          <t>A 22198-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45726.42666666667</v>
+        <v>45069.78799768518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12570,13 +12570,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12613,14 +12608,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 20344-2023</t>
+          <t>A 38955-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45056</v>
+        <v>45163</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12633,7 +12628,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12670,14 +12665,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 39875-2024</t>
+          <t>A 18400-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45553</v>
+        <v>45762.59549768519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12689,13 +12684,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12732,14 +12722,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 39878-2024</t>
+          <t>A 11287-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45553</v>
+        <v>45726.42666666667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12757,7 +12747,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12794,14 +12784,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 61314-2024</t>
+          <t>A 20344-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45646.31635416667</v>
+        <v>45056</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12814,7 +12804,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12851,14 +12841,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 5559-2024</t>
+          <t>A 39875-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45334</v>
+        <v>45553</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12870,8 +12860,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12908,14 +12903,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 48268-2021</t>
+          <t>A 39878-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44449.66981481481</v>
+        <v>45553</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12927,8 +12922,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>9.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12965,14 +12965,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 3643-2023</t>
+          <t>A 61314-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44950.69260416667</v>
+        <v>45646.31635416667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13022,14 +13022,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 28824-2024</t>
+          <t>A 5559-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45478</v>
+        <v>45334</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13041,13 +13041,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13084,14 +13079,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 50405-2024</t>
+          <t>A 48268-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45601.35753472222</v>
+        <v>44449.66981481481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13104,7 +13099,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13141,14 +13136,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 4470-2022</t>
+          <t>A 3643-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44589</v>
+        <v>44950.69260416667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13161,7 +13156,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13198,14 +13193,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 28579-2022</t>
+          <t>A 28824-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44748</v>
+        <v>45478</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13217,8 +13212,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13255,14 +13255,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 30802-2023</t>
+          <t>A 50405-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45112</v>
+        <v>45601.35753472222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13274,13 +13274,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13317,14 +13312,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 37564-2024</t>
+          <t>A 4470-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45541.44607638889</v>
+        <v>44589</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13337,7 +13332,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>11.1</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13374,14 +13369,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 39867-2024</t>
+          <t>A 28579-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45553.46100694445</v>
+        <v>44748</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13393,13 +13388,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13436,14 +13426,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 30603-2021</t>
+          <t>A 30802-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44365.28403935185</v>
+        <v>45112</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13455,8 +13445,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13493,14 +13488,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 61470-2024</t>
+          <t>A 37564-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45646</v>
+        <v>45541.44607638889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13513,7 +13508,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5</v>
+        <v>11.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13550,14 +13545,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1574-2025</t>
+          <t>A 39867-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45670.55908564815</v>
+        <v>45553.46100694445</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13571,11 +13566,11 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>9.699999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13612,14 +13607,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 62160-2024</t>
+          <t>A 30603-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45656.80090277778</v>
+        <v>44365.28403935185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13632,7 +13627,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13669,14 +13664,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 50104-2024</t>
+          <t>A 61470-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45600.40037037037</v>
+        <v>45646</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13689,7 +13684,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13726,14 +13721,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 33334-2023</t>
+          <t>A 1574-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45128.33488425926</v>
+        <v>45670.55908564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13745,8 +13740,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>1.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13783,14 +13783,14 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 55727-2024</t>
+          <t>A 62160-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45622.90070601852</v>
+        <v>45656.80090277778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45566</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45852.5584375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,14 +854,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 62297-2025</t>
+          <t>A 11678-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>46006.64673611111</v>
+        <v>45373.57708333333</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,14 +875,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -903,141 +903,141 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
         <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Ask
+Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 62297-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>46006.64673611111</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Tretåig hackspett
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 11678-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45373.57708333333</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
         <v/>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>44806</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45517</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1228,14 +1228,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 10507-2025</t>
+          <t>A 22805-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45721.39129629629</v>
+        <v>45789</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,13 +1247,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>10.4</v>
+        <v>7.7</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1262,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1277,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1287,49 +1282,49 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 22580-2024</t>
+          <t>A 10507-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45447.5825462963</v>
+        <v>45721.39129629629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1341,8 +1336,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>7.3</v>
+        <v>10.4</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1376,49 +1376,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 11637-2025</t>
+          <t>A 22580-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45727.46729166667</v>
+        <v>45447.5825462963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,28 +1430,23 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>7.3</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1463,52 +1458,56 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 44857-2025</t>
+          <t>A 11637-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45918.45165509259</v>
+        <v>45727.46729166667</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,8 +1519,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1530,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1548,52 +1552,52 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 41241-2024</t>
+          <t>A 58430-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45559</v>
+        <v>45985.60377314815</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1606,16 +1610,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1630,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1640,45 +1644,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Rökfingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 30722-2023</t>
+          <t>A 44857-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45112</v>
+        <v>45918.45165509259</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1690,23 +1694,18 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>21.2</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1720,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1730,49 +1729,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 19176-2025</t>
+          <t>A 30722-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45769</v>
+        <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,8 +1779,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>4.6</v>
+        <v>21.2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1819,49 +1819,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 58430-2025</t>
+          <t>A 19176-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45985.60377314815</v>
+        <v>45769</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1908,31 +1908,35 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
         <v/>
       </c>
     </row>
@@ -1946,7 +1950,7 @@
         <v>45362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2028,14 +2032,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 290-2025</t>
+          <t>A 41241-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45656</v>
+        <v>45559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,17 +2052,17 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2082,45 +2086,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Rökfingersvamp</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10680-2024</t>
+          <t>A 290-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45368</v>
+        <v>45656</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,13 +2137,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2148,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2157,55 +2161,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28821-2024</t>
+          <t>A 10680-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45478.65488425926</v>
+        <v>45368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2217,29 +2221,24 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
@@ -2247,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 28147-2022</t>
+          <t>A 28821-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44746</v>
+        <v>45478.65488425926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2307,17 +2306,22 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2332,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2342,49 +2346,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 1515-2024</t>
+          <t>A 28147-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45305</v>
+        <v>44746</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2431,49 +2431,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 22805-2025</t>
+          <t>A 1515-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45789</v>
+        <v>45305</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7.7</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2524,31 +2524,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
         <v/>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44722.36616898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44510.55405092592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3197,14 +3197,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 41967-2022</t>
+          <t>A 50407-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44830</v>
+        <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3216,13 +3216,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3259,14 +3254,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 63567-2021</t>
+          <t>A 41967-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44508</v>
+        <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3278,8 +3273,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3316,14 +3316,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50407-2022</t>
+          <t>A 63567-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44861</v>
+        <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44830</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44843</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44824</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44916.47408564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45373.57236111111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4580,14 +4580,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1607-2023</t>
+          <t>A 56267-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44937</v>
+        <v>44479.61296296296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4637,14 +4637,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56267-2021</t>
+          <t>A 1607-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44479.61296296296</v>
+        <v>44937</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>44399.29892361111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4751,14 +4751,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34885-2022</t>
+          <t>A 61470-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44796.51725694445</v>
+        <v>45646</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4808,14 +4808,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53910-2023</t>
+          <t>A 1574-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45231.55751157407</v>
+        <v>45670.55908564815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4827,8 +4827,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>5.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4865,14 +4870,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 37450-2024</t>
+          <t>A 62160-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45540.68736111111</v>
+        <v>45656.80090277778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4885,7 +4890,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4922,14 +4927,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20800-2024</t>
+          <t>A 55842-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45438</v>
+        <v>45973.29060185186</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4941,8 +4946,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4979,14 +4989,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26763-2023</t>
+          <t>A 50104-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45093.46813657408</v>
+        <v>45600.40037037037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5036,14 +5046,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50104-2024</t>
+          <t>A 26763-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45600.40037037037</v>
+        <v>45093.46813657408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5093,14 +5103,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39871-2024</t>
+          <t>A 34885-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45553</v>
+        <v>44796.51725694445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5112,13 +5122,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5155,14 +5160,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12961-2023</t>
+          <t>A 33334-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45001.80307870371</v>
+        <v>45128.33488425926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5175,7 +5180,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5212,14 +5217,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 33334-2023</t>
+          <t>A 55727-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45128.33488425926</v>
+        <v>45622.90070601852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5232,7 +5237,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5269,14 +5274,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55727-2024</t>
+          <t>A 53910-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45622.90070601852</v>
+        <v>45231.55751157407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5289,7 +5294,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5326,14 +5331,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 18382-2023</t>
+          <t>A 37450-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45042.27751157407</v>
+        <v>45540.68736111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5346,7 +5351,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5383,14 +5388,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10274-2023</t>
+          <t>A 20800-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44986</v>
+        <v>45438</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5403,7 +5408,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5440,14 +5445,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 61584-2025</t>
+          <t>A 10274-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46002.34265046296</v>
+        <v>44986</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5465,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5497,14 +5502,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58548-2024</t>
+          <t>A 39871-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45635.45878472222</v>
+        <v>45553</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5516,8 +5521,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5554,14 +5564,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24055-2025</t>
+          <t>A 12961-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45796</v>
+        <v>45001.80307870371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5574,7 +5584,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5611,14 +5621,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2175-2024</t>
+          <t>A 58548-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45309</v>
+        <v>45635.45878472222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5631,7 +5641,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>6.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5668,14 +5678,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 33963-2023</t>
+          <t>A 18382-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45134.62525462963</v>
+        <v>45042.27751157407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5688,7 +5698,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5725,14 +5735,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46398-2021</t>
+          <t>A 24055-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44443.77010416667</v>
+        <v>45796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5745,7 +5755,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5782,14 +5792,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38922-2023</t>
+          <t>A 5313-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45163.57961805556</v>
+        <v>45331.39503472222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5802,7 +5812,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5839,14 +5849,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 5313-2024</t>
+          <t>A 2175-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45331.39503472222</v>
+        <v>45309</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5859,7 +5869,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8.699999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5896,14 +5906,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 61581-2025</t>
+          <t>A 33963-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46002.33817129629</v>
+        <v>45134.62525462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5916,7 +5926,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5953,14 +5963,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28620-2023</t>
+          <t>A 41692-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45103.5975462963</v>
+        <v>45902.4041087963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5983,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6010,14 +6020,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 18274-2024</t>
+          <t>A 46398-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45421.70460648148</v>
+        <v>44443.77010416667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6040,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6067,14 +6077,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26863-2025</t>
+          <t>A 38922-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45810.69763888889</v>
+        <v>45163.57961805556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6097,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6124,14 +6134,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 37598-2024</t>
+          <t>A 42197-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45541.47604166667</v>
+        <v>45904.48486111111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6154,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6181,14 +6191,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41692-2025</t>
+          <t>A 42295-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45902.4041087963</v>
+        <v>45904.63057870371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6211,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6238,14 +6248,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 42197-2025</t>
+          <t>A 26863-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45904.48486111111</v>
+        <v>45810.69763888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6268,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6295,14 +6305,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42295-2025</t>
+          <t>A 28620-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45904.63057870371</v>
+        <v>45103.5975462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6325,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6352,14 +6362,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 12596-2025</t>
+          <t>A 18274-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45733.28476851852</v>
+        <v>45421.70460648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6382,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6409,14 +6419,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29773-2025</t>
+          <t>A 37598-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45825.63271990741</v>
+        <v>45541.47604166667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6439,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6473,7 +6483,7 @@
         <v>45911.681875</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,14 +6533,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12516-2025</t>
+          <t>A 12596-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45730.65107638889</v>
+        <v>45733.28476851852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6542,13 +6552,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6585,14 +6590,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 56282-2023</t>
+          <t>A 29773-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45241.82328703703</v>
+        <v>45825.63271990741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6610,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6642,14 +6647,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62939-2025</t>
+          <t>A 12516-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46009.4262037037</v>
+        <v>45730.65107638889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6667,7 +6672,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6704,14 +6709,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 62961-2025</t>
+          <t>A 56282-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46009.45863425926</v>
+        <v>45241.82328703703</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6723,13 +6728,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>45574</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6823,14 +6823,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 37042-2024</t>
+          <t>A 58428-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45539</v>
+        <v>45985.60064814815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6880,14 +6880,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 62978-2025</t>
+          <t>A 46809-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46009.47902777778</v>
+        <v>45926.69324074074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6899,13 +6899,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6942,14 +6937,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 41233-2024</t>
+          <t>A 46810-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45559</v>
+        <v>45926.69480324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6962,7 +6957,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6999,14 +6994,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7202-2023</t>
+          <t>A 37042-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44965</v>
+        <v>45539</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7019,7 +7014,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7056,14 +7051,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 33204-2025</t>
+          <t>A 7202-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45840.61181712963</v>
+        <v>44965</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7076,7 +7071,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7120,7 +7115,7 @@
         <v>45047</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7170,14 +7165,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46809-2025</t>
+          <t>A 33204-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45926.69324074074</v>
+        <v>45840.61181712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7190,7 +7185,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7227,14 +7222,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46810-2025</t>
+          <t>A 19045-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45926.69480324074</v>
+        <v>45047</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7247,7 +7242,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7284,14 +7279,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 19045-2023</t>
+          <t>A 10273-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7304,7 +7299,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>12.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7341,14 +7336,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 10273-2023</t>
+          <t>A 19178-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44986</v>
+        <v>45769</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7361,7 +7356,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>12.8</v>
+        <v>3.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7398,14 +7393,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27638-2025</t>
+          <t>A 26121-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45813</v>
+        <v>45091.44384259259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7418,7 +7413,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7455,14 +7450,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12616-2025</t>
+          <t>A 27638-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45733</v>
+        <v>45813</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7475,7 +7470,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7512,14 +7507,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 19178-2025</t>
+          <t>A 12616-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45769</v>
+        <v>45733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7532,7 +7527,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7569,14 +7564,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26121-2023</t>
+          <t>A 6101-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45091.44384259259</v>
+        <v>45337</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7589,7 +7584,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7626,14 +7621,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 6101-2024</t>
+          <t>A 2039-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45337</v>
+        <v>45672</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7646,7 +7641,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7683,14 +7678,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 2039-2025</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45672</v>
+        <v>45068</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7703,7 +7698,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7740,14 +7735,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 6223-2026</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46055.44097222222</v>
+        <v>45068</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7760,7 +7755,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.5</v>
+        <v>0.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7797,14 +7792,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 53407-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45068</v>
+        <v>45959.57350694444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7817,7 +7812,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7854,14 +7849,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 9769-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45068</v>
+        <v>45716.48861111111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7874,7 +7869,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7911,14 +7906,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 37898-2025</t>
+          <t>A 1599-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45881.55846064815</v>
+        <v>45670.58930555556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,8 +7925,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>3.3</v>
+        <v>18.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7968,14 +7968,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 38297-2025</t>
+          <t>A 44343-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45883.45506944445</v>
+        <v>44839.67604166667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8025,14 +8025,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 9769-2025</t>
+          <t>A 11794-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45716.48861111111</v>
+        <v>44994</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8082,14 +8082,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 1599-2025</t>
+          <t>A 11289-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45670.58930555556</v>
+        <v>45726.42762731481</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8103,11 +8103,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>18.8</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8144,14 +8144,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44343-2022</t>
+          <t>A 1217-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44839.67604166667</v>
+        <v>46031.39998842592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8201,14 +8201,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 11794-2023</t>
+          <t>A 40329-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44994</v>
+        <v>45555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8258,14 +8258,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 14169-2025</t>
+          <t>A 27947-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45740.51894675926</v>
+        <v>45098.66921296297</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8315,14 +8315,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 11289-2025</t>
+          <t>A 33336-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45726.42762731481</v>
+        <v>45128.33729166666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,13 +8334,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8377,14 +8372,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 53407-2025</t>
+          <t>A 33337-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45959.57350694444</v>
+        <v>45128.3400925926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8397,7 +8392,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8434,14 +8429,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40329-2024</t>
+          <t>A 37898-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45555</v>
+        <v>45881.55846064815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8454,7 +8449,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8491,14 +8486,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27947-2023</t>
+          <t>A 54770-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45098.66921296297</v>
+        <v>45966.60803240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8511,7 +8506,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8548,14 +8543,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 33336-2023</t>
+          <t>A 55033-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45128.33729166666</v>
+        <v>45967</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8568,7 +8563,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8605,14 +8600,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 33337-2023</t>
+          <t>A 54804-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45128.3400925926</v>
+        <v>45966.64116898148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8625,7 +8620,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8662,14 +8657,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 58935-2023</t>
+          <t>A 38297-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45250</v>
+        <v>45883.45506944445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8719,14 +8714,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 54770-2025</t>
+          <t>A 58935-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45966.60803240741</v>
+        <v>45250</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8734,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8776,14 +8771,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 55033-2025</t>
+          <t>A 62841-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45967</v>
+        <v>45270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8791,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8833,14 +8828,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 54804-2025</t>
+          <t>A 14169-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45966.64116898148</v>
+        <v>45740.51894675926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8853,7 +8848,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8890,14 +8885,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 62841-2023</t>
+          <t>A 58020-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45270</v>
+        <v>44484</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8910,7 +8905,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8947,14 +8942,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55842-2025</t>
+          <t>A 51659-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45973.29060185186</v>
+        <v>44462</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8966,13 +8961,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9009,14 +8999,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58020-2021</t>
+          <t>A 41551-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44484</v>
+        <v>45560</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9029,7 +9019,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9066,14 +9056,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 51659-2021</t>
+          <t>A 6843-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44462</v>
+        <v>45342.62711805556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9086,7 +9076,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9123,14 +9113,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41551-2024</t>
+          <t>A 6140-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45560</v>
+        <v>45698.3849537037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9143,7 +9133,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9180,14 +9170,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 6843-2024</t>
+          <t>A 12140-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45342.62711805556</v>
+        <v>44998.46677083334</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9200,7 +9190,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9237,14 +9227,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58428-2025</t>
+          <t>A 22323-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45985.60064814815</v>
+        <v>45068</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9257,7 +9247,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9294,14 +9284,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 6140-2025</t>
+          <t>A 41350-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45698.3849537037</v>
+        <v>45174</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,8 +9303,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9351,14 +9346,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 12140-2023</t>
+          <t>A 61584-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44998.46677083334</v>
+        <v>46002.34265046296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9366,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9408,14 +9403,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 22323-2023</t>
+          <t>A 46877-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45068</v>
+        <v>44848</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9423,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9465,14 +9460,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 41350-2023</t>
+          <t>A 54959-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45174</v>
+        <v>45236</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9484,13 +9479,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>8.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9527,14 +9517,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 1217-2026</t>
+          <t>A 61581-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46031.39998842592</v>
+        <v>46002.33817129629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9537,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>12</v>
+        <v>6.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9584,14 +9574,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46877-2022</t>
+          <t>A 13757-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44848</v>
+        <v>45737.41730324074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9603,8 +9593,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>12.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9641,14 +9636,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 54959-2023</t>
+          <t>A 10787-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45236</v>
+        <v>44989</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9656,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9698,14 +9693,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 13757-2025</t>
+          <t>A 10791-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45737.41730324074</v>
+        <v>44989</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9717,13 +9712,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>12.8</v>
+        <v>2.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9760,14 +9750,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 10787-2023</t>
+          <t>A 10467-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44989</v>
+        <v>45720.83359953704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9780,7 +9770,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9817,14 +9807,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 10791-2023</t>
+          <t>A 62939-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44989</v>
+        <v>46009.4262037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9836,8 +9826,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9874,14 +9869,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10467-2025</t>
+          <t>A 62961-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45720.83359953704</v>
+        <v>46009.45863425926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9893,8 +9888,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9938,7 +9938,7 @@
         <v>44950.58821759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9988,14 +9988,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 12963-2023</t>
+          <t>A 62978-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45001</v>
+        <v>46009.47902777778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10007,8 +10007,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10045,14 +10050,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 14734-2024</t>
+          <t>A 41233-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45397.5890625</v>
+        <v>45559</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10065,7 +10070,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10102,14 +10107,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 30754-2022</t>
+          <t>A 12963-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44764</v>
+        <v>45001</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10127,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>9.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10159,14 +10164,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 61733-2024</t>
+          <t>A 14734-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45649.34486111111</v>
+        <v>45397.5890625</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10179,7 +10184,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10216,14 +10221,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 14353-2024</t>
+          <t>A 6223-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45393.83645833333</v>
+        <v>46055.44097222222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10236,7 +10241,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10273,14 +10278,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 5373-2024</t>
+          <t>A 30754-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45331</v>
+        <v>44764</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10293,7 +10298,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>5.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10330,14 +10335,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 15597-2025</t>
+          <t>A 61733-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45747.9108449074</v>
+        <v>45649.34486111111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10350,7 +10355,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10387,14 +10392,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 59036-2021</t>
+          <t>A 14353-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44490</v>
+        <v>45393.83645833333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10406,13 +10411,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>25.2</v>
+        <v>3.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10449,14 +10449,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 30747-2023</t>
+          <t>A 5373-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45112</v>
+        <v>45331</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,13 +10468,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10511,14 +10506,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 14702-2023</t>
+          <t>A 15597-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45014</v>
+        <v>45747.9108449074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10531,7 +10526,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>12.1</v>
+        <v>4.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10568,14 +10563,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 61644-2023</t>
+          <t>A 59036-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45263</v>
+        <v>44490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,8 +10582,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>2.9</v>
+        <v>25.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10625,14 +10625,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 18272-2024</t>
+          <t>A 30747-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45421.69873842593</v>
+        <v>45112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,8 +10644,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10682,14 +10687,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 47906-2023</t>
+          <t>A 14702-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45204</v>
+        <v>45014</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10702,7 +10707,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>12.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10739,14 +10744,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 14176-2025</t>
+          <t>A 61644-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45740.52974537037</v>
+        <v>45263</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10759,7 +10764,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10796,14 +10801,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 24913-2023</t>
+          <t>A 18272-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45085.49424768519</v>
+        <v>45421.69873842593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10816,7 +10821,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10853,14 +10858,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 21042-2023</t>
+          <t>A 47906-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45056</v>
+        <v>45204</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10873,7 +10878,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10910,14 +10915,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 56635-2022</t>
+          <t>A 14176-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44893</v>
+        <v>45740.52974537037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10930,7 +10935,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10967,14 +10972,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 33262-2023</t>
+          <t>A 24913-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45127.56380787037</v>
+        <v>45085.49424768519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10987,7 +10992,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11024,14 +11029,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 33259-2023</t>
+          <t>A 21042-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45127.56025462963</v>
+        <v>45056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11044,7 +11049,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11081,14 +11086,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 11383-2023</t>
+          <t>A 56635-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44993.45693287037</v>
+        <v>44893</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11101,7 +11106,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11138,14 +11143,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 47902-2023</t>
+          <t>A 33262-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45204.49861111111</v>
+        <v>45127.56380787037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11158,7 +11163,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11195,14 +11200,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 26702-2023</t>
+          <t>A 33259-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45093</v>
+        <v>45127.56025462963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11215,7 +11220,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11252,14 +11257,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 41008-2024</t>
+          <t>A 11383-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45559</v>
+        <v>44993.45693287037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11272,7 +11277,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11309,14 +11314,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 64615-2023</t>
+          <t>A 47902-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45281.52231481481</v>
+        <v>45204.49861111111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11329,7 +11334,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11366,14 +11371,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 16914-2022</t>
+          <t>A 26702-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44676.43390046297</v>
+        <v>45093</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11386,7 +11391,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11423,14 +11428,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 10617-2022</t>
+          <t>A 41008-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44624</v>
+        <v>45559</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11443,7 +11448,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.9</v>
+        <v>2.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11480,14 +11485,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 40240-2024</t>
+          <t>A 64615-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45554.61458333334</v>
+        <v>45281.52231481481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11500,7 +11505,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11537,14 +11542,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 33907-2024</t>
+          <t>A 16914-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45523.37623842592</v>
+        <v>44676.43390046297</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11557,7 +11562,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11594,14 +11599,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 33910-2024</t>
+          <t>A 10617-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45523.38473379629</v>
+        <v>44624</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11614,7 +11619,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>7.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11651,14 +11656,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 36516-2023</t>
+          <t>A 40240-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45153</v>
+        <v>45554.61458333334</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11670,13 +11675,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11713,14 +11713,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 2038-2025</t>
+          <t>A 33907-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45672.49553240741</v>
+        <v>45523.37623842592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11770,14 +11770,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 1157-2025</t>
+          <t>A 33910-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45666.75922453704</v>
+        <v>45523.38473379629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11827,14 +11827,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 31113-2023</t>
+          <t>A 36516-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45113</v>
+        <v>45153</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11846,8 +11846,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11884,14 +11889,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 20787-2022</t>
+          <t>A 2038-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44701</v>
+        <v>45672.49553240741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11904,7 +11909,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11941,14 +11946,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11289-2023</t>
+          <t>A 1157-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44992</v>
+        <v>45666.75922453704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11960,13 +11965,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12003,14 +12003,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 22137-2022</t>
+          <t>A 31113-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44712</v>
+        <v>45113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12060,14 +12060,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 54227-2024</t>
+          <t>A 20787-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45616</v>
+        <v>44701</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12117,14 +12117,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 39872-2024</t>
+          <t>A 11289-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45553</v>
+        <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12179,14 +12179,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 18645-2023</t>
+          <t>A 22137-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45043</v>
+        <v>44712</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12236,14 +12236,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 29444-2024</t>
+          <t>A 54227-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45483.86464120371</v>
+        <v>45616</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12293,14 +12293,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 10746-2023</t>
+          <t>A 39872-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44988</v>
+        <v>45553</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12355,14 +12355,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 39873-2024</t>
+          <t>A 18645-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45553</v>
+        <v>45043</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,13 +12374,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12413,38 +12408,18 @@
         <v>0</v>
       </c>
       <c r="R194" s="2" t="inlineStr"/>
-      <c r="U194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="V194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="W194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="X194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="Y194">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 4468-2022</t>
+          <t>A 29444-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44589</v>
+        <v>45483.86464120371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12457,7 +12432,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12494,14 +12469,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 36444-2022</t>
+          <t>A 10746-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44804.38798611111</v>
+        <v>44988</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12513,8 +12488,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12551,14 +12531,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 22198-2023</t>
+          <t>A 39873-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45069.78799768518</v>
+        <v>45553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12570,8 +12550,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12604,18 +12589,38 @@
         <v>0</v>
       </c>
       <c r="R197" s="2" t="inlineStr"/>
+      <c r="U197">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="V197">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="W197">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="X197">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="Y197">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 38955-2023</t>
+          <t>A 4468-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45163</v>
+        <v>44589</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12628,7 +12633,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12665,14 +12670,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 18400-2025</t>
+          <t>A 36444-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45762.59549768519</v>
+        <v>44804.38798611111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12685,7 +12690,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12722,14 +12727,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 11287-2025</t>
+          <t>A 22198-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45726.42666666667</v>
+        <v>45069.78799768518</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12741,13 +12746,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12784,14 +12784,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 20344-2023</t>
+          <t>A 38955-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45056</v>
+        <v>45163</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12841,14 +12841,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 39875-2024</t>
+          <t>A 18400-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45553</v>
+        <v>45762.59549768519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12860,13 +12860,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12903,14 +12898,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 39878-2024</t>
+          <t>A 11287-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45553</v>
+        <v>45726.42666666667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12928,7 +12923,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12965,14 +12960,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61314-2024</t>
+          <t>A 20344-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45646.31635416667</v>
+        <v>45056</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12985,7 +12980,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13022,14 +13017,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 5559-2024</t>
+          <t>A 39875-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45334</v>
+        <v>45553</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13041,8 +13036,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13079,14 +13079,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 48268-2021</t>
+          <t>A 39878-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44449.66981481481</v>
+        <v>45553</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13098,8 +13098,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>9.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13136,14 +13141,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 3643-2023</t>
+          <t>A 61314-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44950.69260416667</v>
+        <v>45646.31635416667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13156,7 +13161,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13193,14 +13198,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 28824-2024</t>
+          <t>A 5559-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45478</v>
+        <v>45334</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13212,13 +13217,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13255,14 +13255,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 50405-2024</t>
+          <t>A 48268-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45601.35753472222</v>
+        <v>44449.66981481481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13312,14 +13312,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 4470-2022</t>
+          <t>A 3643-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44589</v>
+        <v>44950.69260416667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13369,14 +13369,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 28579-2022</t>
+          <t>A 28824-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44748</v>
+        <v>45478</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13388,8 +13388,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13426,14 +13431,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 30802-2023</t>
+          <t>A 50405-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45112</v>
+        <v>45601.35753472222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13445,13 +13450,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13488,14 +13488,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 37564-2024</t>
+          <t>A 4470-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45541.44607638889</v>
+        <v>44589</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>11.1</v>
+        <v>1.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13545,14 +13545,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 39867-2024</t>
+          <t>A 28579-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45553.46100694445</v>
+        <v>44748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13564,13 +13564,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13607,14 +13602,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 30603-2021</t>
+          <t>A 30802-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44365.28403935185</v>
+        <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13626,8 +13621,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13664,14 +13664,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 61470-2024</t>
+          <t>A 37564-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45646</v>
+        <v>45541.44607638889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5</v>
+        <v>11.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13721,14 +13721,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 1574-2025</t>
+          <t>A 39867-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45670.55908564815</v>
+        <v>45553.46100694445</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13742,11 +13742,11 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>9.699999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13783,14 +13783,14 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 62160-2024</t>
+          <t>A 30603-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45656.80090277778</v>
+        <v>44365.28403935185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,14 +669,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 42748-2024</t>
+          <t>A 33104-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45566</v>
+        <v>45517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,17 +689,17 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9.699999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -723,505 +723,505 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Blekspindling agg.
+Garnlav</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 42748-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Granriska
 Rostfläck</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 35099-2025</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45852.5584375</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>16.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 62297-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>46006.64673611111</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 37012-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="U7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 11678-2024</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45373.57708333333</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Ask
 Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 62297-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46006.64673611111</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 37012-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44806</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 33104-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45517</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Blekspindling agg.
-Garnlav</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
         <v/>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <v>45789</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1317,14 +1317,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 10507-2025</t>
+          <t>A 44857-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45721.39129629629</v>
+        <v>45918.45165509259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1336,23 +1336,18 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>10.4</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1366,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1376,49 +1371,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 22580-2024</t>
+          <t>A 58430-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45447.5825462963</v>
+        <v>45985.60377314815</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1431,7 +1422,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1440,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1455,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1465,49 +1456,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 11637-2025</t>
+          <t>A 28147-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45727.46729166667</v>
+        <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,28 +1506,23 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1552,52 +1534,56 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 58430-2025</t>
+          <t>A 41241-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45985.60377314815</v>
+        <v>45559</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,17 +1596,17 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1634,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1644,45 +1630,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rökfingersvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 44857-2025</t>
+          <t>A 1515-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45918.45165509259</v>
+        <v>45305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1695,10 +1681,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1729,45 +1715,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 30722-2023</t>
+          <t>A 10507-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45112</v>
+        <v>45721.39129629629</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1781,11 +1771,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>21.2</v>
+        <v>10.4</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1819,49 +1809,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 19176-2025</t>
+          <t>A 30722-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45769</v>
+        <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,8 +1863,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>4.6</v>
+        <v>21.2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1883,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1898,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1908,49 +1903,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 9690-2024</t>
+          <t>A 19176-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45362</v>
+        <v>45769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1958,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -2001,45 +1996,45 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41241-2024</t>
+          <t>A 10680-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45559</v>
+        <v>45368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2047,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2061,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2079,52 +2074,52 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Rökfingersvamp</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 290-2025</t>
+          <t>A 22580-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45656</v>
+        <v>45447.5825462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,17 +2132,17 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>7.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2161,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2171,45 +2166,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 10680-2024</t>
+          <t>A 9690-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45368</v>
+        <v>45362</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,22 +2221,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2249,52 +2248,56 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 28821-2024</t>
+          <t>A 11637-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45478.65488425926</v>
+        <v>45727.46729166667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2312,23 +2315,23 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
@@ -2336,55 +2339,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 28147-2022</t>
+          <t>A 290-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44746</v>
+        <v>45656</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2397,16 +2400,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2421,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2431,49 +2434,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 1515-2024</t>
+          <t>A 28821-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45305</v>
+        <v>45478.65488425926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2485,17 +2484,22 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2510,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2520,35 +2524,31 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44722.36616898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44510.55405092592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3140,14 +3140,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 66778-2021</t>
+          <t>A 50407-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44519</v>
+        <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3197,14 +3197,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50407-2022</t>
+          <t>A 66778-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44861</v>
+        <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3658,14 +3658,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41269-2021</t>
+          <t>A 41977-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44424</v>
+        <v>44830</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3677,8 +3677,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3715,14 +3720,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41977-2022</t>
+          <t>A 41269-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44830</v>
+        <v>44424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3734,13 +3739,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4062,14 +4062,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 45105-2022</t>
+          <t>A 5043-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44843</v>
+        <v>44593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4119,14 +4119,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 5043-2022</t>
+          <t>A 45105-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44593</v>
+        <v>44843</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4352,14 +4352,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 4467-2022</t>
+          <t>A 29444-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44589</v>
+        <v>45483.86464120371</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4409,14 +4409,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40696-2022</t>
+          <t>A 41350-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44824</v>
+        <v>45174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4428,8 +4428,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4466,14 +4471,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 61492-2022</t>
+          <t>A 44343-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44916.47408564815</v>
+        <v>44839.67604166667</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4486,7 +4491,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4523,14 +4528,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 11676-2024</t>
+          <t>A 2039-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45373.57236111111</v>
+        <v>45672</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4543,7 +4548,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4580,14 +4585,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56267-2021</t>
+          <t>A 61314-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44479.61296296296</v>
+        <v>45646.31635416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4600,7 +4605,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4637,14 +4642,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 1607-2023</t>
+          <t>A 56635-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44937</v>
+        <v>44893</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4694,14 +4699,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 37491-2021</t>
+          <t>A 39872-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44399.29892361111</v>
+        <v>45553</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4713,8 +4718,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4751,14 +4761,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61470-2024</t>
+          <t>A 26702-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45646</v>
+        <v>45093</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4771,7 +4781,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4808,14 +4818,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1574-2025</t>
+          <t>A 40329-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45670.55908564815</v>
+        <v>45555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4827,13 +4837,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4870,14 +4875,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 62160-2024</t>
+          <t>A 14169-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45656.80090277778</v>
+        <v>45740.51894675926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4890,7 +4895,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4927,14 +4932,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 55842-2025</t>
+          <t>A 11676-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45973.29060185186</v>
+        <v>45373.57236111111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4946,13 +4951,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4989,14 +4989,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50104-2024</t>
+          <t>A 61470-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45600.40037037037</v>
+        <v>45646</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5046,14 +5046,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26763-2023</t>
+          <t>A 21042-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45093.46813657408</v>
+        <v>45056</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5103,14 +5103,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34885-2022</t>
+          <t>A 62160-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44796.51725694445</v>
+        <v>45656.80090277778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5160,14 +5160,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33334-2023</t>
+          <t>A 14353-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45128.33488425926</v>
+        <v>45393.83645833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5217,14 +5217,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 55727-2024</t>
+          <t>A 5313-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45622.90070601852</v>
+        <v>45331.39503472222</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5274,14 +5274,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53910-2023</t>
+          <t>A 50104-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45231.55751157407</v>
+        <v>45600.40037037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5331,14 +5331,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 37450-2024</t>
+          <t>A 33334-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45540.68736111111</v>
+        <v>45128.33488425926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5388,14 +5388,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20800-2024</t>
+          <t>A 1574-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45438</v>
+        <v>45670.55908564815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5407,8 +5407,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5445,14 +5450,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 10274-2023</t>
+          <t>A 58935-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44986</v>
+        <v>45250</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5465,7 +5470,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5502,14 +5507,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39871-2024</t>
+          <t>A 14734-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45553</v>
+        <v>45397.5890625</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5521,13 +5526,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5564,14 +5564,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12961-2023</t>
+          <t>A 33259-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45001.80307870371</v>
+        <v>45127.56025462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5621,14 +5621,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 58548-2024</t>
+          <t>A 41692-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45635.45878472222</v>
+        <v>45902.4041087963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5678,14 +5678,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18382-2023</t>
+          <t>A 55727-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45042.27751157407</v>
+        <v>45622.90070601852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5735,14 +5735,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 24055-2025</t>
+          <t>A 61644-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45796</v>
+        <v>45263</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5792,14 +5792,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 5313-2024</t>
+          <t>A 10274-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45331.39503472222</v>
+        <v>44986</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>8.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5849,14 +5849,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2175-2024</t>
+          <t>A 42197-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45309</v>
+        <v>45904.48486111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>45134.62525462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5963,14 +5963,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41692-2025</t>
+          <t>A 42295-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45902.4041087963</v>
+        <v>45904.63057870371</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6020,14 +6020,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46398-2021</t>
+          <t>A 58548-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44443.77010416667</v>
+        <v>45635.45878472222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.4</v>
+        <v>6.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6077,14 +6077,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 38922-2023</t>
+          <t>A 24055-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45163.57961805556</v>
+        <v>45796</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6134,14 +6134,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42197-2025</t>
+          <t>A 5559-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45904.48486111111</v>
+        <v>45334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6191,14 +6191,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42295-2025</t>
+          <t>A 53407-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45904.63057870371</v>
+        <v>45959.57350694444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6248,14 +6248,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26863-2025</t>
+          <t>A 43621-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45810.69763888889</v>
+        <v>45911.681875</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6305,14 +6305,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28620-2023</t>
+          <t>A 18645-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45103.5975462963</v>
+        <v>45043</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6362,14 +6362,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 18274-2024</t>
+          <t>A 4467-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45421.70460648148</v>
+        <v>44589</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6419,14 +6419,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 37598-2024</t>
+          <t>A 54804-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45541.47604166667</v>
+        <v>45966.64116898148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6476,14 +6476,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 43621-2025</t>
+          <t>A 54770-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45911.681875</v>
+        <v>45966.60803240741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6533,14 +6533,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12596-2025</t>
+          <t>A 58020-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45733.28476851852</v>
+        <v>44484</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6590,14 +6590,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29773-2025</t>
+          <t>A 55033-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45825.63271990741</v>
+        <v>45967</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6647,14 +6647,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 12516-2025</t>
+          <t>A 26863-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45730.65107638889</v>
+        <v>45810.69763888889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6666,13 +6666,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6709,14 +6704,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 56282-2023</t>
+          <t>A 1599-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45241.82328703703</v>
+        <v>45670.58930555556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6728,8 +6723,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>6.8</v>
+        <v>18.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6766,14 +6766,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 44650-2024</t>
+          <t>A 55842-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45574</v>
+        <v>45973.29060185186</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6785,8 +6785,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6823,14 +6828,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 58428-2025</t>
+          <t>A 46810-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45985.60064814815</v>
+        <v>45926.69480324074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6843,7 +6848,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6887,7 +6892,7 @@
         <v>45926.69324074074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6937,14 +6942,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46810-2025</t>
+          <t>A 1157-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45926.69480324074</v>
+        <v>45666.75922453704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6957,7 +6962,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6994,14 +6999,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37042-2024</t>
+          <t>A 53910-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45539</v>
+        <v>45231.55751157407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7014,7 +7019,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7051,14 +7056,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 7202-2023</t>
+          <t>A 40240-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44965</v>
+        <v>45554.61458333334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7071,7 +7076,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7108,14 +7113,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 19044-2023</t>
+          <t>A 29773-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45047</v>
+        <v>45825.63271990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7128,7 +7133,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7165,14 +7170,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 33204-2025</t>
+          <t>A 19045-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45840.61181712963</v>
+        <v>45047</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7185,7 +7190,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7222,14 +7227,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 19045-2023</t>
+          <t>A 33204-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45047</v>
+        <v>45840.61181712963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7242,7 +7247,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7279,14 +7284,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10273-2023</t>
+          <t>A 58428-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44986</v>
+        <v>45985.60064814815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7299,7 +7304,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>12.8</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7336,14 +7341,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 19178-2025</t>
+          <t>A 22323-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45769</v>
+        <v>45068</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7356,7 +7361,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7393,14 +7398,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26121-2023</t>
+          <t>A 41008-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45091.44384259259</v>
+        <v>45559</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7413,7 +7418,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7450,14 +7455,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 27638-2025</t>
+          <t>A 30747-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45813</v>
+        <v>45112</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7469,8 +7474,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7507,14 +7517,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 12616-2025</t>
+          <t>A 30802-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45733</v>
+        <v>45112</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7526,8 +7536,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7564,14 +7579,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 6101-2024</t>
+          <t>A 11794-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45337</v>
+        <v>44994</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7599,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7621,14 +7636,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 2039-2025</t>
+          <t>A 39873-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45672</v>
+        <v>45553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7640,8 +7655,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7674,18 +7694,38 @@
         <v>0</v>
       </c>
       <c r="R112" s="2" t="inlineStr"/>
+      <c r="U112">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="V112">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="W112">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="X112">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="Y112">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 3643-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45068</v>
+        <v>44950.69260416667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7738,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7735,14 +7775,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 12616-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45068</v>
+        <v>45733</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7795,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7792,14 +7832,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 53407-2025</t>
+          <t>A 27638-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45959.57350694444</v>
+        <v>45813</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7852,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7849,14 +7889,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 9769-2025</t>
+          <t>A 1217-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45716.48861111111</v>
+        <v>46031.39998842592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7909,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>12</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7906,14 +7946,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1599-2025</t>
+          <t>A 51659-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45670.58930555556</v>
+        <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7925,13 +7965,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>18.8</v>
+        <v>3.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7968,14 +8003,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44343-2022</t>
+          <t>A 54959-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44839.67604166667</v>
+        <v>45236</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +8023,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8025,14 +8060,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 11794-2023</t>
+          <t>A 12961-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44994</v>
+        <v>45001.80307870371</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8080,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.6</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8082,14 +8117,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 11289-2025</t>
+          <t>A 31113-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45726.42762731481</v>
+        <v>45113</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8101,13 +8136,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8144,14 +8174,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 1217-2026</t>
+          <t>A 11383-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46031.39998842592</v>
+        <v>44993.45693287037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8164,7 +8194,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8201,14 +8231,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 40329-2024</t>
+          <t>A 48268-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45555</v>
+        <v>44449.66981481481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8221,7 +8251,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8258,14 +8288,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27947-2023</t>
+          <t>A 61492-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45098.66921296297</v>
+        <v>44916.47408564815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8278,7 +8308,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8315,14 +8345,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 33336-2023</t>
+          <t>A 39871-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45128.33729166666</v>
+        <v>45553</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8334,8 +8364,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8372,14 +8407,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 33337-2023</t>
+          <t>A 47906-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45128.3400925926</v>
+        <v>45204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8392,7 +8427,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8429,14 +8464,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 37898-2025</t>
+          <t>A 38922-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45881.55846064815</v>
+        <v>45163.57961805556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8449,7 +8484,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8486,14 +8521,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 54770-2025</t>
+          <t>A 2038-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45966.60803240741</v>
+        <v>45672.49553240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8506,7 +8541,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8543,14 +8578,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 55033-2025</t>
+          <t>A 37898-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45967</v>
+        <v>45881.55846064815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8563,7 +8598,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8600,14 +8635,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54804-2025</t>
+          <t>A 34885-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45966.64116898148</v>
+        <v>44796.51725694445</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8620,7 +8655,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8657,14 +8692,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 38297-2025</t>
+          <t>A 61584-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45883.45506944445</v>
+        <v>46002.34265046296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8712,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8714,14 +8749,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 58935-2023</t>
+          <t>A 38297-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45250</v>
+        <v>45883.45506944445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8771,14 +8806,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62841-2023</t>
+          <t>A 24913-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45270</v>
+        <v>45085.49424768519</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8791,7 +8826,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8828,14 +8863,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14169-2025</t>
+          <t>A 40696-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45740.51894675926</v>
+        <v>44824</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8885,14 +8920,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 58020-2021</t>
+          <t>A 30603-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44484</v>
+        <v>44365.28403935185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8940,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8942,14 +8977,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 51659-2021</t>
+          <t>A 28579-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44462</v>
+        <v>44748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8997,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8999,14 +9034,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 41551-2024</t>
+          <t>A 61581-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45560</v>
+        <v>46002.33817129629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9054,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.4</v>
+        <v>6.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9056,14 +9091,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 6843-2024</t>
+          <t>A 10467-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45342.62711805556</v>
+        <v>45720.83359953704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9111,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9113,14 +9148,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6140-2025</t>
+          <t>A 33262-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45698.3849537037</v>
+        <v>45127.56380787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9168,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9170,14 +9205,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12140-2023</t>
+          <t>A 62841-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44998.46677083334</v>
+        <v>45270</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9225,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9227,14 +9262,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 22323-2023</t>
+          <t>A 37042-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45068</v>
+        <v>45539</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9282,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9284,14 +9319,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41350-2023</t>
+          <t>A 62978-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45174</v>
+        <v>46009.47902777778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9344,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9346,14 +9381,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 61584-2025</t>
+          <t>A 41233-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46002.34265046296</v>
+        <v>45559</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9366,7 +9401,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9403,14 +9438,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46877-2022</t>
+          <t>A 62939-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44848</v>
+        <v>46009.4262037037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9422,8 +9457,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9460,14 +9500,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54959-2023</t>
+          <t>A 15597-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45236</v>
+        <v>45747.9108449074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9480,7 +9520,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9517,14 +9557,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61581-2025</t>
+          <t>A 62961-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46002.33817129629</v>
+        <v>46009.45863425926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9536,8 +9576,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>6.9</v>
+        <v>4.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9574,14 +9619,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 13757-2025</t>
+          <t>A 56267-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45737.41730324074</v>
+        <v>44479.61296296296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9593,13 +9638,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>12.8</v>
+        <v>2.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9636,14 +9676,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 10787-2023</t>
+          <t>A 6223-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44989</v>
+        <v>46055.44097222222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9696,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9693,14 +9733,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 10791-2023</t>
+          <t>A 39867-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44989</v>
+        <v>45553.46100694445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9712,8 +9752,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9750,14 +9795,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 10467-2025</t>
+          <t>A 14176-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45720.83359953704</v>
+        <v>45740.52974537037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9815,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9807,14 +9852,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 62939-2025</t>
+          <t>A 33336-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46009.4262037037</v>
+        <v>45128.33729166666</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9826,13 +9871,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9869,14 +9909,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 62961-2025</t>
+          <t>A 33337-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46009.45863425926</v>
+        <v>45128.3400925926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9888,13 +9928,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9931,14 +9966,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 3602-2023</t>
+          <t>A 59036-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44950.58821759259</v>
+        <v>44490</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9950,8 +9985,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>2.6</v>
+        <v>25.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9988,14 +10028,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 62978-2025</t>
+          <t>A 27947-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46009.47902777778</v>
+        <v>45098.66921296297</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10007,13 +10047,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10050,14 +10085,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 41233-2024</t>
+          <t>A 36516-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45559</v>
+        <v>45153</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10067,6 +10102,11 @@
       <c r="E154" t="inlineStr">
         <is>
           <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -10107,14 +10147,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12963-2023</t>
+          <t>A 4470-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45001</v>
+        <v>44589</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10127,7 +10167,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10164,14 +10204,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14734-2024</t>
+          <t>A 13757-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45397.5890625</v>
+        <v>45737.41730324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,8 +10223,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>12.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10221,14 +10266,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 6223-2026</t>
+          <t>A 38955-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46055.44097222222</v>
+        <v>45163</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10241,7 +10286,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10278,14 +10323,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 30754-2022</t>
+          <t>A 7202-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44764</v>
+        <v>44965</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10298,7 +10343,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>9.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10335,14 +10380,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61733-2024</t>
+          <t>A 6843-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45649.34486111111</v>
+        <v>45342.62711805556</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10355,7 +10400,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10392,14 +10437,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 14353-2024</t>
+          <t>A 19044-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45393.83645833333</v>
+        <v>45047</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10412,7 +10457,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10449,14 +10494,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 5373-2024</t>
+          <t>A 61733-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45331</v>
+        <v>45649.34486111111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10469,7 +10514,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10506,14 +10551,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 15597-2025</t>
+          <t>A 10787-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45747.9108449074</v>
+        <v>44989</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10526,7 +10571,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10563,14 +10608,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59036-2021</t>
+          <t>A 10791-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44490</v>
+        <v>44989</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10582,13 +10627,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>25.2</v>
+        <v>2.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10625,14 +10665,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 30747-2023</t>
+          <t>A 47902-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45112</v>
+        <v>45204.49861111111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,13 +10684,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10687,14 +10722,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 14702-2023</t>
+          <t>A 36444-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45014</v>
+        <v>44804.38798611111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10707,7 +10742,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>12.1</v>
+        <v>2.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10744,14 +10779,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61644-2023</t>
+          <t>A 22137-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45263</v>
+        <v>44712</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10764,7 +10799,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10801,14 +10836,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 18272-2024</t>
+          <t>A 26763-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45421.69873842593</v>
+        <v>45093.46813657408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10821,7 +10856,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10858,14 +10893,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 47906-2023</t>
+          <t>A 10617-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45204</v>
+        <v>44624</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10878,7 +10913,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>7.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10915,14 +10950,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 14176-2025</t>
+          <t>A 22198-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45740.52974537037</v>
+        <v>45069.78799768518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10935,7 +10970,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10972,14 +11007,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 24913-2023</t>
+          <t>A 9769-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45085.49424768519</v>
+        <v>45716.48861111111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10992,7 +11027,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11029,14 +11064,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 21042-2023</t>
+          <t>A 46877-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45056</v>
+        <v>44848</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11049,7 +11084,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11086,14 +11121,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 56635-2022</t>
+          <t>A 16914-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44893</v>
+        <v>44676.43390046297</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11106,7 +11141,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11143,14 +11178,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 33262-2023</t>
+          <t>A 12596-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45127.56380787037</v>
+        <v>45733.28476851852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11163,7 +11198,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11200,14 +11235,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 33259-2023</t>
+          <t>A 18274-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45127.56025462963</v>
+        <v>45421.70460648148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11220,7 +11255,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11257,14 +11292,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 11383-2023</t>
+          <t>A 20800-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44993.45693287037</v>
+        <v>45438</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11277,7 +11312,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11314,14 +11349,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 47902-2023</t>
+          <t>A 11289-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45204.49861111111</v>
+        <v>45726.42762731481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11333,8 +11368,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11371,14 +11411,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 26702-2023</t>
+          <t>A 12516-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45093</v>
+        <v>45730.65107638889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11390,8 +11430,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11428,14 +11473,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 41008-2024</t>
+          <t>A 30754-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45559</v>
+        <v>44764</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11448,7 +11493,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11485,14 +11530,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 64615-2023</t>
+          <t>A 6101-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45281.52231481481</v>
+        <v>45337</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11505,7 +11550,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11542,14 +11587,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 16914-2022</t>
+          <t>A 18272-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44676.43390046297</v>
+        <v>45421.69873842593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11562,7 +11607,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11599,14 +11644,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 10617-2022</t>
+          <t>A 11287-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44624</v>
+        <v>45726.42666666667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,8 +11663,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11656,14 +11706,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 40240-2024</t>
+          <t>A 37450-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45554.61458333334</v>
+        <v>45540.68736111111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11676,7 +11726,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11720,7 +11770,7 @@
         <v>45523.37623842592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11777,7 +11827,7 @@
         <v>45523.38473379629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11827,14 +11877,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 36516-2023</t>
+          <t>A 37491-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45153</v>
+        <v>44399.29892361111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11846,13 +11896,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11889,14 +11934,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 2038-2025</t>
+          <t>A 5373-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45672.49553240741</v>
+        <v>45331</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11909,7 +11954,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11946,14 +11991,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 1157-2025</t>
+          <t>A 12140-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45666.75922453704</v>
+        <v>44998.46677083334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11966,7 +12011,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12003,14 +12048,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 31113-2023</t>
+          <t>A 20787-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45113</v>
+        <v>44701</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12023,7 +12068,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12060,14 +12105,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 20787-2022</t>
+          <t>A 4468-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44701</v>
+        <v>44589</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12080,7 +12125,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12117,14 +12162,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 11289-2023</t>
+          <t>A 3602-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44992</v>
+        <v>44950.58821759259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,13 +12181,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12179,14 +12219,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 22137-2022</t>
+          <t>A 11289-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44712</v>
+        <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,8 +12238,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12236,14 +12281,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54227-2024</t>
+          <t>A 20344-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45616</v>
+        <v>45056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12256,7 +12301,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12293,14 +12338,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 39872-2024</t>
+          <t>A 18382-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45553</v>
+        <v>45042.27751157407</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12312,13 +12357,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12355,14 +12395,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 18645-2023</t>
+          <t>A 1607-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45043</v>
+        <v>44937</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12375,7 +12415,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12412,14 +12452,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 29444-2024</t>
+          <t>A 64615-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45483.86464120371</v>
+        <v>45281.52231481481</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12432,7 +12472,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12469,14 +12509,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 10746-2023</t>
+          <t>A 46398-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44988</v>
+        <v>44443.77010416667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,13 +12528,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12531,14 +12566,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 39873-2024</t>
+          <t>A 41551-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45553</v>
+        <v>45560</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12550,13 +12585,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12589,38 +12619,18 @@
         <v>0</v>
       </c>
       <c r="R197" s="2" t="inlineStr"/>
-      <c r="U197">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="V197">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="W197">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="X197">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="Y197">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4468-2022</t>
+          <t>A 44650-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44589</v>
+        <v>45574</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12633,7 +12643,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12670,14 +12680,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 36444-2022</t>
+          <t>A 26121-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44804.38798611111</v>
+        <v>45091.44384259259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12690,7 +12700,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12727,14 +12737,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 22198-2023</t>
+          <t>A 12963-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45069.78799768518</v>
+        <v>45001</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12747,7 +12757,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12784,14 +12794,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 38955-2023</t>
+          <t>A 37598-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45163</v>
+        <v>45541.47604166667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12804,7 +12814,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12841,14 +12851,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 18400-2025</t>
+          <t>A 10746-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45762.59549768519</v>
+        <v>44988</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12860,8 +12870,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12898,14 +12913,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 11287-2025</t>
+          <t>A 2175-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45726.42666666667</v>
+        <v>45309</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12917,13 +12932,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12960,14 +12970,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 20344-2023</t>
+          <t>A 18400-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45056</v>
+        <v>45762.59549768519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12980,7 +12990,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13024,7 +13034,7 @@
         <v>45553</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13086,7 +13096,7 @@
         <v>45553</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13141,14 +13151,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 61314-2024</t>
+          <t>A 19178-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45646.31635416667</v>
+        <v>45769</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13161,7 +13171,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13198,14 +13208,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 5559-2024</t>
+          <t>A 56282-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45334</v>
+        <v>45241.82328703703</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13218,7 +13228,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13255,14 +13265,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 48268-2021</t>
+          <t>A 14702-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44449.66981481481</v>
+        <v>45014</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13275,7 +13285,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>9.699999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13312,14 +13322,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 3643-2023</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44950.69260416667</v>
+        <v>45068</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13332,7 +13342,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13369,14 +13379,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 28824-2024</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45478</v>
+        <v>45068</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13388,13 +13398,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13431,14 +13436,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 50405-2024</t>
+          <t>A 37564-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45601.35753472222</v>
+        <v>45541.44607638889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13451,7 +13456,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.4</v>
+        <v>11.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13488,14 +13493,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 4470-2022</t>
+          <t>A 28620-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44589</v>
+        <v>45103.5975462963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13508,7 +13513,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13545,14 +13550,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 28579-2022</t>
+          <t>A 54227-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44748</v>
+        <v>45616</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13565,7 +13570,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13602,14 +13607,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 30802-2023</t>
+          <t>A 6140-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45112</v>
+        <v>45698.3849537037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13621,13 +13626,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13664,14 +13664,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 37564-2024</t>
+          <t>A 10273-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45541.44607638889</v>
+        <v>44986</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>11.1</v>
+        <v>12.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13721,14 +13721,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 39867-2024</t>
+          <t>A 50405-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45553.46100694445</v>
+        <v>45601.35753472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13740,13 +13740,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13783,14 +13778,14 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 30603-2021</t>
+          <t>A 28824-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44365.28403935185</v>
+        <v>45478</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13802,8 +13797,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z218"/>
+  <dimension ref="A1:Z219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,14 +669,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 33104-2024</t>
+          <t>A 35099-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45517</v>
+        <v>45852.5584375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -688,17 +688,22 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>16.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -713,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -723,519 +728,514 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 11678-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45373.57708333333</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62297-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46006.64673611111</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 37012-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 33104-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45517</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Blekspindling agg.
 Garnlav</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 42748-2024</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45566</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Granriska
 Rostfläck</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 35099-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45852.5584375</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 62297-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46006.64673611111</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 37012-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44806</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 11678-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45373.57708333333</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 22805-2025</t>
+          <t>A 10507-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45789</v>
+        <v>45721.39129629629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,8 +1247,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>7.7</v>
+        <v>10.4</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1257,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1272,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1282,49 +1287,49 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 44857-2025</t>
+          <t>A 22580-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45918.45165509259</v>
+        <v>45447.5825462963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,10 +1342,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>7.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1371,45 +1376,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 58430-2025</t>
+          <t>A 11637-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45985.60377314815</v>
+        <v>45727.46729166667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,24 +1430,29 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
@@ -1446,55 +1460,55 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28147-2022</t>
+          <t>A 30722-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44746</v>
+        <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1506,8 +1520,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>21.2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1516,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1531,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1541,49 +1560,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 41241-2024</t>
+          <t>A 44857-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45559</v>
+        <v>45918.45165509259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1596,7 +1615,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1630,45 +1649,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Rökfingersvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 1515-2024</t>
+          <t>A 19176-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45305</v>
+        <v>45769</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1681,7 +1700,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1719,45 +1738,45 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 10507-2025</t>
+          <t>A 9690-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45721.39129629629</v>
+        <v>45362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,13 +1788,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>10.4</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1784,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1799,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1809,49 +1823,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 30722-2023</t>
+          <t>A 58430-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45112</v>
+        <v>45985.60377314815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1863,13 +1877,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>21.2</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1903,49 +1912,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 19176-2025</t>
+          <t>A 41241-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45769</v>
+        <v>45559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1958,10 +1963,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1992,49 +1997,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rökfingersvamp</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 10680-2024</t>
+          <t>A 290-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45368</v>
+        <v>45656</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2047,13 +2048,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2062,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2071,55 +2072,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 22580-2024</t>
+          <t>A 10680-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45447.5825462963</v>
+        <v>45368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2132,22 +2133,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2159,56 +2160,52 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 9690-2024</t>
+          <t>A 28821-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45362</v>
+        <v>45478.65488425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,17 +2217,22 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2255,49 +2257,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 11637-2025</t>
+          <t>A 28147-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45727.46729166667</v>
+        <v>44746</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,28 +2307,23 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2342,52 +2335,56 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 290-2025</t>
+          <t>A 1515-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45656</v>
+        <v>45305</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,17 +2397,17 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2424,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2434,45 +2431,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 28821-2024</t>
+          <t>A 22805-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45478.65488425926</v>
+        <v>45789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,23 +2485,18 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -2514,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2524,31 +2520,35 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28821-2024 artfynd.xlsx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28821-2024 karta.png", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28821-2024 FSC-klagomål.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28821-2024 FSC-klagomål mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28821-2024 tillsynsbegäran.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28821-2024 tillsynsbegäran mail.docx", "A 28821-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
         <v/>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44722.36616898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44510.55405092592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3658,14 +3658,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41977-2022</t>
+          <t>A 41269-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44830</v>
+        <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3677,13 +3677,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3720,14 +3715,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41269-2021</t>
+          <t>A 41977-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44424</v>
+        <v>44830</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3739,8 +3734,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44843</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4352,14 +4352,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 29444-2024</t>
+          <t>A 4467-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45483.86464120371</v>
+        <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4409,14 +4409,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 41350-2023</t>
+          <t>A 40696-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45174</v>
+        <v>44824</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4428,13 +4428,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>8.800000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4471,14 +4466,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 44343-2022</t>
+          <t>A 61492-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44839.67604166667</v>
+        <v>44916.47408564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4491,7 +4486,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4528,14 +4523,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2039-2025</t>
+          <t>A 11676-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45672</v>
+        <v>45373.57236111111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4548,7 +4543,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4585,14 +4580,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61314-2024</t>
+          <t>A 1607-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45646.31635416667</v>
+        <v>44937</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4605,7 +4600,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4642,14 +4637,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56635-2022</t>
+          <t>A 56267-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44893</v>
+        <v>44479.61296296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4662,7 +4657,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4699,14 +4694,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39872-2024</t>
+          <t>A 37491-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45553</v>
+        <v>44399.29892361111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4718,13 +4713,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4761,14 +4751,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26702-2023</t>
+          <t>A 34885-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45093</v>
+        <v>44796.51725694445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4781,7 +4771,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4818,14 +4808,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40329-2024</t>
+          <t>A 37450-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45555</v>
+        <v>45540.68736111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4838,7 +4828,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4875,14 +4865,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14169-2025</t>
+          <t>A 26763-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45740.51894675926</v>
+        <v>45093.46813657408</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4895,7 +4885,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4932,14 +4922,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11676-2024</t>
+          <t>A 39871-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45373.57236111111</v>
+        <v>45553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4951,8 +4941,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4989,14 +4984,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61470-2024</t>
+          <t>A 53910-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45646</v>
+        <v>45231.55751157407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5009,7 +5004,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5046,14 +5041,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 21042-2023</t>
+          <t>A 18382-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45056</v>
+        <v>45042.27751157407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5066,7 +5061,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5103,14 +5098,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 62160-2024</t>
+          <t>A 12961-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45656.80090277778</v>
+        <v>45001.80307870371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5123,7 +5118,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5160,14 +5155,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 14353-2024</t>
+          <t>A 2175-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45393.83645833333</v>
+        <v>45309</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5217,14 +5212,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5313-2024</t>
+          <t>A 33963-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45331.39503472222</v>
+        <v>45134.62525462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5237,7 +5232,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.699999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5274,14 +5269,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50104-2024</t>
+          <t>A 46398-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45600.40037037037</v>
+        <v>44443.77010416667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5294,7 +5289,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5331,14 +5326,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33334-2023</t>
+          <t>A 38922-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45128.33488425926</v>
+        <v>45163.57961805556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5351,7 +5346,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5388,14 +5383,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1574-2025</t>
+          <t>A 20800-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45670.55908564815</v>
+        <v>45438</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5407,13 +5402,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>9.699999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5450,14 +5440,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58935-2023</t>
+          <t>A 37598-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45250</v>
+        <v>45541.47604166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5470,7 +5460,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5507,14 +5497,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14734-2024</t>
+          <t>A 18274-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45397.5890625</v>
+        <v>45421.70460648148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5527,7 +5517,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5564,14 +5554,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 33259-2023</t>
+          <t>A 28620-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45127.56025462963</v>
+        <v>45103.5975462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5621,14 +5611,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41692-2025</t>
+          <t>A 12596-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45902.4041087963</v>
+        <v>45733.28476851852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5641,7 +5631,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5678,14 +5668,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 55727-2024</t>
+          <t>A 12516-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45622.90070601852</v>
+        <v>45730.65107638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5697,8 +5687,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5735,14 +5730,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61644-2023</t>
+          <t>A 56282-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45263</v>
+        <v>45241.82328703703</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5755,7 +5750,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5792,14 +5787,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10274-2023</t>
+          <t>A 44650-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44986</v>
+        <v>45574</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5812,7 +5807,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5849,14 +5844,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42197-2025</t>
+          <t>A 37042-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45904.48486111111</v>
+        <v>45539</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5869,7 +5864,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5906,14 +5901,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 33963-2023</t>
+          <t>A 29773-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45134.62525462963</v>
+        <v>45825.63271990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5926,7 +5921,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5963,14 +5958,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42295-2025</t>
+          <t>A 7202-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45904.63057870371</v>
+        <v>44965</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5983,7 +5978,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6020,14 +6015,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 58548-2024</t>
+          <t>A 5313-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45635.45878472222</v>
+        <v>45331.39503472222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6040,7 +6035,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6077,14 +6072,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 24055-2025</t>
+          <t>A 19044-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45796</v>
+        <v>45047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6097,7 +6092,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6134,14 +6129,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5559-2024</t>
+          <t>A 19045-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45334</v>
+        <v>45047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6154,7 +6149,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6191,14 +6186,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 53407-2025</t>
+          <t>A 41692-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45959.57350694444</v>
+        <v>45902.4041087963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6211,7 +6206,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6248,14 +6243,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43621-2025</t>
+          <t>A 10273-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45911.681875</v>
+        <v>44986</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6268,7 +6263,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>12.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6305,14 +6300,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 18645-2023</t>
+          <t>A 42197-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45043</v>
+        <v>45904.48486111111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6325,7 +6320,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6362,14 +6357,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 4467-2022</t>
+          <t>A 42295-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44589</v>
+        <v>45904.63057870371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6382,7 +6377,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6419,14 +6414,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 54804-2025</t>
+          <t>A 19178-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45966.64116898148</v>
+        <v>45769</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6439,7 +6434,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6476,14 +6471,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 54770-2025</t>
+          <t>A 26121-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45966.60803240741</v>
+        <v>45091.44384259259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6496,7 +6491,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6533,14 +6528,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 58020-2021</t>
+          <t>A 6101-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44484</v>
+        <v>45337</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6553,7 +6548,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6590,14 +6585,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 55033-2025</t>
+          <t>A 33204-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45967</v>
+        <v>45840.61181712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6610,7 +6605,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6647,14 +6642,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 26863-2025</t>
+          <t>A 43621-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45810.69763888889</v>
+        <v>45911.681875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6667,7 +6662,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6704,14 +6699,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 1599-2025</t>
+          <t>A 2039-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45670.58930555556</v>
+        <v>45672</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6723,13 +6718,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>18.8</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6766,14 +6756,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 55842-2025</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45973.29060185186</v>
+        <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6785,13 +6775,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6828,14 +6813,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46810-2025</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45926.69480324074</v>
+        <v>45068</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6848,7 +6833,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6885,14 +6870,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46809-2025</t>
+          <t>A 27638-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45926.69324074074</v>
+        <v>45813</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6905,7 +6890,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6942,14 +6927,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1157-2025</t>
+          <t>A 12616-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45666.75922453704</v>
+        <v>45733</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6962,7 +6947,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6999,14 +6984,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 53910-2023</t>
+          <t>A 9769-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45231.55751157407</v>
+        <v>45716.48861111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7019,7 +7004,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7056,14 +7041,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40240-2024</t>
+          <t>A 1599-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45554.61458333334</v>
+        <v>45670.58930555556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7075,8 +7060,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>3.6</v>
+        <v>18.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7113,14 +7103,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29773-2025</t>
+          <t>A 44343-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45825.63271990741</v>
+        <v>44839.67604166667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7133,7 +7123,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7170,14 +7160,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 19045-2023</t>
+          <t>A 11794-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45047</v>
+        <v>44994</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7190,7 +7180,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7227,14 +7217,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 33204-2025</t>
+          <t>A 11289-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45840.61181712963</v>
+        <v>45726.42762731481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7246,8 +7236,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7284,14 +7279,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 58428-2025</t>
+          <t>A 40329-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45985.60064814815</v>
+        <v>45555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7304,7 +7299,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7341,14 +7336,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 22323-2023</t>
+          <t>A 27947-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45068</v>
+        <v>45098.66921296297</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7361,7 +7356,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7398,14 +7393,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 41008-2024</t>
+          <t>A 33336-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45559</v>
+        <v>45128.33729166666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7418,7 +7413,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7455,14 +7450,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30747-2023</t>
+          <t>A 33337-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45112</v>
+        <v>45128.3400925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7474,13 +7469,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7517,14 +7507,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30802-2023</t>
+          <t>A 46809-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45112</v>
+        <v>45926.69324074074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7536,13 +7526,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7579,14 +7564,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11794-2023</t>
+          <t>A 46810-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44994</v>
+        <v>45926.69480324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7599,7 +7584,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7636,14 +7621,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 39873-2024</t>
+          <t>A 58935-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45553</v>
+        <v>45250</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7655,13 +7640,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7694,38 +7674,18 @@
         <v>0</v>
       </c>
       <c r="R112" s="2" t="inlineStr"/>
-      <c r="U112">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="V112">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="W112">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="X112">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="Y112">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3643-2023</t>
+          <t>A 62841-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44950.69260416667</v>
+        <v>45270</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7738,7 +7698,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7775,14 +7735,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 12616-2025</t>
+          <t>A 37898-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45733</v>
+        <v>45881.55846064815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7795,7 +7755,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7832,14 +7792,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27638-2025</t>
+          <t>A 38297-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45813</v>
+        <v>45883.45506944445</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7852,7 +7812,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7889,14 +7849,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1217-2026</t>
+          <t>A 58020-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46031.39998842592</v>
+        <v>44484</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7909,7 +7869,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>12</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7953,7 +7913,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8003,14 +7963,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 54959-2023</t>
+          <t>A 14169-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45236</v>
+        <v>45740.51894675926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8023,7 +7983,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8060,14 +8020,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 12961-2023</t>
+          <t>A 41551-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45001.80307870371</v>
+        <v>45560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8080,7 +8040,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8117,14 +8077,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 31113-2023</t>
+          <t>A 6843-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45113</v>
+        <v>45342.62711805556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8137,7 +8097,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8174,14 +8134,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 11383-2023</t>
+          <t>A 6140-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44993.45693287037</v>
+        <v>45698.3849537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8194,7 +8154,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8231,14 +8191,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 48268-2021</t>
+          <t>A 12140-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44449.66981481481</v>
+        <v>44998.46677083334</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8251,7 +8211,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>9.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8288,14 +8248,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 61492-2022</t>
+          <t>A 22323-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44916.47408564815</v>
+        <v>45068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8308,7 +8268,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8345,14 +8305,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 39871-2024</t>
+          <t>A 41350-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45553</v>
+        <v>45174</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8366,11 +8326,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8407,14 +8367,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47906-2023</t>
+          <t>A 46877-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45204</v>
+        <v>44848</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8464,14 +8424,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 38922-2023</t>
+          <t>A 54959-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45163.57961805556</v>
+        <v>45236</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8484,7 +8444,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8521,14 +8481,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2038-2025</t>
+          <t>A 13757-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45672.49553240741</v>
+        <v>45737.41730324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8540,8 +8500,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>12.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8578,14 +8543,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 37898-2025</t>
+          <t>A 53407-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45881.55846064815</v>
+        <v>45959.57350694444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8598,7 +8563,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8635,14 +8600,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 34885-2022</t>
+          <t>A 10787-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44796.51725694445</v>
+        <v>44989</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8655,7 +8620,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8692,14 +8657,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 61584-2025</t>
+          <t>A 10791-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46002.34265046296</v>
+        <v>44989</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8712,7 +8677,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8749,14 +8714,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 38297-2025</t>
+          <t>A 10467-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45883.45506944445</v>
+        <v>45720.83359953704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8769,7 +8734,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8806,14 +8771,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 24913-2023</t>
+          <t>A 54770-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45085.49424768519</v>
+        <v>45966.60803240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8826,7 +8791,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8863,14 +8828,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 40696-2022</t>
+          <t>A 55033-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44824</v>
+        <v>45967</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8883,7 +8848,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8920,14 +8885,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 30603-2021</t>
+          <t>A 54804-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44365.28403935185</v>
+        <v>45966.64116898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8940,7 +8905,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8977,14 +8942,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 28579-2022</t>
+          <t>A 3602-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44748</v>
+        <v>44950.58821759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8997,7 +8962,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9034,14 +8999,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61581-2025</t>
+          <t>A 55842-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46002.33817129629</v>
+        <v>45973.29060185186</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9053,8 +9018,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9091,14 +9061,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 10467-2025</t>
+          <t>A 12963-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45720.83359953704</v>
+        <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9111,7 +9081,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9148,14 +9118,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33262-2023</t>
+          <t>A 14734-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45127.56380787037</v>
+        <v>45397.5890625</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9168,7 +9138,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9205,14 +9175,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 62841-2023</t>
+          <t>A 30754-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45270</v>
+        <v>44764</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9225,7 +9195,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9262,14 +9232,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 37042-2024</t>
+          <t>A 58428-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45539</v>
+        <v>45985.60064814815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9282,7 +9252,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9319,14 +9289,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 62978-2025</t>
+          <t>A 61733-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46009.47902777778</v>
+        <v>45649.34486111111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9338,13 +9308,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9381,14 +9346,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 41233-2024</t>
+          <t>A 14353-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45559</v>
+        <v>45393.83645833333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9401,7 +9366,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9438,14 +9403,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 62939-2025</t>
+          <t>A 5373-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46009.4262037037</v>
+        <v>45331</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9457,13 +9422,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9507,7 +9467,7 @@
         <v>45747.9108449074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9557,14 +9517,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 62961-2025</t>
+          <t>A 59036-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46009.45863425926</v>
+        <v>44490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9582,7 +9542,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.6</v>
+        <v>25.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9619,14 +9579,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56267-2021</t>
+          <t>A 61584-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44479.61296296296</v>
+        <v>46002.34265046296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9639,7 +9599,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9676,14 +9636,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 6223-2026</t>
+          <t>A 30747-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46055.44097222222</v>
+        <v>45112</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9695,8 +9655,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9733,14 +9698,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 39867-2024</t>
+          <t>A 61581-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45553.46100694445</v>
+        <v>46002.33817129629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9752,13 +9717,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9795,14 +9755,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 14176-2025</t>
+          <t>A 14702-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45740.52974537037</v>
+        <v>45014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9815,7 +9775,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.5</v>
+        <v>12.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9852,14 +9812,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 33336-2023</t>
+          <t>A 61644-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45128.33729166666</v>
+        <v>45263</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9872,7 +9832,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9909,14 +9869,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 33337-2023</t>
+          <t>A 18272-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45128.3400925926</v>
+        <v>45421.69873842593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9929,7 +9889,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9966,14 +9926,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 59036-2021</t>
+          <t>A 47906-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44490</v>
+        <v>45204</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9985,13 +9945,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>25.2</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10028,14 +9983,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 27947-2023</t>
+          <t>A 62939-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45098.66921296297</v>
+        <v>46009.4262037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10047,8 +10002,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10085,14 +10045,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 36516-2023</t>
+          <t>A 62961-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45153</v>
+        <v>46009.45863425926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10106,11 +10066,11 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10147,14 +10107,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 4470-2022</t>
+          <t>A 62978-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44589</v>
+        <v>46009.47902777778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10166,8 +10126,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10204,14 +10169,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 13757-2025</t>
+          <t>A 14176-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45737.41730324074</v>
+        <v>45740.52974537037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10223,13 +10188,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>12.8</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10266,14 +10226,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 38955-2023</t>
+          <t>A 24913-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45163</v>
+        <v>45085.49424768519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10286,7 +10246,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10323,14 +10283,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 7202-2023</t>
+          <t>A 41233-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44965</v>
+        <v>45559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10343,7 +10303,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10380,14 +10340,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 6843-2024</t>
+          <t>A 21042-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45342.62711805556</v>
+        <v>45056</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10400,7 +10360,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10437,14 +10397,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 19044-2023</t>
+          <t>A 6223-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45047</v>
+        <v>46055.44097222222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10457,7 +10417,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.3</v>
+        <v>5.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10494,14 +10454,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61733-2024</t>
+          <t>A 56635-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45649.34486111111</v>
+        <v>44893</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10514,7 +10474,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10551,14 +10511,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 10787-2023</t>
+          <t>A 33262-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44989</v>
+        <v>45127.56380787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10571,7 +10531,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10608,14 +10568,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10791-2023</t>
+          <t>A 33259-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44989</v>
+        <v>45127.56025462963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10628,7 +10588,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10665,14 +10625,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 47902-2023</t>
+          <t>A 11383-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45204.49861111111</v>
+        <v>44993.45693287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10685,7 +10645,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10722,14 +10682,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 36444-2022</t>
+          <t>A 47902-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44804.38798611111</v>
+        <v>45204.49861111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10742,7 +10702,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10779,14 +10739,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 22137-2022</t>
+          <t>A 26702-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44712</v>
+        <v>45093</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10799,7 +10759,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10836,14 +10796,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 26763-2023</t>
+          <t>A 41008-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45093.46813657408</v>
+        <v>45559</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10856,7 +10816,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10893,14 +10853,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 10617-2022</t>
+          <t>A 64615-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44624</v>
+        <v>45281.52231481481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10913,7 +10873,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10950,14 +10910,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 22198-2023</t>
+          <t>A 16914-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45069.78799768518</v>
+        <v>44676.43390046297</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10970,7 +10930,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11007,14 +10967,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 9769-2025</t>
+          <t>A 10617-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45716.48861111111</v>
+        <v>44624</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +10987,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>7.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11064,14 +11024,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 46877-2022</t>
+          <t>A 40240-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44848</v>
+        <v>45554.61458333334</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11084,7 +11044,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11121,14 +11081,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 16914-2022</t>
+          <t>A 33907-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44676.43390046297</v>
+        <v>45523.37623842592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11141,7 +11101,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11178,14 +11138,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 12596-2025</t>
+          <t>A 33910-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45733.28476851852</v>
+        <v>45523.38473379629</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11198,7 +11158,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11235,14 +11195,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 18274-2024</t>
+          <t>A 36516-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45421.70460648148</v>
+        <v>45153</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11254,8 +11214,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11292,14 +11257,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 20800-2024</t>
+          <t>A 2038-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45438</v>
+        <v>45672.49553240741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11312,7 +11277,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11349,14 +11314,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11289-2025</t>
+          <t>A 1157-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45726.42762731481</v>
+        <v>45666.75922453704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11368,13 +11333,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11411,14 +11371,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 12516-2025</t>
+          <t>A 31113-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45730.65107638889</v>
+        <v>45113</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11430,13 +11390,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11473,14 +11428,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 30754-2022</t>
+          <t>A 1217-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44764</v>
+        <v>46031.39998842592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11493,7 +11448,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>9.300000000000001</v>
+        <v>12</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11530,14 +11485,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 6101-2024</t>
+          <t>A 20787-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45337</v>
+        <v>44701</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11550,7 +11505,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11587,14 +11542,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 18272-2024</t>
+          <t>A 11289-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45421.69873842593</v>
+        <v>44992</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11606,8 +11561,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11644,14 +11604,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11287-2025</t>
+          <t>A 9933-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45726.42666666667</v>
+        <v>46073.45722222222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11663,13 +11623,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11706,14 +11661,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 37450-2024</t>
+          <t>A 22137-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45540.68736111111</v>
+        <v>44712</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11681,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11763,14 +11718,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 33907-2024</t>
+          <t>A 54227-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45523.37623842592</v>
+        <v>45616</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11738,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11820,14 +11775,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 33910-2024</t>
+          <t>A 39872-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45523.38473379629</v>
+        <v>45553</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11839,8 +11794,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11877,14 +11837,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 37491-2021</t>
+          <t>A 18645-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44399.29892361111</v>
+        <v>45043</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11857,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11934,14 +11894,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 5373-2024</t>
+          <t>A 29444-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45331</v>
+        <v>45483.86464120371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11914,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11991,14 +11951,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 12140-2023</t>
+          <t>A 10746-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44998.46677083334</v>
+        <v>44988</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12010,8 +11970,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12048,14 +12013,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 20787-2022</t>
+          <t>A 39873-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44701</v>
+        <v>45553</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12067,8 +12032,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12101,6 +12071,26 @@
         <v>0</v>
       </c>
       <c r="R188" s="2" t="inlineStr"/>
+      <c r="U188">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="V188">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="W188">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="X188">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="Y188">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
@@ -12112,7 +12102,7 @@
         <v>44589</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12162,14 +12152,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 3602-2023</t>
+          <t>A 36444-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44950.58821759259</v>
+        <v>44804.38798611111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12182,7 +12172,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12219,14 +12209,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 11289-2023</t>
+          <t>A 22198-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44992</v>
+        <v>45069.78799768518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12238,13 +12228,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12281,14 +12266,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 20344-2023</t>
+          <t>A 38955-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45056</v>
+        <v>45163</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12301,7 +12286,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12338,14 +12323,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 18382-2023</t>
+          <t>A 18400-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45042.27751157407</v>
+        <v>45762.59549768519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12358,7 +12343,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12395,14 +12380,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1607-2023</t>
+          <t>A 11287-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44937</v>
+        <v>45726.42666666667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12414,8 +12399,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12452,14 +12442,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 64615-2023</t>
+          <t>A 20344-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45281.52231481481</v>
+        <v>45056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12472,7 +12462,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12509,14 +12499,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 46398-2021</t>
+          <t>A 39875-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44443.77010416667</v>
+        <v>45553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12528,8 +12518,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12566,14 +12561,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 41551-2024</t>
+          <t>A 39878-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45560</v>
+        <v>45553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12585,8 +12580,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12623,14 +12623,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 44650-2024</t>
+          <t>A 61314-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45574</v>
+        <v>45646.31635416667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12680,14 +12680,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 26121-2023</t>
+          <t>A 5559-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45091.44384259259</v>
+        <v>45334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12737,14 +12737,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 12963-2023</t>
+          <t>A 48268-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45001</v>
+        <v>44449.66981481481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12794,14 +12794,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 37598-2024</t>
+          <t>A 3643-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45541.47604166667</v>
+        <v>44950.69260416667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12851,14 +12851,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 10746-2023</t>
+          <t>A 28824-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44988</v>
+        <v>45478</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12913,14 +12913,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 2175-2024</t>
+          <t>A 50405-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45309</v>
+        <v>45601.35753472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12970,14 +12970,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 18400-2025</t>
+          <t>A 4470-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45762.59549768519</v>
+        <v>44589</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13027,14 +13027,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 39875-2024</t>
+          <t>A 28579-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45553</v>
+        <v>44748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13046,13 +13046,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13089,14 +13084,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 39878-2024</t>
+          <t>A 30802-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45553</v>
+        <v>45112</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13151,14 +13146,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 19178-2025</t>
+          <t>A 37564-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45769</v>
+        <v>45541.44607638889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13171,7 +13166,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.6</v>
+        <v>11.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13208,14 +13203,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 56282-2023</t>
+          <t>A 39867-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45241.82328703703</v>
+        <v>45553.46100694445</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13227,8 +13222,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13265,14 +13265,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 14702-2023</t>
+          <t>A 30603-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45014</v>
+        <v>44365.28403935185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>12.1</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13322,14 +13322,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 61470-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45068</v>
+        <v>45646</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13379,14 +13379,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 1574-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45068</v>
+        <v>45670.55908564815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13398,8 +13398,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>0.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13436,14 +13441,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 37564-2024</t>
+          <t>A 62160-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45541.44607638889</v>
+        <v>45656.80090277778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13456,7 +13461,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>11.1</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13493,14 +13498,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 28620-2023</t>
+          <t>A 50104-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45103.5975462963</v>
+        <v>45600.40037037037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13513,7 +13518,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13550,14 +13555,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 54227-2024</t>
+          <t>A 33334-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45616</v>
+        <v>45128.33488425926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13570,7 +13575,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13607,14 +13612,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 6140-2025</t>
+          <t>A 55727-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45698.3849537037</v>
+        <v>45622.90070601852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13627,7 +13632,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13664,14 +13669,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 10273-2023</t>
+          <t>A 10274-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
         <v>44986</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13684,7 +13689,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>12.8</v>
+        <v>2.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13721,14 +13726,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 50405-2024</t>
+          <t>A 58548-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45601.35753472222</v>
+        <v>45635.45878472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13741,7 +13746,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>6.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13775,17 +13780,17 @@
       </c>
       <c r="R217" s="2" t="inlineStr"/>
     </row>
-    <row r="218">
+    <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 28824-2024</t>
+          <t>A 24055-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45478</v>
+        <v>45796</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13797,13 +13802,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13836,6 +13836,63 @@
         <v>0</v>
       </c>
       <c r="R218" s="2" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>A 26863-2025</t>
+        </is>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>45810.69763888889</v>
+      </c>
+      <c r="C219" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45852.5584375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45373.57708333333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>46006.64673611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44806</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45566</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45721.39129629629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45447.5825462963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45727.46729166667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>45918.45165509259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45769</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>45362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>45985.60377314815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45656</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45478.65488425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44746</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45305</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44722.36616898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44510.55405092592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44830</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44843</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44824</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44916.47408564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45373.57236111111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44937</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>44479.61296296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44399.29892361111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44796.51725694445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45540.68736111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>45093.46813657408</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>45231.55751157407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45042.27751157407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45001.80307870371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45309</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45134.62525462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>44443.77010416667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45163.57961805556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45438</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45541.47604166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45421.70460648148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45103.5975462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45733.28476851852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45730.65107638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>45241.82328703703</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45574</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45539</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45825.63271990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44965</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45331.39503472222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45902.4041087963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>44986</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45904.48486111111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>45904.63057870371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45769</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45091.44384259259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>45337</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45840.61181712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45911.681875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45672</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45068</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45813</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45733</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45716.48861111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45670.58930555556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44839.67604166667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44994</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45726.42762731481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>45555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45098.66921296297</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>45128.33729166666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>45128.3400925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45926.69324074074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>45926.69480324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>45250</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>45270</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45881.55846064815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45883.45506944445</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44484</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45740.51894675926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>45342.62711805556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45698.3849537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44998.46677083334</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>45068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>45174</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44848</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45236</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45737.41730324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45959.57350694444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44989</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44989</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45720.83359953704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45966.60803240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>45967</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>45966.64116898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44950.58821759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>45973.29060185186</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>45397.5890625</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44764</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45985.60064814815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>45649.34486111111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45393.83645833333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>45331</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45747.9108449074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>46002.34265046296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45112</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>46002.33817129629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45263</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>45421.69873842593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45204</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>46009.4262037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>46009.45863425926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>46009.47902777778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>45740.52974537037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>45085.49424768519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>45559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>45056</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>46055.44097222222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44893</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>45127.56380787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45127.56025462963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44993.45693287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>45204.49861111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>45093</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>45559</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>45281.52231481481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44676.43390046297</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>44624</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45554.61458333334</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45523.37623842592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>45523.38473379629</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>45153</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>45672.49553240741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>45666.75922453704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>45113</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>46031.39998842592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44701</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44992</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>46073.45722222222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44712</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45616</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45553</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45043</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45483.86464120371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44988</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>45553</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44589</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44804.38798611111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45069.78799768518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45163</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45762.59549768519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45726.42666666667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>45646.31635416667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>45334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>44449.66981481481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44950.69260416667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>45478</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45601.35753472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44589</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45112</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45541.44607638889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45553.46100694445</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44365.28403935185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45646</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45670.55908564815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>45656.80090277778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>45600.40037037037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45128.33488425926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>45622.90070601852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44986</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>45635.45878472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>45796</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>45810.69763888889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45852.5584375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45373.57708333333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>46006.64673611111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44806</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45566</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45721.39129629629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45447.5825462963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45727.46729166667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>45918.45165509259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45769</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>45362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>45985.60377314815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45656</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45478.65488425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44746</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45305</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45789</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44722.36616898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44510.55405092592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44508</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44734</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44830</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44843</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44830</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44824</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44916.47408564815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45373.57236111111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44937</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>44479.61296296296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>44399.29892361111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44796.51725694445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45540.68736111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>45093.46813657408</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45553</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>45231.55751157407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45042.27751157407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45001.80307870371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45309</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45134.62525462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>44443.77010416667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45163.57961805556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45438</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45541.47604166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45421.70460648148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45103.5975462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45733.28476851852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45730.65107638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>45241.82328703703</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45574</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45539</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45825.63271990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44965</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45331.39503472222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45902.4041087963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>44986</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45904.48486111111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>45904.63057870371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45769</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45091.44384259259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>45337</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45840.61181712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45911.681875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45672</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45068</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45813</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45733</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45716.48861111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45670.58930555556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44839.67604166667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>44994</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45726.42762731481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>45555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>45098.66921296297</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>45128.33729166666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>45128.3400925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>45926.69324074074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>45926.69480324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>45250</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>45270</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45881.55846064815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45883.45506944445</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44484</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44462</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45740.51894675926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>45342.62711805556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45698.3849537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44998.46677083334</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>45068</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>45174</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44848</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45236</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45737.41730324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45959.57350694444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44989</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44989</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45720.83359953704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45966.60803240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>45967</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>45966.64116898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44950.58821759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>45973.29060185186</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>45397.5890625</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44764</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45985.60064814815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>45649.34486111111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45393.83645833333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>45331</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45747.9108449074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>46002.34265046296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45112</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>46002.33817129629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45263</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>45421.69873842593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45204</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>46009.4262037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>46009.45863425926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>46009.47902777778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>45740.52974537037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>45085.49424768519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>45559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>45056</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>46055.44097222222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44893</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>45127.56380787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45127.56025462963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44993.45693287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>45204.49861111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>45093</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>45559</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>45281.52231481481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44676.43390046297</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>44624</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45554.61458333334</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45523.37623842592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>45523.38473379629</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>45153</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>45672.49553240741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>45666.75922453704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>45113</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>46031.39998842592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44701</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44992</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>46073.45722222222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44712</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45616</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45553</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45043</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45483.86464120371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>44988</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>45553</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44589</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44804.38798611111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45069.78799768518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45163</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45762.59549768519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45726.42666666667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45553</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>45646.31635416667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>45334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>44449.66981481481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44950.69260416667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>45478</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45601.35753472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44589</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>44748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45112</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45541.44607638889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45553.46100694445</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44365.28403935185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45646</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45670.55908564815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>45656.80090277778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>45600.40037037037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45128.33488425926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>45622.90070601852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44986</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>45635.45878472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>45796</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>45810.69763888889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,14 +669,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 35099-2025</t>
+          <t>A 37012-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45852.5584375</v>
+        <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -688,13 +688,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>16.5</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -706,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -718,524 +713,529 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
         <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 11678-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45373.57708333333</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 33104-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45517</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Blekspindling agg.
+Garnlav</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 42748-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Granriska
+Rostfläck</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 62297-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>46006.64673611111</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 35099-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45852.5584375</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 11678-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45373.57708333333</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62297-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46006.64673611111</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 37012-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44806</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 33104-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45517</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Blekspindling agg.
-Garnlav</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 42748-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Granriska
-Rostfläck</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 10507-2025</t>
+          <t>A 1515-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45721.39129629629</v>
+        <v>45305</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,13 +1247,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>10.4</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1262,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1277,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1287,49 +1282,49 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
         <v/>
       </c>
       <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 22580-2024</t>
+          <t>A 28147-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45447.5825462963</v>
+        <v>44746</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1342,7 +1337,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1376,49 +1371,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
         <v/>
       </c>
       <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 11637-2025</t>
+          <t>A 10507-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45727.46729166667</v>
+        <v>45721.39129629629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,10 +1431,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>10.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1451,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1460,41 +1455,45 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10507-2025 artfynd.xlsx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10507-2025 karta.png", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10507-2025 FSC-klagomål.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10507-2025 FSC-klagomål mail.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10507-2025 tillsynsbegäran.docx", "A 10507-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10507-2025 tillsynsbegäran mail.docx", "A 10507-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 10507-2025 prioriterade fågelarter.docx", "A 10507-2025")</f>
         <v/>
       </c>
     </row>
@@ -1508,7 +1507,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,14 +1594,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 44857-2025</t>
+          <t>A 19176-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45918.45165509259</v>
+        <v>45769</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1615,10 +1614,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1649,45 +1648,49 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 19176-2025</t>
+          <t>A 10680-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45769</v>
+        <v>45368</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,22 +1703,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1727,56 +1730,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 9690-2024</t>
+          <t>A 22580-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45362</v>
+        <v>45447.5825462963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1789,7 +1788,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1827,45 +1826,45 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 58430-2025</t>
+          <t>A 44857-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45985.60377314815</v>
+        <v>45918.45165509259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,17 +1877,17 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1912,45 +1911,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 41241-2024</t>
+          <t>A 9690-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45559</v>
+        <v>45362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,10 +1962,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1997,45 +1996,49 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Rökfingersvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 9690-2024 artfynd.xlsx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 9690-2024 karta.png", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 9690-2024 FSC-klagomål.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 9690-2024 FSC-klagomål mail.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 9690-2024 tillsynsbegäran.docx", "A 9690-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 9690-2024 tillsynsbegäran mail.docx", "A 9690-2024")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 9690-2024 prioriterade fågelarter.docx", "A 9690-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 290-2025</t>
+          <t>A 11637-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45656</v>
+        <v>45727.46729166667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2047,24 +2050,29 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
@@ -2072,55 +2080,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10680-2024</t>
+          <t>A 290-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45368</v>
+        <v>45656</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,13 +2141,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2148,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2157,41 +2165,41 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 290-2025 artfynd.xlsx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 290-2025 karta.png", "A 290-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 290-2025 FSC-klagomål.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 290-2025 FSC-klagomål mail.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 290-2025 tillsynsbegäran.docx", "A 290-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 290-2025 tillsynsbegäran mail.docx", "A 290-2025")</f>
         <v/>
       </c>
     </row>
@@ -2205,7 +2213,7 @@
         <v>45478.65488425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2288,14 +2296,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 28147-2022</t>
+          <t>A 58430-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44746</v>
+        <v>45985.60377314815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2316,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2317,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2332,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2342,49 +2350,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 1515-2024</t>
+          <t>A 22805-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45305</v>
+        <v>45789</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2397,7 +2401,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>7.7</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2435,45 +2439,45 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 1515-2024 artfynd.xlsx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 1515-2024 karta.png", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 1515-2024 FSC-klagomål.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 1515-2024 FSC-klagomål mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 1515-2024 tillsynsbegäran.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 1515-2024 tillsynsbegäran mail.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 1515-2024 prioriterade fågelarter.docx", "A 1515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 22805-2025</t>
+          <t>A 41241-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45789</v>
+        <v>45559</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,10 +2490,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7.7</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2520,35 +2524,31 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rökfingersvamp</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 41241-2024 artfynd.xlsx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 41241-2024 karta.png", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 41241-2024 FSC-klagomål.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 41241-2024 FSC-klagomål mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 41241-2024 tillsynsbegäran.docx", "A 41241-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 41241-2024 tillsynsbegäran mail.docx", "A 41241-2024")</f>
         <v/>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
         <v>44279</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44449.96079861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44467</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>44601</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44656</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,14 +2907,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 23565-2021</t>
+          <t>A 23751-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44334</v>
+        <v>44722.36616898148</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2964,14 +2964,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23751-2022</t>
+          <t>A 64156-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44722.36616898148</v>
+        <v>44510.55405092592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2983,8 +2983,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3021,14 +3026,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 64156-2021</t>
+          <t>A 23565-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44510.55405092592</v>
+        <v>44334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3040,13 +3045,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>44443.76373842593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44519</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44830</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3316,14 +3316,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63567-2021</t>
+          <t>A 21486-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44508</v>
+        <v>44321</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>44581</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3430,14 +3430,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21486-2021</t>
+          <t>A 26052-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44321</v>
+        <v>44734</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3487,14 +3487,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26052-2022</t>
+          <t>A 33820-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44734</v>
+        <v>44378</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3544,14 +3544,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33820-2021</t>
+          <t>A 8047-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44378</v>
+        <v>44609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3601,14 +3601,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8047-2022</t>
+          <t>A 63567-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44609</v>
+        <v>44508</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3658,14 +3658,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41269-2021</t>
+          <t>A 41977-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44424</v>
+        <v>44830</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3677,8 +3677,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3715,14 +3720,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41977-2022</t>
+          <t>A 41269-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44830</v>
+        <v>44424</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3734,13 +3739,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3777,14 +3777,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11661-2022</t>
+          <t>A 58380-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44632</v>
+        <v>44488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3834,14 +3834,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 58380-2021</t>
+          <t>A 11661-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44488</v>
+        <v>44632</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>44748.57869212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44491.59105324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44443.7766550926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4062,14 +4062,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 5043-2022</t>
+          <t>A 45105-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44593</v>
+        <v>44843</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4119,14 +4119,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45105-2022</t>
+          <t>A 5043-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44843</v>
+        <v>44593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>44609.46233796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4233,14 +4233,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 67508-2021</t>
+          <t>A 41979-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44524</v>
+        <v>44830</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4252,8 +4252,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4290,14 +4295,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 41979-2022</t>
+          <t>A 29444-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44830</v>
+        <v>45483.86464120371</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4309,13 +4314,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4352,14 +4352,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 4467-2022</t>
+          <t>A 67508-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44589</v>
+        <v>44524</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4409,14 +4409,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40696-2022</t>
+          <t>A 1157-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44824</v>
+        <v>45666.75922453704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 61492-2022</t>
+          <t>A 11676-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44916.47408564815</v>
+        <v>45373.57236111111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.9</v>
+        <v>0.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4523,14 +4523,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 11676-2024</t>
+          <t>A 54959-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45373.57236111111</v>
+        <v>45236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4580,14 +4580,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1607-2023</t>
+          <t>A 12961-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44937</v>
+        <v>45001.80307870371</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4637,14 +4637,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56267-2021</t>
+          <t>A 21042-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44479.61296296296</v>
+        <v>45056</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4694,14 +4694,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 37491-2021</t>
+          <t>A 31113-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44399.29892361111</v>
+        <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4751,14 +4751,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34885-2022</t>
+          <t>A 11383-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44796.51725694445</v>
+        <v>44993.45693287037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4808,14 +4808,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 37450-2024</t>
+          <t>A 53910-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45540.68736111111</v>
+        <v>45231.55751157407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4865,14 +4865,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26763-2023</t>
+          <t>A 44343-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45093.46813657408</v>
+        <v>44839.67604166667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4922,14 +4922,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39871-2024</t>
+          <t>A 48268-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45553</v>
+        <v>44449.66981481481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4941,13 +4941,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4984,14 +4979,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53910-2023</t>
+          <t>A 61492-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45231.55751157407</v>
+        <v>44916.47408564815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5004,7 +4999,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5041,14 +5036,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18382-2023</t>
+          <t>A 39871-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45042.27751157407</v>
+        <v>45553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5060,8 +5055,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5098,14 +5098,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 12961-2023</t>
+          <t>A 40240-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45001.80307870371</v>
+        <v>45554.61458333334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5155,14 +5155,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2175-2024</t>
+          <t>A 47906-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45309</v>
+        <v>45204</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5212,14 +5212,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 33963-2023</t>
+          <t>A 56635-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45134.62525462963</v>
+        <v>44893</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5269,14 +5269,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46398-2021</t>
+          <t>A 14353-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44443.77010416667</v>
+        <v>45393.83645833333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>45163.57961805556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5383,14 +5383,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20800-2024</t>
+          <t>A 19045-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45438</v>
+        <v>45047</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5440,14 +5440,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37598-2024</t>
+          <t>A 39872-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45541.47604166667</v>
+        <v>45553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5457,6 +5457,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -5497,14 +5502,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 18274-2024</t>
+          <t>A 2038-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45421.70460648148</v>
+        <v>45672.49553240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5517,7 +5522,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5554,14 +5559,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28620-2023</t>
+          <t>A 26702-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45103.5975462963</v>
+        <v>45093</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5574,7 +5579,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5611,14 +5616,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12596-2025</t>
+          <t>A 40329-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45733.28476851852</v>
+        <v>45555</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5631,7 +5636,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5668,14 +5673,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 12516-2025</t>
+          <t>A 34885-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45730.65107638889</v>
+        <v>44796.51725694445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5687,13 +5692,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5730,14 +5730,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56282-2023</t>
+          <t>A 62841-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45241.82328703703</v>
+        <v>45270</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5787,14 +5787,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 44650-2024</t>
+          <t>A 37042-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45574</v>
+        <v>45539</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5844,14 +5844,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 37042-2024</t>
+          <t>A 24913-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45539</v>
+        <v>45085.49424768519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5901,14 +5901,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29773-2025</t>
+          <t>A 40696-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45825.63271990741</v>
+        <v>44824</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5958,14 +5958,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7202-2023</t>
+          <t>A 30603-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44965</v>
+        <v>44365.28403935185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6015,14 +6015,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5313-2024</t>
+          <t>A 15597-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45331.39503472222</v>
+        <v>45747.9108449074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>8.699999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6072,14 +6072,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 19044-2023</t>
+          <t>A 28579-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45047</v>
+        <v>44748</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6129,14 +6129,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19045-2023</t>
+          <t>A 10467-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45047</v>
+        <v>45720.83359953704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6186,14 +6186,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41692-2025</t>
+          <t>A 22323-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45902.4041087963</v>
+        <v>45068</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6243,14 +6243,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10273-2023</t>
+          <t>A 56267-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44986</v>
+        <v>44479.61296296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>12.8</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6300,14 +6300,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42197-2025</t>
+          <t>A 41008-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45904.48486111111</v>
+        <v>45559</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6357,14 +6357,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42295-2025</t>
+          <t>A 58935-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45904.63057870371</v>
+        <v>45250</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6414,14 +6414,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 19178-2025</t>
+          <t>A 33262-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45769</v>
+        <v>45127.56380787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6471,14 +6471,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26121-2023</t>
+          <t>A 14734-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45091.44384259259</v>
+        <v>45397.5890625</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6528,14 +6528,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6101-2024</t>
+          <t>A 30747-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45337</v>
+        <v>45112</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6547,8 +6547,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6585,14 +6590,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33204-2025</t>
+          <t>A 30802-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45840.61181712963</v>
+        <v>45112</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6602,6 +6607,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -6642,14 +6652,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43621-2025</t>
+          <t>A 39867-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45911.681875</v>
+        <v>45553.46100694445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6661,8 +6671,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6699,14 +6714,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2039-2025</t>
+          <t>A 11794-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45672</v>
+        <v>44994</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6734,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6756,14 +6771,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 39873-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45068</v>
+        <v>45553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6775,8 +6790,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6809,18 +6829,38 @@
         <v>0</v>
       </c>
       <c r="R97" s="2" t="inlineStr"/>
+      <c r="U97">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="V97">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="W97">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="X97">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
+      <c r="Y97">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21886-2023</t>
+          <t>A 36516-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45068</v>
+        <v>45153</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6832,8 +6872,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6870,14 +6915,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 27638-2025</t>
+          <t>A 3643-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45813</v>
+        <v>44950.69260416667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6935,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6927,14 +6972,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12616-2025</t>
+          <t>A 4470-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45733</v>
+        <v>44589</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6992,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6984,14 +7029,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 9769-2025</t>
+          <t>A 13757-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45716.48861111111</v>
+        <v>45737.41730324074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7003,8 +7048,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>12.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7041,14 +7091,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1599-2025</t>
+          <t>A 33259-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45670.58930555556</v>
+        <v>45127.56025462963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7060,13 +7110,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>18.8</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7103,14 +7148,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44343-2022</t>
+          <t>A 14176-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44839.67604166667</v>
+        <v>45740.52974537037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7123,7 +7168,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7160,14 +7205,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11794-2023</t>
+          <t>A 38955-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44994</v>
+        <v>45163</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7180,7 +7225,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>7.6</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7217,14 +7262,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11289-2025</t>
+          <t>A 51659-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45726.42762731481</v>
+        <v>44462</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,13 +7281,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7279,14 +7319,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 40329-2024</t>
+          <t>A 7202-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45555</v>
+        <v>44965</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7299,7 +7339,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7336,14 +7376,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27947-2023</t>
+          <t>A 6843-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45098.66921296297</v>
+        <v>45342.62711805556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7356,7 +7396,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7400,7 +7440,7 @@
         <v>45128.33729166666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7457,7 +7497,7 @@
         <v>45128.3400925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7507,14 +7547,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46809-2025</t>
+          <t>A 59036-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45926.69324074074</v>
+        <v>44490</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7526,8 +7566,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>25.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7564,14 +7609,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46810-2025</t>
+          <t>A 19044-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45926.69480324074</v>
+        <v>45047</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7629,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7621,14 +7666,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 58935-2023</t>
+          <t>A 18274-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45250</v>
+        <v>45421.70460648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7686,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7678,14 +7723,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62841-2023</t>
+          <t>A 61644-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45270</v>
+        <v>45263</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7743,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7735,14 +7780,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 37898-2025</t>
+          <t>A 61733-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45881.55846064815</v>
+        <v>45649.34486111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7800,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7792,14 +7837,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 38297-2025</t>
+          <t>A 27947-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45883.45506944445</v>
+        <v>45098.66921296297</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7857,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7849,14 +7894,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 58020-2021</t>
+          <t>A 33963-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44484</v>
+        <v>45134.62525462963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7906,14 +7951,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 51659-2021</t>
+          <t>A 20800-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44462</v>
+        <v>45438</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7971,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7963,14 +8008,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 14169-2025</t>
+          <t>A 11289-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45740.51894675926</v>
+        <v>45726.42762731481</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7982,8 +8027,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8020,14 +8070,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41551-2024</t>
+          <t>A 10787-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45560</v>
+        <v>44989</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8040,7 +8090,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8077,14 +8127,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 6843-2024</t>
+          <t>A 10791-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45342.62711805556</v>
+        <v>44989</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8097,7 +8147,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8134,14 +8184,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 6140-2025</t>
+          <t>A 38297-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45698.3849537037</v>
+        <v>45883.45506944445</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8154,7 +8204,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8191,14 +8241,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 12140-2023</t>
+          <t>A 47902-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44998.46677083334</v>
+        <v>45204.49861111111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8211,7 +8261,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8248,14 +8298,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 22323-2023</t>
+          <t>A 5559-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45068</v>
+        <v>45334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8268,7 +8318,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8305,14 +8355,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 41350-2023</t>
+          <t>A 36444-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45174</v>
+        <v>44804.38798611111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8324,13 +8374,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>8.800000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8367,14 +8412,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46877-2022</t>
+          <t>A 12516-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44848</v>
+        <v>45730.65107638889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8386,8 +8431,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8424,14 +8474,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 54959-2023</t>
+          <t>A 30754-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45236</v>
+        <v>44764</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8494,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8481,14 +8531,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 13757-2025</t>
+          <t>A 6101-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45737.41730324074</v>
+        <v>45337</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8500,13 +8550,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>12.8</v>
+        <v>4.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8543,14 +8588,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53407-2025</t>
+          <t>A 22137-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45959.57350694444</v>
+        <v>44712</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8563,7 +8608,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8600,14 +8645,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 10787-2023</t>
+          <t>A 18272-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44989</v>
+        <v>45421.69873842593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8620,7 +8665,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8657,14 +8702,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 10791-2023</t>
+          <t>A 26763-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44989</v>
+        <v>45093.46813657408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8722,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8714,14 +8759,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 10467-2025</t>
+          <t>A 18645-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45720.83359953704</v>
+        <v>45043</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8779,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8771,14 +8816,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 54770-2025</t>
+          <t>A 10617-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45966.60803240741</v>
+        <v>44624</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8791,7 +8836,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.5</v>
+        <v>7.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8828,14 +8873,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 55033-2025</t>
+          <t>A 4467-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45967</v>
+        <v>44589</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8893,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8885,14 +8930,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54804-2025</t>
+          <t>A 22198-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45966.64116898148</v>
+        <v>45069.78799768518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8950,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8942,14 +8987,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3602-2023</t>
+          <t>A 58020-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44950.58821759259</v>
+        <v>44484</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +9007,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8999,14 +9044,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 55842-2025</t>
+          <t>A 9769-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45973.29060185186</v>
+        <v>45716.48861111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9018,13 +9063,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9061,14 +9101,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 12963-2023</t>
+          <t>A 14169-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45001</v>
+        <v>45740.51894675926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9081,7 +9121,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9118,14 +9158,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 14734-2024</t>
+          <t>A 46877-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45397.5890625</v>
+        <v>44848</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9175,14 +9215,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30754-2022</t>
+          <t>A 11287-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44764</v>
+        <v>45726.42666666667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9194,8 +9234,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>9.300000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9232,14 +9277,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58428-2025</t>
+          <t>A 16914-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45985.60064814815</v>
+        <v>44676.43390046297</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9297,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9289,14 +9334,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 61733-2024</t>
+          <t>A 12596-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45649.34486111111</v>
+        <v>45733.28476851852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9309,7 +9354,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9346,14 +9391,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 14353-2024</t>
+          <t>A 5313-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45393.83645833333</v>
+        <v>45331.39503472222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9366,7 +9411,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9403,14 +9448,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 5373-2024</t>
+          <t>A 37450-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45331</v>
+        <v>45540.68736111111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9423,7 +9468,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9460,14 +9505,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 15597-2025</t>
+          <t>A 33907-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45747.9108449074</v>
+        <v>45523.37623842592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9480,7 +9525,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9517,14 +9562,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 59036-2021</t>
+          <t>A 33910-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44490</v>
+        <v>45523.38473379629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9536,13 +9581,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>25.2</v>
+        <v>3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9579,14 +9619,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61584-2025</t>
+          <t>A 37491-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46002.34265046296</v>
+        <v>44399.29892361111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9639,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9636,14 +9676,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 30747-2023</t>
+          <t>A 41692-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45112</v>
+        <v>45902.4041087963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9655,13 +9695,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9698,14 +9733,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61581-2025</t>
+          <t>A 5373-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46002.33817129629</v>
+        <v>45331</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9753,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9755,14 +9790,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 14702-2023</t>
+          <t>A 1599-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45014</v>
+        <v>45670.58930555556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9774,8 +9809,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>12.1</v>
+        <v>18.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9812,14 +9852,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61644-2023</t>
+          <t>A 12140-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45263</v>
+        <v>44998.46677083334</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9872,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9869,14 +9909,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 18272-2024</t>
+          <t>A 20787-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45421.69873842593</v>
+        <v>44701</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9929,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9926,14 +9966,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47906-2023</t>
+          <t>A 4468-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45204</v>
+        <v>44589</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9986,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9983,14 +10023,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 62939-2025</t>
+          <t>A 3602-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46009.4262037037</v>
+        <v>44950.58821759259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10002,13 +10042,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>6.8</v>
+        <v>2.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10045,14 +10080,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62961-2025</t>
+          <t>A 42197-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46009.45863425926</v>
+        <v>45904.48486111111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10064,13 +10099,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10107,14 +10137,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 62978-2025</t>
+          <t>A 42295-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46009.47902777778</v>
+        <v>45904.63057870371</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,13 +10156,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10169,14 +10194,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14176-2025</t>
+          <t>A 11289-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45740.52974537037</v>
+        <v>44992</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10188,8 +10213,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10226,14 +10256,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 24913-2023</t>
+          <t>A 20344-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45085.49424768519</v>
+        <v>45056</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10276,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10283,14 +10313,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 41233-2024</t>
+          <t>A 18382-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45559</v>
+        <v>45042.27751157407</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10303,7 +10333,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10340,14 +10370,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 21042-2023</t>
+          <t>A 1607-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45056</v>
+        <v>44937</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10360,7 +10390,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10397,14 +10427,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 6223-2026</t>
+          <t>A 43621-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46055.44097222222</v>
+        <v>45911.681875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10417,7 +10447,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10454,14 +10484,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 56635-2022</t>
+          <t>A 64615-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44893</v>
+        <v>45281.52231481481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10474,7 +10504,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10511,14 +10541,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 33262-2023</t>
+          <t>A 46398-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45127.56380787037</v>
+        <v>44443.77010416667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10531,7 +10561,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10568,14 +10598,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 33259-2023</t>
+          <t>A 41551-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45127.56025462963</v>
+        <v>45560</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10588,7 +10618,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10625,14 +10655,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 11383-2023</t>
+          <t>A 44650-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44993.45693287037</v>
+        <v>45574</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10645,7 +10675,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10682,14 +10712,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 47902-2023</t>
+          <t>A 26121-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45204.49861111111</v>
+        <v>45091.44384259259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10702,7 +10732,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10739,14 +10769,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 26702-2023</t>
+          <t>A 46810-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45093</v>
+        <v>45926.69480324074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10759,7 +10789,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10796,14 +10826,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 41008-2024</t>
+          <t>A 12963-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45559</v>
+        <v>45001</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10816,7 +10846,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10853,14 +10883,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 64615-2023</t>
+          <t>A 46809-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45281.52231481481</v>
+        <v>45926.69324074074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10873,7 +10903,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10910,14 +10940,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 16914-2022</t>
+          <t>A 37598-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44676.43390046297</v>
+        <v>45541.47604166667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10930,7 +10960,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10967,14 +10997,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 10617-2022</t>
+          <t>A 10746-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44624</v>
+        <v>44988</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,8 +11016,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>7.9</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11024,14 +11059,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 40240-2024</t>
+          <t>A 2175-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45554.61458333334</v>
+        <v>45309</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11044,7 +11079,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11081,14 +11116,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 33907-2024</t>
+          <t>A 18400-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45523.37623842592</v>
+        <v>45762.59549768519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11101,7 +11136,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11138,14 +11173,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 33910-2024</t>
+          <t>A 39875-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45523.38473379629</v>
+        <v>45553</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,8 +11192,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11195,14 +11235,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 36516-2023</t>
+          <t>A 39878-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45153</v>
+        <v>45553</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11220,7 +11260,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11257,14 +11297,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 2038-2025</t>
+          <t>A 19178-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45672.49553240741</v>
+        <v>45769</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11277,7 +11317,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11314,14 +11354,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1157-2025</t>
+          <t>A 56282-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45666.75922453704</v>
+        <v>45241.82328703703</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11334,7 +11374,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11371,14 +11411,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 31113-2023</t>
+          <t>A 14702-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45113</v>
+        <v>45014</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11391,7 +11431,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>12.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11428,14 +11468,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1217-2026</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46031.39998842592</v>
+        <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11448,7 +11488,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11485,14 +11525,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 20787-2022</t>
+          <t>A 21886-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44701</v>
+        <v>45068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11505,7 +11545,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11542,14 +11582,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 11289-2023</t>
+          <t>A 37564-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44992</v>
+        <v>45541.44607638889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,13 +11601,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>11.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11604,14 +11639,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 9933-2026</t>
+          <t>A 28620-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46073.45722222222</v>
+        <v>45103.5975462963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11624,7 +11659,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11661,14 +11696,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 22137-2022</t>
+          <t>A 54227-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44712</v>
+        <v>45616</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11681,7 +11716,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11718,14 +11753,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 54227-2024</t>
+          <t>A 53407-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45616</v>
+        <v>45959.57350694444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11738,7 +11773,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11775,14 +11810,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 39872-2024</t>
+          <t>A 6140-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45553</v>
+        <v>45698.3849537037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,13 +11829,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11837,14 +11867,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 18645-2023</t>
+          <t>A 54804-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45043</v>
+        <v>45966.64116898148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11857,7 +11887,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11894,14 +11924,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 29444-2024</t>
+          <t>A 54770-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45483.86464120371</v>
+        <v>45966.60803240741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11914,7 +11944,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11951,14 +11981,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 10746-2023</t>
+          <t>A 10273-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44988</v>
+        <v>44986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,13 +12000,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>12.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12013,14 +12038,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 39873-2024</t>
+          <t>A 55033-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45553</v>
+        <v>45967</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12032,13 +12057,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12071,38 +12091,18 @@
         <v>0</v>
       </c>
       <c r="R188" s="2" t="inlineStr"/>
-      <c r="U188">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 39873-2024 karta knärot.png", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="V188">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 39873-2024 FSC-klagomål.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="W188">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 39873-2024 FSC-klagomål mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="X188">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 39873-2024 tillsynsbegäran.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
-      <c r="Y188">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 39873-2024 tillsynsbegäran mail.docx", "A 39873-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4468-2022</t>
+          <t>A 50405-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44589</v>
+        <v>45601.35753472222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12152,14 +12152,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 36444-2022</t>
+          <t>A 28824-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44804.38798611111</v>
+        <v>45478</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12171,8 +12171,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12209,14 +12214,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 22198-2023</t>
+          <t>A 55842-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45069.78799768518</v>
+        <v>45973.29060185186</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12228,8 +12233,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12266,14 +12276,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 38955-2023</t>
+          <t>A 41350-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45163</v>
+        <v>45174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12285,8 +12295,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12323,14 +12338,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 18400-2025</t>
+          <t>A 2039-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45762.59549768519</v>
+        <v>45672</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12343,7 +12358,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12380,14 +12395,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 11287-2025</t>
+          <t>A 61314-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45726.42666666667</v>
+        <v>45646.31635416667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12399,13 +12414,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12442,14 +12452,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 20344-2023</t>
+          <t>A 58428-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45056</v>
+        <v>45985.60064814815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12462,7 +12472,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12499,14 +12509,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 39875-2024</t>
+          <t>A 61470-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45553</v>
+        <v>45646</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12518,13 +12528,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12561,14 +12566,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 39878-2024</t>
+          <t>A 62160-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45553</v>
+        <v>45656.80090277778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12580,13 +12585,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12623,14 +12623,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 61314-2024</t>
+          <t>A 50104-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45646.31635416667</v>
+        <v>45600.40037037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12680,14 +12680,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 5559-2024</t>
+          <t>A 33334-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45334</v>
+        <v>45128.33488425926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12737,14 +12737,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 48268-2021</t>
+          <t>A 1574-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44449.66981481481</v>
+        <v>45670.55908564815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12754,6 +12754,11 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -12794,14 +12799,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 3643-2023</t>
+          <t>A 55727-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44950.69260416667</v>
+        <v>45622.90070601852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12814,7 +12819,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12851,14 +12856,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 28824-2024</t>
+          <t>A 10274-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45478</v>
+        <v>44986</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12870,13 +12875,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12913,14 +12913,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 50405-2024</t>
+          <t>A 61584-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45601.35753472222</v>
+        <v>46002.34265046296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12970,14 +12970,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 4470-2022</t>
+          <t>A 58548-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44589</v>
+        <v>45635.45878472222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>6.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13027,14 +13027,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 28579-2022</t>
+          <t>A 24055-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44748</v>
+        <v>45796</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13084,14 +13084,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 30802-2023</t>
+          <t>A 61581-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45112</v>
+        <v>46002.33817129629</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13103,13 +13103,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13146,14 +13141,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 37564-2024</t>
+          <t>A 26863-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45541.44607638889</v>
+        <v>45810.69763888889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13166,7 +13161,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>11.1</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13203,14 +13198,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 39867-2024</t>
+          <t>A 62978-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45553.46100694445</v>
+        <v>46009.47902777778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13224,11 +13219,11 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13265,14 +13260,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 30603-2021</t>
+          <t>A 41233-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44365.28403935185</v>
+        <v>45559</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13285,7 +13280,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13322,14 +13317,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 61470-2024</t>
+          <t>A 62939-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45646</v>
+        <v>46009.4262037037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13341,8 +13336,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13379,14 +13379,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1574-2025</t>
+          <t>A 62961-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45670.55908564815</v>
+        <v>46009.45863425926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>9.699999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13441,14 +13441,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 62160-2024</t>
+          <t>A 6223-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45656.80090277778</v>
+        <v>46055.44097222222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13498,14 +13498,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 50104-2024</t>
+          <t>A 29773-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45600.40037037037</v>
+        <v>45825.63271990741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13555,14 +13555,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 33334-2023</t>
+          <t>A 33204-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45128.33488425926</v>
+        <v>45840.61181712963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13612,14 +13612,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 55727-2024</t>
+          <t>A 1217-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45622.90070601852</v>
+        <v>46031.39998842592</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.6</v>
+        <v>12</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13669,14 +13669,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 10274-2023</t>
+          <t>A 9933-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44986</v>
+        <v>46073.45722222222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13726,14 +13726,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 58548-2024</t>
+          <t>A 12616-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45635.45878472222</v>
+        <v>45733</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13783,14 +13783,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 24055-2025</t>
+          <t>A 27638-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45796</v>
+        <v>45813</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13840,14 +13840,14 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 26863-2025</t>
+          <t>A 37898-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45810.69763888889</v>
+        <v>45881.55846064815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>

--- a/Översikt LEKEBERG.xlsx
+++ b/Översikt LEKEBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44459</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,14 +669,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 37012-2022</t>
+          <t>A 33104-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44806</v>
+        <v>45517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,19 +689,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -716,512 +716,512 @@
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Blekspindling agg.
+Garnlav</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 42748-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Granriska
+Rostfläck</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 35099-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45852.5584375</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 11678-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45373.57708333333</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 62297-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>46006.64673611111</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 37012-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LEKEBERG</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Spillkråka</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 37012-2022 artfynd.xlsx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 37012-2022 karta.png", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 37012-2022 karta knärot.png", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 37012-2022 FSC-klagomål.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 37012-2022 FSC-klagomål mail.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 37012-2022 tillsynsbegäran.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 37012-2022 tillsynsbegäran mail.docx", "A 37012-2022")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 37012-2022 prioriterade fågelarter.docx", "A 37012-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 11678-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45373.57708333333</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11678-2024 artfynd.xlsx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11678-2024 karta.png", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11678-2024 FSC-klagomål.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11678-2024 FSC-klagomål mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11678-2024 tillsynsbegäran.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11678-2024 tillsynsbegäran mail.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 11678-2024 prioriterade fågelarter.docx", "A 11678-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 33104-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45517</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Blekspindling agg.
-Garnlav</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 33104-2024 artfynd.xlsx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 33104-2024 karta.png", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 33104-2024 karta knärot.png", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 33104-2024 FSC-klagomål.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 33104-2024 FSC-klagomål mail.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 33104-2024 tillsynsbegäran.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 33104-2024 tillsynsbegäran mail.docx", "A 33104-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 42748-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Granriska
-Rostfläck</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 42748-2024 artfynd.xlsx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 42748-2024 karta.png", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/knärot/A 42748-2024 karta knärot.png", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 42748-2024 FSC-klagomål.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 42748-2024 FSC-klagomål mail.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 42748-2024 tillsynsbegäran.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 42748-2024 tillsynsbegäran mail.docx", "A 42748-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 62297-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>46006.64673611111</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 62297-2025 artfynd.xlsx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 62297-2025 karta.png", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 62297-2025 FSC-klagomål.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 62297-2025 FSC-klagomål mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 62297-2025 tillsynsbegäran.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 62297-2025 tillsynsbegäran mail.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 62297-2025 prioriterade fågelarter.docx", "A 62297-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 35099-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45852.5584375</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LEKEBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 35099-2025 artfynd.xlsx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 35099-2025 karta.png", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 35099-2025 FSC-klagomål.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 35099-2025 FSC-klagomål mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 35099-2025 tillsynsbegäran.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 35099-2025 tillsynsbegäran mail.docx", "A 35099-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 35099-2025 prioriterade fågelarter.docx", "A 35099-2025")</f>
         <v/>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <v>45305</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1317,14 +1317,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 28147-2022</t>
+          <t>A 22805-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44746</v>
+        <v>45789</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>7.7</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1371,35 +1371,35 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 28147-2022 artfynd.xlsx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22805-2025 artfynd.xlsx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 28147-2022 karta.png", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22805-2025 karta.png", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 28147-2022 FSC-klagomål.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22805-2025 FSC-klagomål.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 28147-2022 FSC-klagomål mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22805-2025 FSC-klagomål mail.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 28147-2022 tillsynsbegäran.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22805-2025 tillsynsbegäran.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 28147-2022 tillsynsbegäran mail.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22805-2025 tillsynsbegäran mail.docx", "A 22805-2025")</f>
         <v/>
       </c>
       <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 28147-2022 prioriterade fågelarter.docx", "A 28147-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22805-2025 prioriterade fågelarter.docx", "A 22805-2025")</f>
         <v/>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
         <v>45721.39129629629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,14 +1500,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 30722-2023</t>
+          <t>A 22580-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45112</v>
+        <v>45447.5825462963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,13 +1519,8 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>21.2</v>
+        <v>7.3</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1534,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1549,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1559,49 +1554,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
         <v/>
       </c>
       <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 19176-2025</t>
+          <t>A 11637-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45769</v>
+        <v>45727.46729166667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1613,23 +1608,28 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1641,56 +1641,52 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 10680-2024</t>
+          <t>A 44857-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45368</v>
+        <v>45918.45165509259</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1699,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1712,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1730,52 +1726,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 10680-2024 artfynd.xlsx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 10680-2024 karta.png", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 10680-2024 FSC-klagomål.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 10680-2024 FSC-klagomål mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 10680-2024 tillsynsbegäran.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 10680-2024 tillsynsbegäran mail.docx", "A 10680-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 22580-2024</t>
+          <t>A 30722-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45447.5825462963</v>
+        <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,8 +1783,13 @@
           <t>LEKEBERG</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>7.3</v>
+        <v>21.2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1797,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1812,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1822,49 +1823,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 22580-2024 artfynd.xlsx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 30722-2023 artfynd.xlsx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 22580-2024 karta.png", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 30722-2023 karta.png", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 22580-2024 FSC-klagomål.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 30722-2023 FSC-klagomål.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 22580-2024 FSC-klagomål mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 30722-2023 FSC-klagomål mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 22580-2024 tillsynsbegäran.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 30722-2023 tillsynsbegäran.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 22580-2024 tillsynsbegäran mail.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 30722-2023 tillsynsbegäran mail.docx", "A 30722-2023")</f>
         <v/>
       </c>
       <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 22580-2024 prioriterade fågelarter.docx", "A 22580-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 30722-2023 prioriterade fågelarter.docx", "A 30722-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 44857-2025</t>
+          <t>A 19176-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45918.45165509259</v>
+        <v>45769</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1877,10 +1878,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1911,31 +1912,35 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 44857-2025 artfynd.xlsx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 19176-2025 artfynd.xlsx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 44857-2025 karta.png", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 19176-2025 karta.png", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 44857-2025 FSC-klagomål.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 19176-2025 FSC-klagomål.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 44857-2025 FSC-klagomål mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 19176-2025 FSC-klagomål mail.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 44857-2025 tillsynsbegäran.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 19176-2025 tillsynsbegäran.docx", "A 19176-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 44857-2025 tillsynsbegäran mail.docx", "A 44857-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 19176-2025 tillsynsbegäran mail.docx", "A 19176-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/fåglar/A 19176-2025 prioriterade fågelarter.docx", "A 19176-2025")</f>
         <v/>
       </c>
     </row>
@@ -1949,7 +1954,7 @@
         <v>45362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2031,14 +2036,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 11637-2025</t>
+          <t>A 58430-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45727.46729166667</v>
+        <v>45985.60377314815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2050,16 +2055,11 @@
           <t>LEKEBERG</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2080,55 +2080,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 11637-2025 artfynd.xlsx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/artfynd/A 58430-2025 artfynd.xlsx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 11637-2025 karta.png", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/kartor/A 58430-2025 karta.png", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 11637-2025 FSC-klagomål.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomål/A 58430-2025 FSC-klagomål.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 11637-2025 FSC-klagomål mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/klagomålsmail/A 58430-2025 FSC-klagomål mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 11637-2025 tillsynsbegäran.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsyn/A 58430-2025 tillsynsbegäran.docx", "A 58430-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 11637-2025 tillsynsbegäran mail.docx", "A 11637-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1814/tillsynsmail/A 58430-2025 tillsynsbegäran mail.docx", "A 58430-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 290-2025</t>
+          <t>A 41241-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45656</v>
+        <v>45559</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2141,17 +2141,17 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
     